--- a/metadata/COVAX/COVAX_TRACKER_V1_DHIS2.34/reference.xlsx
+++ b/metadata/COVAX/COVAX_TRACKER_V1_DHIS2.34/reference.xlsx
@@ -497,7 +497,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-02-01T17:38</v>
+        <v>2021-02-02T10:31</v>
       </c>
     </row>
     <row r="7">
@@ -505,7 +505,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX_TRACKER_V1.0.0_DHIS2.34_2021-02-01T17:38</v>
+        <v>COVAX_TRACKER_V1.0.0_DHIS2.34_2021-02-02T10:31</v>
       </c>
     </row>
   </sheetData>
@@ -736,12 +736,12 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="58.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="390.7109375" customWidth="1"/>
@@ -1028,16 +1028,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v xml:space="preserve">COVAX Recent infection with a temperature &gt; 39 degree C </v>
+        <v>COVAX - Cardiovascular Disease</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAX Recent infection temperature &gt; 39 degree C</v>
+        <v>COVAX Cardiovascular Disease</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v/>
+        <v>Covax_Comcond_cardi</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v/>
+        <v>Cardiovascular disease, including hypertension</v>
       </c>
       <c r="E13" s="5" t="str">
         <v>default</v>
@@ -1046,21 +1046,21 @@
         <v>2021-01-31</v>
       </c>
       <c r="G13" s="5" t="str">
-        <v>l08HtGca4rp</v>
+        <v>LNHAYF3qdZl</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>COVAX - Cardiovascular Disease</v>
+        <v>COVAX Previously infected with COVID</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAX Cardiovascular Disease</v>
+        <v>Previously infected with COVID</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>Covax_Comcond_cardi</v>
+        <v/>
       </c>
       <c r="D14" s="4" t="str">
-        <v>Cardiovascular disease, including hypertension</v>
+        <v>Has the patient been infected with COVID-19 within the last 90 days?</v>
       </c>
       <c r="E14" s="4" t="str">
         <v>default</v>
@@ -1069,21 +1069,21 @@
         <v>2021-01-31</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>LNHAYF3qdZl</v>
+        <v>LOU9t0aR0z7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>COVAX Previously infected with COVID</v>
+        <v>COVAX - Dose Number</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Previously infected with COVID</v>
+        <v>COVAX - Dose Number</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v/>
+        <v>dose_number</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>Has the patient been infected with COVID-19 within the last 90 days?</v>
+        <v>Defines if this is the first vs the second dose, for example</v>
       </c>
       <c r="E15" s="5" t="str">
         <v>default</v>
@@ -1092,64 +1092,64 @@
         <v>2021-01-31</v>
       </c>
       <c r="G15" s="5" t="str">
-        <v>LOU9t0aR0z7</v>
+        <v>LUIsbsm3okG</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>COVAX - Dose Number</v>
+        <v>COVAX - AEFIs present</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAX - Dose Number</v>
+        <v>COVAX - AEFIs present</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>dose_number</v>
+        <v>AEFIs_present</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>Defines if this is the first vs the second dose, for example</v>
+        <v>Are there any adverse events present after receiving the immunization?</v>
       </c>
       <c r="E16" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-01</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>LUIsbsm3okG</v>
+        <v>m9PgIDAJGlF</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>COVAX - AEFIs present</v>
+        <v>COVAX - Immunodeficiency</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAX - AEFIs present</v>
+        <v>COVAX - Immunodeficiency</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>AEFIs_present</v>
+        <v>Covax_Comcond_immuno</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>Are there any adverse events present after receiving the immunization?</v>
+        <v/>
       </c>
       <c r="E17" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-01-31</v>
       </c>
       <c r="G17" s="5" t="str">
-        <v>m9PgIDAJGlF</v>
+        <v>MuZ9dMVXpuM</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>COVAX - Immunodeficiency</v>
+        <v>COVAX - Multiple products used - Explain</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAX - Immunodeficiency</v>
+        <v>Multiple products explanation</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>Covax_Comcond_immuno</v>
+        <v/>
       </c>
       <c r="D18" s="4" t="str">
         <v/>
@@ -1161,21 +1161,21 @@
         <v>2021-01-31</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>MuZ9dMVXpuM</v>
+        <v>OAxinuYFDG6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>COVAX - Multiple products used - Explain</v>
+        <v>COVAX - Eligibility</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Multiple products explanation</v>
+        <v>COVAX - Eligibility</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v/>
+        <v>eligible</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v/>
+        <v>Whether the client is eligible for the vaccine</v>
       </c>
       <c r="E19" s="5" t="str">
         <v>default</v>
@@ -1184,21 +1184,21 @@
         <v>2021-01-31</v>
       </c>
       <c r="G19" s="5" t="str">
-        <v>OAxinuYFDG6</v>
+        <v>OXBnk0mWcOw</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>COVAX - Eligibility</v>
+        <v>COVAX Date of remission</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAX - Eligibility</v>
+        <v>Date of remission COVID</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>eligible</v>
+        <v/>
       </c>
       <c r="D20" s="4" t="str">
-        <v>Whether the client is eligible for the vaccine</v>
+        <v/>
       </c>
       <c r="E20" s="4" t="str">
         <v>default</v>
@@ -1207,18 +1207,18 @@
         <v>2021-01-31</v>
       </c>
       <c r="G20" s="4" t="str">
-        <v>OXBnk0mWcOw</v>
+        <v>oZiX5uHkacg</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>COVAX Date of remission</v>
+        <v>COVAX - Diabetes</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Date of remission COVID</v>
+        <v>COVAX Diabetes</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v/>
+        <v>Covax_Comcond_diabetes</v>
       </c>
       <c r="D21" s="5" t="str">
         <v/>
@@ -1230,15 +1230,15 @@
         <v>2021-01-31</v>
       </c>
       <c r="G21" s="5" t="str">
-        <v>oZiX5uHkacg</v>
+        <v>TT1h0vGu5da</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>COVAX AEFI - Bell's Palsy</v>
+        <v>AEFI_Nonserious adverse event following immunization</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>Bell's Palsy</v>
+        <v>Non-serious adverse event following immunization</v>
       </c>
       <c r="C22" s="4" t="str">
         <v/>
@@ -1253,21 +1253,21 @@
         <v>2021-01-31</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>PuCFugChuxx</v>
+        <v>V5CfmqTsKrv</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>COVAX AEFI Manufacturer Name</v>
+        <v>COVAX - Neurological/Neuromuscular</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Manufacturer Name</v>
+        <v>Neurological/Neuromuscular</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v/>
+        <v>Comcond_neuro</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v/>
+        <v>Chronic neurological or neuromuscular disease</v>
       </c>
       <c r="E23" s="5" t="str">
         <v>default</v>
@@ -1276,21 +1276,21 @@
         <v>2021-01-31</v>
       </c>
       <c r="G23" s="5" t="str">
-        <v>rpkH9ZPGJcX</v>
+        <v>VCetMtYu1DY</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>COVAX AEFI -  Lymphadenopathy</v>
+        <v>COVAX - Malignancy</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Lymphadenopathy</v>
+        <v>COVAX - Malignancy</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v/>
+        <v>Covax_Comcond_malig</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v/>
+        <v>COVAX - Malignancy</v>
       </c>
       <c r="E24" s="4" t="str">
         <v>default</v>
@@ -1299,21 +1299,21 @@
         <v>2021-01-31</v>
       </c>
       <c r="G24" s="4" t="str">
-        <v>S1hrcFVHKoh</v>
+        <v>xVxLMku5DMX</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>COVAX - Diabetes</v>
+        <v>COVAX- Batch Number</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>COVAX Diabetes</v>
+        <v>COVAX - Batch Number</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>Covax_Comcond_diabetes</v>
+        <v/>
       </c>
       <c r="D25" s="5" t="str">
-        <v/>
+        <v>Batch number for this vaccine dose</v>
       </c>
       <c r="E25" s="5" t="str">
         <v>default</v>
@@ -1322,21 +1322,21 @@
         <v>2021-01-31</v>
       </c>
       <c r="G25" s="5" t="str">
-        <v>TT1h0vGu5da</v>
+        <v>Yp1F4txx8tm</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>COVAX AEFI - Vaccine name</v>
+        <v>COVAX - Dose Expiry Date</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Vaccine name</v>
+        <v>COVAX - Dose Expiry Date</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v/>
+        <v>dose_expiry_date</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v xml:space="preserve">The vaccine that is suspected to have caused the AEFI (provide brand name, if possible) </v>
+        <v>Date dose of expiration</v>
       </c>
       <c r="E26" s="4" t="str">
         <v>default</v>
@@ -1345,121 +1345,6 @@
         <v>2021-01-31</v>
       </c>
       <c r="G26" s="4" t="str">
-        <v>u6OlTToQfhr</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="str">
-        <v>AEFI_Nonserious adverse event following immunization</v>
-      </c>
-      <c r="B27" s="5" t="str">
-        <v>Non-serious adverse event following immunization</v>
-      </c>
-      <c r="C27" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D27" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E27" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F27" s="5" t="str">
-        <v>2021-01-31</v>
-      </c>
-      <c r="G27" s="5" t="str">
-        <v>V5CfmqTsKrv</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
-      </c>
-      <c r="B28" s="4" t="str">
-        <v>Neurological/Neuromuscular</v>
-      </c>
-      <c r="C28" s="4" t="str">
-        <v>Comcond_neuro</v>
-      </c>
-      <c r="D28" s="4" t="str">
-        <v>Chronic neurological or neuromuscular disease</v>
-      </c>
-      <c r="E28" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F28" s="4" t="str">
-        <v>2021-01-31</v>
-      </c>
-      <c r="G28" s="4" t="str">
-        <v>VCetMtYu1DY</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="str">
-        <v>COVAX - Malignancy</v>
-      </c>
-      <c r="B29" s="5" t="str">
-        <v>COVAX - Malignancy</v>
-      </c>
-      <c r="C29" s="5" t="str">
-        <v>Covax_Comcond_malig</v>
-      </c>
-      <c r="D29" s="5" t="str">
-        <v>COVAX - Malignancy</v>
-      </c>
-      <c r="E29" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F29" s="5" t="str">
-        <v>2021-01-31</v>
-      </c>
-      <c r="G29" s="5" t="str">
-        <v>xVxLMku5DMX</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="str">
-        <v>COVAX- Batch Number</v>
-      </c>
-      <c r="B30" s="4" t="str">
-        <v>COVAX - Batch Number</v>
-      </c>
-      <c r="C30" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D30" s="4" t="str">
-        <v>Batch number for this vaccine dose</v>
-      </c>
-      <c r="E30" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F30" s="4" t="str">
-        <v>2021-01-31</v>
-      </c>
-      <c r="G30" s="4" t="str">
-        <v>Yp1F4txx8tm</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="str">
-        <v>COVAX - Dose Expiry Date</v>
-      </c>
-      <c r="B31" s="5" t="str">
-        <v>COVAX - Dose Expiry Date</v>
-      </c>
-      <c r="C31" s="5" t="str">
-        <v>dose_expiry_date</v>
-      </c>
-      <c r="D31" s="5" t="str">
-        <v>Date dose of expiration</v>
-      </c>
-      <c r="E31" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F31" s="5" t="str">
-        <v>2021-01-31</v>
-      </c>
-      <c r="G31" s="5" t="str">
         <v>YTQulAldGOs</v>
       </c>
     </row>
@@ -1735,7 +1620,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-02</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>GLevLNI9wkl</v>

--- a/metadata/COVAX/COVAX_TRACKER_V1_DHIS2.34/reference.xlsx
+++ b/metadata/COVAX/COVAX_TRACKER_V1_DHIS2.34/reference.xlsx
@@ -497,7 +497,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-02-02T10:31</v>
+        <v>2021-02-03T17:43</v>
       </c>
     </row>
     <row r="7">
@@ -505,7 +505,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX_TRACKER_V1.0.0_DHIS2.34_2021-02-02T10:31</v>
+        <v>COVAX_TRACKER_V1.0.0_DHIS2.34_2021-02-03T17:43</v>
       </c>
     </row>
   </sheetData>
@@ -1620,7 +1620,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-02</v>
+        <v>2021-02-03</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>GLevLNI9wkl</v>

--- a/metadata/COVAX/COVAX_TRACKER_V1_DHIS2.34/reference.xlsx
+++ b/metadata/COVAX/COVAX_TRACKER_V1_DHIS2.34/reference.xlsx
@@ -497,7 +497,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-02-03T17:43</v>
+        <v>2021-02-04T11:19</v>
       </c>
     </row>
     <row r="7">
@@ -505,7 +505,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX_TRACKER_V1.0.0_DHIS2.34_2021-02-03T17:43</v>
+        <v>COVAX_TRACKER_V1.0.0_DHIS2.34_2021-02-04T11:19</v>
       </c>
     </row>
   </sheetData>
@@ -1261,10 +1261,10 @@
         <v>COVAX - Neurological/Neuromuscular</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Neurological/Neuromuscular</v>
+        <v>COVAX - Neurological/Neuromuscular</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>Comcond_neuro</v>
+        <v>COVAX_Comcond_neuro</v>
       </c>
       <c r="D23" s="5" t="str">
         <v>Chronic neurological or neuromuscular disease</v>
@@ -1273,7 +1273,7 @@
         <v>default</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-03</v>
       </c>
       <c r="G23" s="5" t="str">
         <v>VCetMtYu1DY</v>
@@ -1620,7 +1620,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-03</v>
+        <v>2021-02-04</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>GLevLNI9wkl</v>
@@ -3768,7 +3768,7 @@
         <v>AEFI access</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-03</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>J3mFUNTreYY</v>
@@ -3801,7 +3801,7 @@
         <v>AEFI data capture</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-03</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>RWyhKm0cuQ5</v>
@@ -6325,7 +6325,7 @@
         <v/>
       </c>
       <c r="D34" s="4" t="str">
-        <v>2020-12-08</v>
+        <v>2021-02-03</v>
       </c>
       <c r="E34" s="4" t="str">
         <v>yDuAzyqYABS</v>

--- a/metadata/COVAX/COVAX_TRACKER_V1_DHIS2.34/reference.xlsx
+++ b/metadata/COVAX/COVAX_TRACKER_V1_DHIS2.34/reference.xlsx
@@ -497,7 +497,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-02-04T11:19</v>
+        <v>2021-02-09T16:31</v>
       </c>
     </row>
     <row r="7">
@@ -505,7 +505,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX_TRACKER_V1.0.0_DHIS2.34_2021-02-04T11:19</v>
+        <v>COVAX_TRACKER_V1.0.0_DHIS2.34_2021-02-09T16:31</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +736,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -790,7 +790,7 @@
         <v>default</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>bbnyNYD1wgS</v>
@@ -813,7 +813,7 @@
         <v>default</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G3" s="5" t="str">
         <v>bCtWZGjSWM8</v>
@@ -836,7 +836,7 @@
         <v>default</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G4" s="4" t="str">
         <v>BfNZcj99yz4</v>
@@ -859,7 +859,7 @@
         <v>default</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G5" s="5" t="str">
         <v>C0Bony47eKp</v>
@@ -882,7 +882,7 @@
         <v>default</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G6" s="4" t="str">
         <v>CBAs12YL4g7</v>
@@ -905,7 +905,7 @@
         <v>default</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G7" s="5" t="str">
         <v>dpyQUtizp7s</v>
@@ -928,7 +928,7 @@
         <v>default</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G8" s="4" t="str">
         <v>DSOWCIdQ8Tr</v>
@@ -951,7 +951,7 @@
         <v>default</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G9" s="5" t="str">
         <v>dWoveSw6b79</v>
@@ -974,7 +974,7 @@
         <v>default</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G10" s="4" t="str">
         <v>FFWcps4MfuH</v>
@@ -997,7 +997,7 @@
         <v>default</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G11" s="5" t="str">
         <v>gW4pd818Sw8</v>
@@ -1020,7 +1020,7 @@
         <v>default</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G12" s="4" t="str">
         <v>kQCVFWE2MPb</v>
@@ -1043,7 +1043,7 @@
         <v>default</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G13" s="5" t="str">
         <v>LNHAYF3qdZl</v>
@@ -1066,7 +1066,7 @@
         <v>default</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G14" s="4" t="str">
         <v>LOU9t0aR0z7</v>
@@ -1089,7 +1089,7 @@
         <v>default</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G15" s="5" t="str">
         <v>LUIsbsm3okG</v>
@@ -1135,7 +1135,7 @@
         <v>default</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G17" s="5" t="str">
         <v>MuZ9dMVXpuM</v>
@@ -1158,7 +1158,7 @@
         <v>default</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G18" s="4" t="str">
         <v>OAxinuYFDG6</v>
@@ -1181,7 +1181,7 @@
         <v>default</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G19" s="5" t="str">
         <v>OXBnk0mWcOw</v>
@@ -1204,7 +1204,7 @@
         <v>default</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G20" s="4" t="str">
         <v>oZiX5uHkacg</v>
@@ -1212,33 +1212,33 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>COVAX - Diabetes</v>
+        <v>COVAX - Total doses</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAX Diabetes</v>
+        <v>COVAX Total doses</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>Covax_Comcond_diabetes</v>
+        <v>totalDoses</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v/>
+        <v xml:space="preserve">Total doses required for this vaccine product </v>
       </c>
       <c r="E21" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G21" s="5" t="str">
-        <v>TT1h0vGu5da</v>
+        <v>PamkjF1JUnE</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>AEFI_Nonserious adverse event following immunization</v>
+        <v>COVAX - Manufacturer</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>Non-serious adverse event following immunization</v>
+        <v>COVAX Manufacturer</v>
       </c>
       <c r="C22" s="4" t="str">
         <v/>
@@ -1250,101 +1250,147 @@
         <v>default</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-04</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>V5CfmqTsKrv</v>
+        <v>rpkH9ZPGJcX</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
+        <v>COVAX - Diabetes</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
+        <v>COVAX Diabetes</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>COVAX_Comcond_neuro</v>
+        <v>Covax_Comcond_diabetes</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>Chronic neurological or neuromuscular disease</v>
+        <v/>
       </c>
       <c r="E23" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>2021-02-03</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G23" s="5" t="str">
-        <v>VCetMtYu1DY</v>
+        <v>TT1h0vGu5da</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>COVAX - Malignancy</v>
+        <v>AEFI_Nonserious adverse event following immunization</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>COVAX - Malignancy</v>
+        <v>Non-serious adverse event following immunization</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>Covax_Comcond_malig</v>
+        <v/>
       </c>
       <c r="D24" s="4" t="str">
-        <v>COVAX - Malignancy</v>
+        <v/>
       </c>
       <c r="E24" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G24" s="4" t="str">
-        <v>xVxLMku5DMX</v>
+        <v>V5CfmqTsKrv</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>COVAX- Batch Number</v>
+        <v>COVAX - Neurological/Neuromuscular</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>COVAX - Batch Number</v>
+        <v>COVAX - Neurological/Neuromuscular</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v/>
+        <v>COVAX_Comcond_neuro</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>Batch number for this vaccine dose</v>
+        <v>Chronic neurological or neuromuscular disease</v>
       </c>
       <c r="E25" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F25" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G25" s="5" t="str">
-        <v>Yp1F4txx8tm</v>
+        <v>VCetMtYu1DY</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>COVAX - Dose Expiry Date</v>
+        <v>COVAX - Malignancy</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>COVAX - Dose Expiry Date</v>
+        <v>COVAX - Malignancy</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>dose_expiry_date</v>
+        <v>Covax_Comcond_malig</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>Date dose of expiration</v>
+        <v>COVAX - Malignancy</v>
       </c>
       <c r="E26" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="G26" s="4" t="str">
+        <v>xVxLMku5DMX</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="str">
+        <v>COVAX- Batch Number</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <v>COVAX - Batch Number</v>
+      </c>
+      <c r="C27" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D27" s="5" t="str">
+        <v>Batch number for this vaccine dose</v>
+      </c>
+      <c r="E27" s="5" t="str">
+        <v>default</v>
+      </c>
+      <c r="F27" s="5" t="str">
+        <v>2021-02-05</v>
+      </c>
+      <c r="G27" s="5" t="str">
+        <v>Yp1F4txx8tm</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="str">
+        <v>COVAX - Dose Expiry Date</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <v>COVAX - Dose Expiry Date</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <v>dose_expiry_date</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <v>Date dose of expiration</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <v>default</v>
+      </c>
+      <c r="F28" s="4" t="str">
+        <v>2021-02-05</v>
+      </c>
+      <c r="G28" s="4" t="str">
         <v>YTQulAldGOs</v>
       </c>
     </row>
@@ -1575,7 +1621,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>bjDvmb4bfuf</v>
@@ -1620,7 +1666,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-04</v>
+        <v>2021-02-09</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>GLevLNI9wkl</v>
@@ -1661,7 +1707,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>xYerKDKCefk</v>
@@ -1699,7 +1745,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>HllvX50cXC0</v>
@@ -1711,7 +1757,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1755,7 +1801,7 @@
         <v>Occupation - COVID</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>CNNH0YKxRh9</v>
@@ -1766,85 +1812,99 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Sex</v>
+        <v>COVAX Manufacturers</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-05</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>DtOGtoLbaB5</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>Male; Female</v>
+        <v>Manufacturer 1; Manufacturer 2; Manufacturer 3; Moderna Therapeutics Inc; BioNTech Manufacturing GmBH; Lonza Group; PGS Kalamazoo; Sanofi</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAX AEFI Pregnancy</v>
+        <v>Sex</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-01-22</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>ilxtWultuYP</v>
+        <v>hiQ3QFheQ3O</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>Pregnant; Lactating; No</v>
+        <v>Male; Female</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX trimester</v>
+        <v>COVAX AEFI Pregnancy</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>ilxtWultuYP</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>1st Trimester (1-12 weeks); 2nd Trimester (13-28 weeks); 3rd Trimester (20-40 weeks)</v>
+        <v>Pregnant; Lactating; No</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX Dose</v>
+        <v>COVAX trimester</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>kgDmgTYZICP</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>1st dose; 2nd dose; 3rd dose; Booster dose</v>
+        <v>1st Trimester (1-12 weeks); 2nd Trimester (13-28 weeks); 3rd Trimester (20-40 weeks)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX - Vaccine types</v>
+        <v>COVAX Dose</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>oj3CWm4hpPb</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>COVAX1; COVAX2; COVAX3</v>
+        <v>1st dose; 2nd dose; 3rd dose; Booster dose</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
+        <v>COVAX - Vaccine types</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <v>2021-02-05</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <v>VQo3HkUlMHc</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <v>COVAX1; COVAX2; COVAX3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="str">
         <v>Area Urban Rural</v>
       </c>
-      <c r="B9" s="5" t="str">
-        <v>2021-01-31</v>
-      </c>
-      <c r="C9" s="5" t="str">
+      <c r="B10" s="4" t="str">
+        <v>2021-02-05</v>
+      </c>
+      <c r="C10" s="4" t="str">
         <v>VWzgQENmzPK</v>
       </c>
-      <c r="D9" s="5" t="str">
+      <c r="D10" s="4" t="str">
         <v>Urban; Rural</v>
       </c>
     </row>
@@ -1854,7 +1914,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1885,169 +1945,169 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>ahtoNsMUVFa</v>
+        <v>A9OSdfNI6IT</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>Teacher</v>
+        <v>Manufacturer 1</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>teacher</v>
+        <v>manufacturer1</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>2021-01-31</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>AZK4rjJCss5</v>
+        <v>ahtoNsMUVFa</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>Female</v>
+        <v>Teacher</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>FEMALE</v>
+        <v>teacher</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>B26BIJSeQy0</v>
+        <v>AZK4rjJCss5</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX2</v>
+        <v>Female</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>COVAX2</v>
+        <v>FEMALE</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>hiQ3QFheQ3O</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>bVYOqnn9R2r</v>
+        <v>B26BIJSeQy0</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>Hotelier / airline personel</v>
+        <v>COVAX2</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>hotelier_airline_personel</v>
+        <v>COVAX2</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>CvivP1rh4ii</v>
+        <v>bVYOqnn9R2r</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Yes</v>
+        <v>Hotelier / airline personel</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>YES</v>
+        <v>hotelier_airline_personel</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-01-12</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>DYJrGkIG11J</v>
+        <v>caHzedoEw6F</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>2nd dose</v>
+        <v>Manufacturer 3</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>DOSE2</v>
+        <v>manufacturer3</v>
       </c>
       <c r="D7" s="5" t="str">
         <v>2021-01-31</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>EErrO8Fyu43</v>
+        <v>CvivP1rh4ii</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Law enforcement/ Firefighter</v>
+        <v>Yes</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>law_enforcement_firefighter</v>
+        <v>YES</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-01-12</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>bLA3AqDKdwx</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>fWAvnP7mf98</v>
+        <v>DYJrGkIG11J</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>Unemployed</v>
+        <v>2nd dose</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>unemployed</v>
+        <v>DOSE2</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>2021-01-31</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>G08Evdkx5dY</v>
+        <v>EErrO8Fyu43</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>1st dose</v>
+        <v>Law enforcement/ Firefighter</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>DOSE1</v>
+        <v>law_enforcement_firefighter</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>GUiVk7RiR3p</v>
+        <v>fWAvnP7mf98</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Student</v>
+        <v>Unemployed</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>student</v>
+        <v>unemployed</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E11" s="5" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2055,33 +2115,33 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>gVqGaROtask</v>
+        <v>G08Evdkx5dY</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>No</v>
+        <v>1st dose</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>not_pregnant</v>
+        <v>DOSE1</v>
       </c>
       <c r="D12" s="4" t="str">
         <v>2021-01-31</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>ilxtWultuYP</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>Gx9kgkrZj9y</v>
+        <v>GUiVk7RiR3p</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Driver / housekeeping staff</v>
+        <v>Student</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>driver_housekeeping_staff</v>
+        <v>student</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E13" s="5" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2089,358 +2149,494 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>HGNGJ3lHrFG</v>
+        <v>gVqGaROtask</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Healthcare worker</v>
+        <v>No</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>healthcare_worker</v>
+        <v>not_pregnant</v>
       </c>
       <c r="D14" s="4" t="str">
         <v>2021-01-31</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>ilxtWultuYP</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>HxFNfoxk7ac</v>
+        <v>Gx9kgkrZj9y</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Rural</v>
+        <v>Driver / housekeeping staff</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>RURAL</v>
+        <v>driver_housekeeping_staff</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>VWzgQENmzPK</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>IHYwYAtvjCY</v>
+        <v>HGNGJ3lHrFG</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>Urban</v>
+        <v>Healthcare worker</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>URBAN</v>
+        <v>healthcare_worker</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>VWzgQENmzPK</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>jbAJfe9Nqtk</v>
+        <v>HxFNfoxk7ac</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Other</v>
+        <v>Rural</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>other</v>
+        <v>RURAL</v>
       </c>
       <c r="D17" s="5" t="str">
         <v>2021-01-31</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>VWzgQENmzPK</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>PLlPgcfbL1D</v>
+        <v>IHYwYAtvjCY</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>No</v>
+        <v>Urban</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>NO</v>
+        <v>URBAN</v>
       </c>
       <c r="D18" s="4" t="str">
         <v>2021-01-31</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>VWzgQENmzPK</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>PoeQ0Zb1avN</v>
+        <v>ilxDbKaotF7</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Booster dose</v>
+        <v>Lonza Group</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>BOOSTER</v>
+        <v>lonzagroup</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>Q3obJT1MXov</v>
+        <v>jbAJfe9Nqtk</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>3rd Trimester (20-40 weeks)</v>
+        <v>Other</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>3trimester</v>
+        <v>other</v>
       </c>
       <c r="D20" s="4" t="str">
         <v>2021-01-31</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>scFBcsNG5JT</v>
+        <v>KHU0Aaa2Bw2</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Pregnant</v>
+        <v>Sanofi</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>COVAXPregnant</v>
+        <v>sanofi1</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E21" s="5" t="str">
-        <v>ilxtWultuYP</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>SD1oprpITgl</v>
+        <v>odf8pyeMlGk</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>Social worker/ volunteer</v>
+        <v>BioNTech Manufacturing GmBH</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>social_worker_volunteer</v>
+        <v>biontech1</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>SVcm0QZbxYn</v>
+        <v>oMTIcie2RUL</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Retail (non essential)</v>
+        <v>Moderna Therapeutics Inc</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>retail_non_essential</v>
+        <v>moderna1</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E23" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>Sw1isix3dwU</v>
+        <v>PLlPgcfbL1D</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Retired</v>
+        <v>No</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>retired</v>
+        <v>NO</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>bLA3AqDKdwx</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>TKD1XJ4ZhMO</v>
+        <v>pmBtNMHMpsZ</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>Unknown</v>
+        <v>PGS Kalamazoo</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>UNKNOWN</v>
+        <v>pgskalamazoo</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>UrUdMteQzlT</v>
+        <v>PoeQ0Zb1avN</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Male</v>
+        <v>Booster dose</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>MALE</v>
+        <v>BOOSTER</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>2021-01-12</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E26" s="4" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>UvR0km5ntbi</v>
+        <v>Q3obJT1MXov</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>Banker</v>
+        <v>3rd Trimester (20-40 weeks)</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>banker</v>
+        <v>3trimester</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>kgDmgTYZICP</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>wCXR8ztOP2N</v>
+        <v>scFBcsNG5JT</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>COVAX1</v>
+        <v>Pregnant</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>COVAX1</v>
+        <v>COVAXPregnant</v>
       </c>
       <c r="D28" s="4" t="str">
         <v>2021-01-31</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>ilxtWultuYP</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>wEsSrYnDsRk</v>
+        <v>SD1oprpITgl</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>2nd Trimester (13-28 weeks)</v>
+        <v>Social worker/ volunteer</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>2trimester</v>
+        <v>social_worker_volunteer</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>xl5HHvHV2XH</v>
+        <v>SVcm0QZbxYn</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>3rd dose</v>
+        <v>Retail (non essential)</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>DOSE3</v>
+        <v>retail_non_essential</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>xmyy2NiyJaI</v>
+        <v>Sw1isix3dwU</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>Lactating</v>
+        <v>Retired</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>COVAXLactating</v>
+        <v>retired</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>ilxtWultuYP</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>yeTPD0qoaz7</v>
+        <v>TKD1XJ4ZhMO</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>COVAX3</v>
+        <v>Unknown</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>COVAX3</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>bLA3AqDKdwx</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>zDqDiyA8ySB</v>
+        <v>UrUdMteQzlT</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>1st Trimester (1-12 weeks)</v>
+        <v>Male</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>1trimester</v>
+        <v>MALE</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-01-12</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>hiQ3QFheQ3O</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
+        <v>UvR0km5ntbi</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <v>Banker</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <v>banker</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <v>2021-02-05</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <v>CNNH0YKxRh9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="str">
+        <v>wCXR8ztOP2N</v>
+      </c>
+      <c r="B35" s="5" t="str">
+        <v>COVAX1</v>
+      </c>
+      <c r="C35" s="5" t="str">
+        <v>COVAX1</v>
+      </c>
+      <c r="D35" s="5" t="str">
+        <v>2021-02-05</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <v>VQo3HkUlMHc</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="str">
+        <v>wEsSrYnDsRk</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <v>2nd Trimester (13-28 weeks)</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <v>2trimester</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <v>2021-02-05</v>
+      </c>
+      <c r="E36" s="4" t="str">
+        <v>kgDmgTYZICP</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="str">
+        <v>xl5HHvHV2XH</v>
+      </c>
+      <c r="B37" s="5" t="str">
+        <v>3rd dose</v>
+      </c>
+      <c r="C37" s="5" t="str">
+        <v>DOSE3</v>
+      </c>
+      <c r="D37" s="5" t="str">
+        <v>2021-01-31</v>
+      </c>
+      <c r="E37" s="5" t="str">
+        <v>oj3CWm4hpPb</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="str">
+        <v>xmyy2NiyJaI</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <v>Lactating</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <v>COVAXLactating</v>
+      </c>
+      <c r="D38" s="4" t="str">
+        <v>2021-02-05</v>
+      </c>
+      <c r="E38" s="4" t="str">
+        <v>ilxtWultuYP</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="str">
+        <v>yeTPD0qoaz7</v>
+      </c>
+      <c r="B39" s="5" t="str">
+        <v>COVAX3</v>
+      </c>
+      <c r="C39" s="5" t="str">
+        <v>COVAX3</v>
+      </c>
+      <c r="D39" s="5" t="str">
+        <v>2021-02-05</v>
+      </c>
+      <c r="E39" s="5" t="str">
+        <v>VQo3HkUlMHc</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="str">
+        <v>z978nuyyRl7</v>
+      </c>
+      <c r="B40" s="4" t="str">
+        <v>Manufacturer 2</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <v>manufacturer2</v>
+      </c>
+      <c r="D40" s="4" t="str">
+        <v>2021-01-31</v>
+      </c>
+      <c r="E40" s="4" t="str">
+        <v>DtOGtoLbaB5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="str">
+        <v>zDqDiyA8ySB</v>
+      </c>
+      <c r="B41" s="5" t="str">
+        <v>1st Trimester (1-12 weeks)</v>
+      </c>
+      <c r="C41" s="5" t="str">
+        <v>1trimester</v>
+      </c>
+      <c r="D41" s="5" t="str">
+        <v>2021-02-05</v>
+      </c>
+      <c r="E41" s="5" t="str">
+        <v>kgDmgTYZICP</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="str">
         <v>zIN2FnIIZC2</v>
       </c>
-      <c r="B34" s="4" t="str">
+      <c r="B42" s="4" t="str">
         <v>Retail (essential)</v>
       </c>
-      <c r="C34" s="4" t="str">
+      <c r="C42" s="4" t="str">
         <v>retail_essentials</v>
       </c>
-      <c r="D34" s="4" t="str">
-        <v>2021-01-31</v>
-      </c>
-      <c r="E34" s="4" t="str">
+      <c r="D42" s="4" t="str">
+        <v>2021-02-05</v>
+      </c>
+      <c r="E42" s="4" t="str">
         <v>CNNH0YKxRh9</v>
       </c>
     </row>
@@ -2483,7 +2679,7 @@
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-05</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2609,7 +2805,7 @@
         <v>Percentage</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="J2" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2642,7 +2838,7 @@
         <v>Percentage</v>
       </c>
       <c r="I3" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="J3" s="5" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2675,7 +2871,7 @@
         <v>Percentage</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="J4" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2708,7 +2904,7 @@
         <v>Percentage</v>
       </c>
       <c r="I5" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="J5" s="5" t="str">
         <v>mhdLWWUIqUp</v>
@@ -3269,7 +3465,7 @@
         <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-31T13:20:28.318</v>
+        <v>2021-02-05T12:02:54.137</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>BWlYGFBDbO2</v>
@@ -3283,7 +3479,7 @@
         <v>TEST TEST</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-01-31T13:20:28.567</v>
+        <v>2021-02-05T12:02:54.594</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>GJPPSQuVt4N</v>
@@ -3311,7 +3507,7 @@
         <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-01-31T13:20:28.763</v>
+        <v>2021-02-05T12:02:54.820</v>
       </c>
       <c r="D6" s="4" t="str">
         <v>Hbs3xGj7XoN</v>
@@ -3325,7 +3521,7 @@
         <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-01-31T13:20:28.945</v>
+        <v>2021-02-05T12:02:55.040</v>
       </c>
       <c r="D7" s="5" t="str">
         <v>KV7fffdXnlY</v>
@@ -3367,7 +3563,7 @@
         <v>TEST TEST</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-01-31T13:20:30.636</v>
+        <v>2021-02-05T12:02:55.243</v>
       </c>
       <c r="D10" s="4" t="str">
         <v>vmNUVdhuxN7</v>
@@ -3381,7 +3577,7 @@
         <v/>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-01-31T13:20:45.524</v>
+        <v>2021-02-05T12:03:16.999</v>
       </c>
       <c r="D11" s="5" t="str">
         <v>wHd33PaphEC</v>
@@ -3426,7 +3622,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>cOH1OjReS14</v>
@@ -3440,7 +3636,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>Db3MWC56CBp</v>
@@ -3485,7 +3681,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>cgMKXl648C2</v>
@@ -3530,7 +3726,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>QTONjOuZmh4</v>
@@ -3544,7 +3740,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>ZFd7uKfZpli</v>
@@ -3757,7 +3953,7 @@
         <v>COVID Immunization Metadata Admin</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>AEAQ9LktNze</v>
@@ -3768,7 +3964,7 @@
         <v>AEFI access</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-02-03</v>
+        <v>2021-02-05</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>J3mFUNTreYY</v>
@@ -3779,7 +3975,7 @@
         <v>AEFI admin</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>kPBGgIFMNFv</v>
@@ -3801,7 +3997,7 @@
         <v>AEFI data capture</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-02-03</v>
+        <v>2021-02-05</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>RWyhKm0cuQ5</v>
@@ -3902,7 +4098,7 @@
         <v>System-generated unique ID following pattern: CURRENT_DATE(yyyy-MM-dd) followed by a random number (#####)</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>aJJvi3jiLZr</v>
@@ -3987,7 +4183,7 @@
         <v>Client occupation from the pre-defined list</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E7" s="5" t="str">
         <v>LY2bDXpNvS7</v>
@@ -4004,7 +4200,7 @@
         <v>Date of birth plus calculated age</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>mAWcalQYYyk</v>
@@ -4055,7 +4251,7 @@
         <v>Whether client lives in an urban or rural setting</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E11" s="5" t="str">
         <v>YCqoNJZKvAG</v>
@@ -4072,7 +4268,7 @@
         <v/>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>Z1rLc1rVHK8</v>
@@ -4117,7 +4313,7 @@
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4129,7 +4325,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -4162,23 +4358,9 @@
         <v>a1jCssI2LkW</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-01T10:53:54.656</v>
+        <v>2021-02-05T12:03:16.542</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>yDuAzyqYABS</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="str">
-        <v>DELETE</v>
-      </c>
-      <c r="B3" s="5" t="str">
-        <v>FhmnMGI5RWG</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <v>2021-02-01T10:53:54.671</v>
-      </c>
-      <c r="D3" s="5" t="str">
         <v>yDuAzyqYABS</v>
       </c>
     </row>
@@ -4188,7 +4370,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -4412,10 +4594,10 @@
         <v xml:space="preserve">Vaccination </v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Underlying Conditions</v>
+        <v>Vaccination information</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>COVAX - Renal Disease</v>
+        <v>COVAX - Manufacturer</v>
       </c>
     </row>
     <row r="21">
@@ -4423,10 +4605,10 @@
         <v xml:space="preserve">Vaccination </v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Vaccination information</v>
+        <v>Underlying Conditions</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>COVAX - Multiple products used - Explain</v>
+        <v>COVAX - Renal Disease</v>
       </c>
     </row>
     <row r="22">
@@ -4437,6 +4619,28 @@
         <v>Vaccination information</v>
       </c>
       <c r="C22" s="4" t="str">
+        <v>COVAX - Multiple products used - Explain</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="str">
+        <v xml:space="preserve">Vaccination </v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <v>Vaccination information</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <v>COVAX - Total doses</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="str">
+        <v xml:space="preserve">Vaccination </v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <v>Vaccination information</v>
+      </c>
+      <c r="C24" s="4" t="str">
         <v>COVAX - AEFIs present</v>
       </c>
     </row>
@@ -4507,7 +4711,7 @@
         <v>EVENT</v>
       </c>
       <c r="G2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4533,7 +4737,7 @@
         <v>EVENT</v>
       </c>
       <c r="G3" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H3" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4559,7 +4763,7 @@
         <v>EVENT</v>
       </c>
       <c r="G4" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H4" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4585,7 +4789,7 @@
         <v>EVENT</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H5" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4611,7 +4815,7 @@
         <v>EVENT</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H6" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4637,7 +4841,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G7" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H7" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4663,7 +4867,7 @@
         <v>EVENT</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H8" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4689,7 +4893,7 @@
         <v>EVENT</v>
       </c>
       <c r="G9" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H9" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4715,7 +4919,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G10" s="4" t="str">
-        <v>2021-01-14</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H10" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4741,7 +4945,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G11" s="5" t="str">
-        <v>2021-01-14</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H11" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4767,7 +4971,7 @@
         <v>EVENT</v>
       </c>
       <c r="G12" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H12" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4793,7 +4997,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G13" s="5" t="str">
-        <v>2021-01-14</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H13" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4819,7 +5023,7 @@
         <v>EVENT</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H14" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4845,7 +5049,7 @@
         <v>EVENT</v>
       </c>
       <c r="G15" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H15" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4871,7 +5075,7 @@
         <v>EVENT</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H16" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4897,7 +5101,7 @@
         <v>EVENT</v>
       </c>
       <c r="G17" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H17" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4923,7 +5127,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H18" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4949,7 +5153,7 @@
         <v>EVENT</v>
       </c>
       <c r="G19" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H19" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4975,7 +5179,7 @@
         <v>EVENT</v>
       </c>
       <c r="G20" s="4" t="str">
-        <v>2021-01-18</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H20" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5001,7 +5205,7 @@
         <v>EVENT</v>
       </c>
       <c r="G21" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H21" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5027,7 +5231,7 @@
         <v>EVENT</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H22" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5053,7 +5257,7 @@
         <v>EVENT</v>
       </c>
       <c r="G23" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H23" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5079,7 +5283,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G24" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H24" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5105,7 +5309,7 @@
         <v>EVENT</v>
       </c>
       <c r="G25" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H25" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5131,7 +5335,7 @@
         <v>EVENT</v>
       </c>
       <c r="G26" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H26" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5157,7 +5361,7 @@
         <v>EVENT</v>
       </c>
       <c r="G27" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H27" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5183,7 +5387,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G28" s="4" t="str">
-        <v>2021-01-14</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H28" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5209,7 +5413,7 @@
         <v>EVENT</v>
       </c>
       <c r="G29" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H29" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5235,7 +5439,7 @@
         <v>EVENT</v>
       </c>
       <c r="G30" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H30" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5261,7 +5465,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G31" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H31" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5287,7 +5491,7 @@
         <v>EVENT</v>
       </c>
       <c r="G32" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H32" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5313,7 +5517,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G33" s="5" t="str">
-        <v>2021-01-14</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H33" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5339,7 +5543,7 @@
         <v>EVENT</v>
       </c>
       <c r="G34" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H34" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5365,7 +5569,7 @@
         <v>EVENT</v>
       </c>
       <c r="G35" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H35" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5391,7 +5595,7 @@
         <v>EVENT</v>
       </c>
       <c r="G36" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H36" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5417,7 +5621,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G37" s="5" t="str">
-        <v>2021-01-18</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H37" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5443,7 +5647,7 @@
         <v>EVENT</v>
       </c>
       <c r="G38" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H38" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5469,7 +5673,7 @@
         <v>EVENT</v>
       </c>
       <c r="G39" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H39" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5495,7 +5699,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G40" s="4" t="str">
-        <v>2021-01-14</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H40" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5521,7 +5725,7 @@
         <v>EVENT</v>
       </c>
       <c r="G41" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H41" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5547,7 +5751,7 @@
         <v>EVENT</v>
       </c>
       <c r="G42" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H42" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5573,7 +5777,7 @@
         <v>EVENT</v>
       </c>
       <c r="G43" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H43" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5599,7 +5803,7 @@
         <v>EVENT</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H44" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5625,7 +5829,7 @@
         <v>EVENT</v>
       </c>
       <c r="G45" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H45" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5651,7 +5855,7 @@
         <v>EVENT</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H46" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5677,7 +5881,7 @@
         <v>EVENT</v>
       </c>
       <c r="G47" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H47" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5703,7 +5907,7 @@
         <v>EVENT</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H48" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5729,7 +5933,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G49" s="5" t="str">
-        <v>2021-01-14</v>
+        <v>2021-02-05</v>
       </c>
       <c r="H49" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5741,7 +5945,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -5781,7 +5985,7 @@
         <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-01-26</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5798,7 +6002,7 @@
         <v>Rule transfers date of remission and if person has previously had covid</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-01-19</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5815,7 +6019,7 @@
         <v>If the client is a health worker, show a warning in the top bar</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2020-12-03</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5849,7 +6053,7 @@
         <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-01-26</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E6" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5857,16 +6061,16 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>gmBh14b7tYb</v>
+        <v>fJLXDY8WJIb</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
+        <v>Hide Manufacturers COVAX1</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v/>
+        <v>If COVAX1 is selected, hide manufacturers who do not produce covax1</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-01-27</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E7" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5874,16 +6078,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>GtxjhHBQdLQ</v>
+        <v>gmBh14b7tYb</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>If patient has had covid, assign value to data element of current event</v>
+        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Rule transfers date of remission and if person has previously had covid</v>
+        <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-01-08</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5891,16 +6095,16 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>HDGNEGd5wnd</v>
+        <v>GtxjhHBQdLQ</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>Show warning: If previous dose was first, then this shoul be second</v>
+        <v>If patient has had covid, assign value to data element of current event</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v/>
+        <v>Rule transfers date of remission and if person has previously had covid</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-01-14</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E9" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5908,16 +6112,16 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>HdOtRsvVzgY</v>
+        <v>HDGNEGd5wnd</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Hide Trimester if nor pregnant</v>
+        <v>Show warning: If previous dose was first, then this shoul be second</v>
       </c>
       <c r="C10" s="4" t="str">
         <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-01-14</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E10" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5925,16 +6129,16 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>hdPflHqZKO3</v>
+        <v>HdOtRsvVzgY</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Show warning: If previous dose was second then this should be the third dose, or a booster dose</v>
+        <v>Hide Trimester if nor pregnant</v>
       </c>
       <c r="C11" s="5" t="str">
         <v/>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E11" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5942,16 +6146,16 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>I0FZ4YQgxfD</v>
+        <v>hdPflHqZKO3</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Hide underlying conditions if none</v>
+        <v>Show warning: If previous dose was second then this should be the third dose, or a booster dose</v>
       </c>
       <c r="C12" s="4" t="str">
         <v/>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-01-14</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5959,16 +6163,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>i0YmXeSnrqn</v>
+        <v>I0FZ4YQgxfD</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>if client has a history of Chronic lung disease, add value to current event</v>
+        <v>Hide underlying conditions if none</v>
       </c>
       <c r="C13" s="5" t="str">
         <v/>
       </c>
       <c r="D13" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E13" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5976,16 +6180,16 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>i5tOyWRc3S1</v>
+        <v>i0YmXeSnrqn</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>if client has a history of immunodeficiency assign value to current event</v>
+        <v>if client has a history of Chronic lung disease, add value to current event</v>
       </c>
       <c r="C14" s="4" t="str">
         <v/>
       </c>
       <c r="D14" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E14" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5993,16 +6197,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>j16AULHWXur</v>
+        <v>i5tOyWRc3S1</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
+        <v>if client has a history of immunodeficiency assign value to current event</v>
       </c>
       <c r="C15" s="5" t="str">
         <v/>
       </c>
       <c r="D15" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E15" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6010,16 +6214,16 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>jGPxY0apAr2</v>
+        <v>j16AULHWXur</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>AEFIs present show warning</v>
+        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
       </c>
       <c r="C16" s="4" t="str">
         <v/>
       </c>
       <c r="D16" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E16" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6027,16 +6231,16 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>jNtY9t6b120</v>
+        <v>jGPxY0apAr2</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>if client has a history of cardiovascular disease assign value to current event</v>
+        <v>AEFIs present show warning</v>
       </c>
       <c r="C17" s="5" t="str">
         <v/>
       </c>
       <c r="D17" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-01</v>
       </c>
       <c r="E17" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6044,16 +6248,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>K9Vjkz1xOw1</v>
+        <v>jJGIDJ4HYvE</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>if client has a history of malignancy assign value to current event</v>
+        <v>Hide Manufacturers COVAX3</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v/>
+        <v>If COVAX3 is selected, hide manufacturers who do not produce covax3</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>2021-01-27</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E18" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6061,16 +6265,16 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>KGBdMuY2ASs</v>
+        <v>jNtY9t6b120</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>if client has a history of Diabetes assign value to current event</v>
+        <v>if client has a history of cardiovascular disease assign value to current event</v>
       </c>
       <c r="C19" s="5" t="str">
         <v/>
       </c>
       <c r="D19" s="5" t="str">
-        <v>2021-01-27</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E19" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6078,16 +6282,16 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>l8opvp32VAd</v>
+        <v>K9Vjkz1xOw1</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>if client has a history of Renal disease assign value to current event</v>
+        <v>if client has a history of malignancy assign value to current event</v>
       </c>
       <c r="C20" s="4" t="str">
         <v/>
       </c>
       <c r="D20" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E20" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6095,16 +6299,16 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>LO6XtDyCbya</v>
+        <v>KGBdMuY2ASs</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Show warning if person has had covid within 90 days of vaccination date</v>
+        <v>if client has a history of Diabetes assign value to current event</v>
       </c>
       <c r="C21" s="5" t="str">
         <v/>
       </c>
       <c r="D21" s="5" t="str">
-        <v>2021-01-14</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E21" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6112,16 +6316,16 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>nU9WWRKt7PL</v>
+        <v>l8opvp32VAd</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>Show vaccine type from previous vaccination event</v>
+        <v>if client has a history of Renal disease assign value to current event</v>
       </c>
       <c r="C22" s="4" t="str">
         <v/>
       </c>
       <c r="D22" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E22" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6129,16 +6333,16 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>OdSVYvgu6G2</v>
+        <v>LO6XtDyCbya</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>if client has a history of neurological deficiency assign value to current event</v>
+        <v>Show warning if person has had covid within 90 days of vaccination date</v>
       </c>
       <c r="C23" s="5" t="str">
         <v/>
       </c>
       <c r="D23" s="5" t="str">
-        <v>2021-01-27</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E23" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6146,16 +6350,16 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>oPUB5us9T8e</v>
+        <v>nU9WWRKt7PL</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v xml:space="preserve">Calculate age </v>
+        <v>Show vaccine type from previous vaccination event</v>
       </c>
       <c r="C24" s="4" t="str">
         <v/>
       </c>
       <c r="D24" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E24" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6163,16 +6367,16 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>ParDbFN1amU</v>
+        <v>O2NnmPrpL7s</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>If client has a history of OTHER disease show it on indicator panel</v>
+        <v>Assign dose number to COVAX2</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v/>
+        <v>If COVAX2 is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>2021-01-27</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E25" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6180,16 +6384,16 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>ppbeGorruVj</v>
+        <v>oCzO3wOH9Wa</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>If Age is under 18, then warn that COVAX 3 is recommended for ages 18 and up</v>
+        <v>Hide Manufacturers COVAX2</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v/>
+        <v>If COVAX1 is selected, hide manufacturers who do not produce covax2</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E26" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6197,16 +6401,16 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>QEq5oRr4UEw</v>
+        <v>OdSVYvgu6G2</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>if client has a history of Other assign value to current event</v>
+        <v>if client has a history of neurological deficiency assign value to current event</v>
       </c>
       <c r="C27" s="5" t="str">
         <v/>
       </c>
       <c r="D27" s="5" t="str">
-        <v>2021-01-27</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E27" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6214,16 +6418,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>qLCtAeQQOP3</v>
+        <v>oPUB5us9T8e</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v xml:space="preserve">Show warning: If previous dose was second and the vaccine was COVAX 1 then there should be no more doses </v>
+        <v xml:space="preserve">Calculate age </v>
       </c>
       <c r="C28" s="4" t="str">
         <v/>
       </c>
       <c r="D28" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E28" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6231,16 +6435,16 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>qrIXRSq77JN</v>
+        <v>ParDbFN1amU</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>If client has a history of Renal Disease show it on indicator panel</v>
+        <v>If client has a history of OTHER disease show it on indicator panel</v>
       </c>
       <c r="C29" s="5" t="str">
         <v/>
       </c>
       <c r="D29" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E29" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6248,16 +6452,16 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>QWOOvnYfKbN</v>
+        <v>pN5K5h6wSo4</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Assign a suggested date for next dose COVAX 1</v>
+        <v>Assign dose number to COVAX3</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v/>
+        <v>If COVAX3 is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>2021-01-13</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E30" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6265,16 +6469,16 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>r9NQ2R4eFIO</v>
+        <v>ppbeGorruVj</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>If client has a history of Diabetes show it on indicator panel</v>
+        <v>If Age is under 18, then warn that COVAX 3 is recommended for ages 18 and up</v>
       </c>
       <c r="C31" s="5" t="str">
         <v/>
       </c>
       <c r="D31" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E31" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6282,16 +6486,16 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>Rhh99IrHe3P</v>
+        <v>QEq5oRr4UEw</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>Assign a suggested date for next dose COVAX 3</v>
+        <v>if client has a history of Other assign value to current event</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>Assigns a next suggested dose date 28 days after this dose, based on CDC recommendations</v>
+        <v/>
       </c>
       <c r="D32" s="4" t="str">
-        <v>2021-01-13</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E32" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6299,16 +6503,16 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>SDfSLD0WFOL</v>
+        <v>qLCtAeQQOP3</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>if client has a history of malignancy show it on indicator panel</v>
+        <v xml:space="preserve">Show warning: If previous dose was second and the vaccine was COVAX 1 then there should be no more doses </v>
       </c>
       <c r="C33" s="5" t="str">
         <v/>
       </c>
       <c r="D33" s="5" t="str">
-        <v>2021-01-13</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E33" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6316,16 +6520,16 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>SkBUqyO9zG0</v>
+        <v>qrIXRSq77JN</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>Last dose - complete programme</v>
+        <v>If client has a history of Renal Disease show it on indicator panel</v>
       </c>
       <c r="C34" s="4" t="str">
         <v/>
       </c>
       <c r="D34" s="4" t="str">
-        <v>2021-02-03</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E34" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6333,16 +6537,16 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>srC0NIzM3Ou</v>
+        <v>QWOOvnYfKbN</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>Hide pregnancy if not a woman</v>
+        <v>Assign a suggested date for next dose COVAX 1</v>
       </c>
       <c r="C35" s="5" t="str">
         <v/>
       </c>
       <c r="D35" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E35" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6350,16 +6554,16 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>TRR2ODBsnkN</v>
+        <v>r9NQ2R4eFIO</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>If Age is under 16, then warn that COVAX 2 is recommended for ages 16 and up</v>
+        <v>If client has a history of Diabetes show it on indicator panel</v>
       </c>
       <c r="C36" s="4" t="str">
         <v/>
       </c>
       <c r="D36" s="4" t="str">
-        <v>2021-01-13</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E36" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6367,16 +6571,16 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>ucrvgwsRCim</v>
+        <v>Rhh99IrHe3P</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>If client has a history of immunodeficiency show it on indicator panel</v>
+        <v>Assign a suggested date for next dose COVAX 3</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v/>
+        <v>Assigns a next suggested dose date 28 days after this dose, based on CDC recommendations</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E37" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6384,16 +6588,16 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>vd1vZsjDft4</v>
+        <v>SDfSLD0WFOL</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
+        <v>if client has a history of malignancy show it on indicator panel</v>
       </c>
       <c r="C38" s="4" t="str">
         <v/>
       </c>
       <c r="D38" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E38" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6401,16 +6605,16 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>vqQMyfw3i3u</v>
+        <v>SkBUqyO9zG0</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>If client has a history of Neurological disease show it on indicator panel</v>
+        <v>Last dose - complete programme</v>
       </c>
       <c r="C39" s="5" t="str">
         <v/>
       </c>
       <c r="D39" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E39" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6418,16 +6622,16 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>W0YQaz1qRJb</v>
+        <v>srC0NIzM3Ou</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>Send notification if overdue</v>
+        <v>Hide pregnancy if not a woman</v>
       </c>
       <c r="C40" s="4" t="str">
         <v/>
       </c>
       <c r="D40" s="4" t="str">
-        <v>2021-01-26</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E40" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6435,16 +6639,16 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>XTLv9YqOtNX</v>
+        <v>TRR2ODBsnkN</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>If previous vaccine is differente than current vaccine, show warning.</v>
+        <v>If Age is under 16, then warn that COVAX 2 is recommended for ages 16 and up</v>
       </c>
       <c r="C41" s="5" t="str">
         <v/>
       </c>
       <c r="D41" s="5" t="str">
-        <v>2021-01-27</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E41" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6452,16 +6656,16 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>zLLHG561wsq</v>
+        <v>ucrvgwsRCim</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Hide anaphylaxis DE if first dose</v>
+        <v>If client has a history of immunodeficiency show it on indicator panel</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>Hides a DE where one is asked about allergic reactions to previopus dose</v>
+        <v/>
       </c>
       <c r="D42" s="4" t="str">
-        <v>2021-01-11</v>
+        <v>2021-02-05</v>
       </c>
       <c r="E42" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6469,18 +6673,120 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
+        <v>vd1vZsjDft4</v>
+      </c>
+      <c r="B43" s="5" t="str">
+        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
+      </c>
+      <c r="C43" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D43" s="5" t="str">
+        <v>2021-02-05</v>
+      </c>
+      <c r="E43" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="str">
+        <v>vqQMyfw3i3u</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <v>If client has a history of Neurological disease show it on indicator panel</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D44" s="4" t="str">
+        <v>2021-02-05</v>
+      </c>
+      <c r="E44" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="str">
+        <v>W0YQaz1qRJb</v>
+      </c>
+      <c r="B45" s="5" t="str">
+        <v>Send notification if overdue</v>
+      </c>
+      <c r="C45" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D45" s="5" t="str">
+        <v>2021-02-05</v>
+      </c>
+      <c r="E45" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="str">
+        <v>X7tSyOIdusk</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <v>Assign dose number to COVAX1</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <v>If COVAX1 is selected, assign 2 as max doses and hide options for 3 doses</v>
+      </c>
+      <c r="D46" s="4" t="str">
+        <v>2021-02-05</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="str">
+        <v>XTLv9YqOtNX</v>
+      </c>
+      <c r="B47" s="5" t="str">
+        <v>If previous vaccine is differente than current vaccine, show warning.</v>
+      </c>
+      <c r="C47" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D47" s="5" t="str">
+        <v>2021-02-05</v>
+      </c>
+      <c r="E47" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="str">
+        <v>zLLHG561wsq</v>
+      </c>
+      <c r="B48" s="4" t="str">
+        <v>Hide anaphylaxis DE if first dose</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <v>Hides a DE where one is asked about allergic reactions to previopus dose</v>
+      </c>
+      <c r="D48" s="4" t="str">
+        <v>2021-02-05</v>
+      </c>
+      <c r="E48" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="str">
         <v>ZT3tLrXXadf</v>
       </c>
-      <c r="B43" s="5" t="str">
+      <c r="B49" s="5" t="str">
         <v>Assign a suggested date for next dose COVAX 2</v>
       </c>
-      <c r="C43" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D43" s="5" t="str">
-        <v>2021-01-13</v>
-      </c>
-      <c r="E43" s="5" t="str">
+      <c r="C49" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D49" s="5" t="str">
+        <v>2021-02-05</v>
+      </c>
+      <c r="E49" s="5" t="str">
         <v>yDuAzyqYABS</v>
       </c>
     </row>

--- a/metadata/COVAX/COVAX_TRACKER_V1_DHIS2.34/reference.xlsx
+++ b/metadata/COVAX/COVAX_TRACKER_V1_DHIS2.34/reference.xlsx
@@ -497,7 +497,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-02-09T16:31</v>
+        <v>2021-02-24T13:42</v>
       </c>
     </row>
     <row r="7">
@@ -505,7 +505,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX_TRACKER_V1.0.0_DHIS2.34_2021-02-09T16:31</v>
+        <v>COVAX_TRACKER_V1.0.0_DHIS2.34_2021-02-24T13:42</v>
       </c>
     </row>
   </sheetData>
@@ -520,7 +520,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -554,7 +554,7 @@
         <v>Ewi7FUfcHAD</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -562,16 +562,16 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>SnNKiozu7ig</v>
+        <v>T3HmXr0sjTZ</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX Unique System Identifier (EPI)</v>
+        <v>Unique System Identifier (EPI)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>aJJvi3jiLZr</v>
+        <v>KSr2yTdu1AI</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -588,7 +588,7 @@
         <v>TfdH5KvFmMy</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -605,7 +605,7 @@
         <v>aW66s2QSosT</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E5" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -622,7 +622,7 @@
         <v>CklPZdOd6H1</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E6" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -639,7 +639,7 @@
         <v>Z1rLc1rVHK8</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E7" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -656,7 +656,7 @@
         <v>mAWcalQYYyk</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -673,7 +673,7 @@
         <v>ciCR6BBvIT4</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E9" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -690,7 +690,7 @@
         <v>VCtm2pySeEV</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E10" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -707,7 +707,7 @@
         <v>YCqoNJZKvAG</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E11" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -724,7 +724,7 @@
         <v>LY2bDXpNvS7</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -775,22 +775,22 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>vaccine_type</v>
+        <v>COVAC_vaccine_name</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>Name of vaccine product</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>bbnyNYD1wgS</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Underlying condition</v>
+        <v>COVAC - Underlying condition</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Underlying condition</v>
+        <v>COVAC - Underlying condition</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>Comcondition_present</v>
@@ -813,7 +813,7 @@
         <v>default</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G3" s="5" t="str">
         <v>bCtWZGjSWM8</v>
@@ -821,10 +821,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - Pregnancy</v>
+        <v>COVAC - Pregnancy</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - Pregnancy</v>
+        <v>COVAC - Pregnancy</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>Comcond_pregnant</v>
@@ -836,7 +836,7 @@
         <v>default</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G4" s="4" t="str">
         <v>BfNZcj99yz4</v>
@@ -844,13 +844,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAX - Chronic Lung Disease</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX_Chronic Lung Disease</v>
+        <v>COVAC_Chronic Lung Disease</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Covax_Comcond_lung</v>
+        <v>Covac_Comcond_lung</v>
       </c>
       <c r="D5" s="5" t="str">
         <v>Chronic Lung Disease</v>
@@ -859,7 +859,7 @@
         <v>default</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G5" s="5" t="str">
         <v>C0Bony47eKp</v>
@@ -867,13 +867,13 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX - Pregnancy gestation</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAX - Pregnancy gestation</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>covax_pregnancy_gestation</v>
+        <v>covac_pregnancy_gestation</v>
       </c>
       <c r="D6" s="4" t="str">
         <v>Pregnancy gestation (weeks)</v>
@@ -882,7 +882,7 @@
         <v>default</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G6" s="4" t="str">
         <v>CBAs12YL4g7</v>
@@ -890,13 +890,13 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX - Underlying condition Other</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX - Underlying condition Other</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>covax_Comcond_other</v>
+        <v>covac_Comcond_other</v>
       </c>
       <c r="D7" s="5" t="str">
         <v/>
@@ -905,7 +905,7 @@
         <v>default</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G7" s="5" t="str">
         <v>dpyQUtizp7s</v>
@@ -913,10 +913,10 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX - Last Dose</v>
+        <v>COVAC - Last Dose</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAX - Last Dose</v>
+        <v>COVAC - Last Dose</v>
       </c>
       <c r="C8" s="4" t="str">
         <v/>
@@ -928,7 +928,7 @@
         <v>default</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G8" s="4" t="str">
         <v>DSOWCIdQ8Tr</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAX Allergic reaction after first dose</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAX allergic reaction</v>
+        <v>COVAC allergic reaction</v>
       </c>
       <c r="C9" s="5" t="str">
         <v/>
@@ -951,7 +951,7 @@
         <v>default</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G9" s="5" t="str">
         <v>dWoveSw6b79</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAX Suggested date for next dose</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
       <c r="B10" s="4" t="str">
         <v>Next dose date</v>
@@ -974,7 +974,7 @@
         <v>default</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G10" s="4" t="str">
         <v>FFWcps4MfuH</v>
@@ -982,13 +982,13 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAX - Renal Disease</v>
+        <v>COVAC - Renal Disease</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAX - Renal Disease</v>
+        <v>COVAC - Renal Disease</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Covax_Comcond_renal</v>
+        <v>Covac_Comcond_renal</v>
       </c>
       <c r="D11" s="5" t="str">
         <v/>
@@ -997,7 +997,7 @@
         <v>default</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G11" s="5" t="str">
         <v>gW4pd818Sw8</v>
@@ -1020,7 +1020,7 @@
         <v>default</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G12" s="4" t="str">
         <v>kQCVFWE2MPb</v>
@@ -1028,13 +1028,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>COVAX - Cardiovascular Disease</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAX Cardiovascular Disease</v>
+        <v>COVAC Cardiovascular Disease</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>Covax_Comcond_cardi</v>
+        <v>Covac_Comcond_cardi</v>
       </c>
       <c r="D13" s="5" t="str">
         <v>Cardiovascular disease, including hypertension</v>
@@ -1043,7 +1043,7 @@
         <v>default</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G13" s="5" t="str">
         <v>LNHAYF3qdZl</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>COVAX Previously infected with COVID</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
       <c r="B14" s="4" t="str">
         <v>Previously infected with COVID</v>
@@ -1066,7 +1066,7 @@
         <v>default</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G14" s="4" t="str">
         <v>LOU9t0aR0z7</v>
@@ -1074,10 +1074,10 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>COVAX - Dose Number</v>
+        <v>COVAC - Dose Number</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAX - Dose Number</v>
+        <v>COVAC - Dose Number</v>
       </c>
       <c r="C15" s="5" t="str">
         <v>dose_number</v>
@@ -1089,7 +1089,7 @@
         <v>default</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G15" s="5" t="str">
         <v>LUIsbsm3okG</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>COVAX - AEFIs present</v>
+        <v>COVAC - AEFIs present</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAX - AEFIs present</v>
+        <v>COVAC - AEFIs present</v>
       </c>
       <c r="C16" s="4" t="str">
         <v>AEFIs_present</v>
@@ -1112,7 +1112,7 @@
         <v>default</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G16" s="4" t="str">
         <v>m9PgIDAJGlF</v>
@@ -1120,13 +1120,13 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>COVAX - Immunodeficiency</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAX - Immunodeficiency</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>Covax_Comcond_immuno</v>
+        <v>Covac_Comcond_immuno</v>
       </c>
       <c r="D17" s="5" t="str">
         <v/>
@@ -1135,7 +1135,7 @@
         <v>default</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G17" s="5" t="str">
         <v>MuZ9dMVXpuM</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>COVAX - Multiple products used - Explain</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
       <c r="B18" s="4" t="str">
         <v>Multiple products explanation</v>
@@ -1158,7 +1158,7 @@
         <v>default</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G18" s="4" t="str">
         <v>OAxinuYFDG6</v>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>COVAX - Eligibility</v>
+        <v>COVAC - Eligibility</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAX - Eligibility</v>
+        <v>COVAC - Eligibility</v>
       </c>
       <c r="C19" s="5" t="str">
         <v>eligible</v>
@@ -1181,7 +1181,7 @@
         <v>default</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G19" s="5" t="str">
         <v>OXBnk0mWcOw</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>COVAX Date of remission</v>
+        <v>COVAC - Date of remission</v>
       </c>
       <c r="B20" s="4" t="str">
         <v>Date of remission COVID</v>
@@ -1204,7 +1204,7 @@
         <v>default</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G20" s="4" t="str">
         <v>oZiX5uHkacg</v>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>COVAX - Total doses</v>
+        <v>COVAC - Total doses</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAX Total doses</v>
+        <v>COVAC Total doses</v>
       </c>
       <c r="C21" s="5" t="str">
         <v>totalDoses</v>
@@ -1227,7 +1227,7 @@
         <v>default</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G21" s="5" t="str">
         <v>PamkjF1JUnE</v>
@@ -1235,13 +1235,13 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>COVAX - Manufacturer</v>
+        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAX Manufacturer</v>
+        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
       </c>
       <c r="C22" s="4" t="str">
-        <v/>
+        <v>COVAC_vaccine_manufacturer</v>
       </c>
       <c r="D22" s="4" t="str">
         <v/>
@@ -1250,7 +1250,7 @@
         <v>default</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>2021-02-04</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G22" s="4" t="str">
         <v>rpkH9ZPGJcX</v>
@@ -1258,13 +1258,13 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>COVAX - Diabetes</v>
+        <v>COVAC - Diabetes</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>COVAX Diabetes</v>
+        <v>COVAC Diabetes</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>Covax_Comcond_diabetes</v>
+        <v>Covac_Comcond_diabetes</v>
       </c>
       <c r="D23" s="5" t="str">
         <v/>
@@ -1273,7 +1273,7 @@
         <v>default</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G23" s="5" t="str">
         <v>TT1h0vGu5da</v>
@@ -1296,7 +1296,7 @@
         <v>default</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G24" s="4" t="str">
         <v>V5CfmqTsKrv</v>
@@ -1304,13 +1304,13 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>COVAX_Comcond_neuro</v>
+        <v>COVAC_Comcond_neuro</v>
       </c>
       <c r="D25" s="5" t="str">
         <v>Chronic neurological or neuromuscular disease</v>
@@ -1319,7 +1319,7 @@
         <v>default</v>
       </c>
       <c r="F25" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G25" s="5" t="str">
         <v>VCetMtYu1DY</v>
@@ -1327,22 +1327,22 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>COVAX - Malignancy</v>
+        <v>COVAC - Malignancy</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>COVAX - Malignancy</v>
+        <v>COVAC - Malignancy</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>Covax_Comcond_malig</v>
+        <v>Covac_Comcond_malig</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>COVAX - Malignancy</v>
+        <v>COVAC - Malignancy</v>
       </c>
       <c r="E26" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G26" s="4" t="str">
         <v>xVxLMku5DMX</v>
@@ -1350,10 +1350,10 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>COVAX- Batch Number</v>
+        <v>COVAC- Batch Number</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>COVAX - Batch Number</v>
+        <v>COVAC - Batch Number</v>
       </c>
       <c r="C27" s="5" t="str">
         <v/>
@@ -1365,7 +1365,7 @@
         <v>default</v>
       </c>
       <c r="F27" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G27" s="5" t="str">
         <v>Yp1F4txx8tm</v>
@@ -1373,10 +1373,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>COVAX - Dose Expiry Date</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>COVAX - Dose Expiry Date</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
       <c r="C28" s="4" t="str">
         <v>dose_expiry_date</v>
@@ -1388,7 +1388,7 @@
         <v>default</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="G28" s="4" t="str">
         <v>YTQulAldGOs</v>
@@ -1422,7 +1422,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
     </row>
     <row r="3">
@@ -1430,7 +1430,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Underlying condition</v>
+        <v>COVAC - Underlying condition</v>
       </c>
     </row>
     <row r="4">
@@ -1438,7 +1438,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - Pregnancy</v>
+        <v>COVAC - Pregnancy</v>
       </c>
     </row>
     <row r="5">
@@ -1446,7 +1446,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX - Chronic Lung Disease</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
     </row>
     <row r="6">
@@ -1454,7 +1454,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAX - Pregnancy gestation</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
     </row>
     <row r="7">
@@ -1462,7 +1462,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX - Underlying condition Other</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
     </row>
     <row r="8">
@@ -1470,7 +1470,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAX - Last Dose</v>
+        <v>COVAC - Last Dose</v>
       </c>
     </row>
     <row r="9">
@@ -1478,7 +1478,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAX Suggested date for next dose</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
     </row>
     <row r="10">
@@ -1486,7 +1486,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAX - Renal Disease</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="11">
@@ -1494,7 +1494,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAX - Cardiovascular Disease</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="12">
@@ -1502,7 +1502,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAX Previously infected with COVID</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
     </row>
     <row r="13">
@@ -1510,7 +1510,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAX - Dose Number</v>
+        <v>COVAC - Dose Number</v>
       </c>
     </row>
     <row r="14">
@@ -1518,7 +1518,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAX - Immunodeficiency</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
     </row>
     <row r="15">
@@ -1526,7 +1526,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAX - Multiple products used - Explain</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="16">
@@ -1534,7 +1534,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAX - Eligibility</v>
+        <v>COVAC - Eligibility</v>
       </c>
     </row>
     <row r="17">
@@ -1542,7 +1542,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAX Date of remission</v>
+        <v>COVAC - Date of remission</v>
       </c>
     </row>
     <row r="18">
@@ -1550,7 +1550,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAX - Diabetes</v>
+        <v>COVAC - Diabetes</v>
       </c>
     </row>
     <row r="19">
@@ -1558,7 +1558,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
     </row>
     <row r="20">
@@ -1566,7 +1566,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAX - Malignancy</v>
+        <v>COVAC - Malignancy</v>
       </c>
     </row>
     <row r="21">
@@ -1574,7 +1574,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAX- Batch Number</v>
+        <v>COVAC- Batch Number</v>
       </c>
     </row>
     <row r="22">
@@ -1582,7 +1582,7 @@
         <v>COVAX - Covid-19 vaccination registry</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAX - Dose Expiry Date</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
     </row>
   </sheetData>
@@ -1621,7 +1621,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-19</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>bjDvmb4bfuf</v>
@@ -1666,7 +1666,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-09</v>
+        <v>2021-02-24</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>GLevLNI9wkl</v>
@@ -1707,7 +1707,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-19</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>xYerKDKCefk</v>
@@ -1745,7 +1745,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-19</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>HllvX50cXC0</v>
@@ -1762,7 +1762,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="231.7109375" customWidth="1"/>
@@ -1787,7 +1787,7 @@
         <v>Yes/No/Unknown</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-12</v>
+        <v>2021-02-23</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>bLA3AqDKdwx</v>
@@ -1801,7 +1801,7 @@
         <v>Occupation - COVID</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>CNNH0YKxRh9</v>
@@ -1812,16 +1812,16 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX Manufacturers</v>
+        <v>COVAC Vaccine Manufacturers</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>DtOGtoLbaB5</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>Manufacturer 1; Manufacturer 2; Manufacturer 3; Moderna Therapeutics Inc; BioNTech Manufacturing GmBH; Lonza Group; PGS Kalamazoo; Sanofi</v>
+        <v>Moderna; AstraZeneca; BioNTech/Pfizer; Gamaleya; Sinopharm / BIBP; SK Bio AstraZeneca</v>
       </c>
     </row>
     <row r="5">
@@ -1829,21 +1829,21 @@
         <v>Sex</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>hiQ3QFheQ3O</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>Male; Female</v>
+        <v>Female; Male</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX AEFI Pregnancy</v>
+        <v>COVAC AEFI Pregnancy</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>ilxtWultuYP</v>
@@ -1854,10 +1854,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX trimester</v>
+        <v>COVAC trimester</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="C7" s="5" t="str">
         <v>kgDmgTYZICP</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX Dose</v>
+        <v>COVAC Dose</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="C8" s="4" t="str">
         <v>oj3CWm4hpPb</v>
@@ -1882,16 +1882,16 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAX - Vaccine types</v>
+        <v>COVAC Vaccine Names</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="C9" s="5" t="str">
         <v>VQo3HkUlMHc</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>COVAX1; COVAX2; COVAX3</v>
+        <v>AZD1222 / AstraZeneca; BNT162b2 / COMIRNATY Tozinameran (INN) / BioNTech/Pfizer; mRNA-1273 / Moderna; Sputnik V / Gamaleya; SARS-CoV-2 Vaccine (VeroCell), Inactivated / Sinopharm</v>
       </c>
     </row>
     <row r="10">
@@ -1899,7 +1899,7 @@
         <v>Area Urban Rural</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="C10" s="4" t="str">
         <v>VWzgQENmzPK</v>
@@ -1920,7 +1920,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
@@ -1945,104 +1945,104 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>A9OSdfNI6IT</v>
+        <v>ahtoNsMUVFa</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>Manufacturer 1</v>
+        <v>Teacher</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>manufacturer1</v>
+        <v>teacher</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>ahtoNsMUVFa</v>
+        <v>AZK4rjJCss5</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>Teacher</v>
+        <v>Female</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>teacher</v>
+        <v>Female</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>hiQ3QFheQ3O</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>AZK4rjJCss5</v>
+        <v>B26BIJSeQy0</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Female</v>
+        <v>BNT162b2 / COMIRNATY Tozinameran (INN) / BioNTech/Pfizer</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>FEMALE</v>
+        <v>biontechpfizer</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>B26BIJSeQy0</v>
+        <v>bVYOqnn9R2r</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX2</v>
+        <v>Hotelier / airline personel</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>COVAX2</v>
+        <v>hotelier_airline_personel</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>bVYOqnn9R2r</v>
+        <v>CkibqhWdy3q</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Hotelier / airline personel</v>
+        <v>Sinopharm / BIBP</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>hotelier_airline_personel</v>
+        <v>sinopharm</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>caHzedoEw6F</v>
+        <v>clKOrDK3Gw0</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Manufacturer 3</v>
+        <v>SARS-CoV-2 Vaccine (VeroCell), Inactivated / Sinopharm</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>manufacturer3</v>
+        <v>sinopharm</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="8">
@@ -2053,10 +2053,10 @@
         <v>Yes</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>YES</v>
+        <v>Yes</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-01-12</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>bLA3AqDKdwx</v>
@@ -2073,7 +2073,7 @@
         <v>DOSE2</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E9" s="5" t="str">
         <v>oj3CWm4hpPb</v>
@@ -2090,7 +2090,7 @@
         <v>law_enforcement_firefighter</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E10" s="4" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2098,84 +2098,84 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>fWAvnP7mf98</v>
+        <v>FMOE7pmr0JD</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Unemployed</v>
+        <v>BioNTech/Pfizer</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>unemployed</v>
+        <v>biontechpfizer</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>G08Evdkx5dY</v>
+        <v>fWAvnP7mf98</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>1st dose</v>
+        <v>Unemployed</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>DOSE1</v>
+        <v>unemployed</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>GUiVk7RiR3p</v>
+        <v>G08Evdkx5dY</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Student</v>
+        <v>1st dose</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>student</v>
+        <v>DOSE1</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>gVqGaROtask</v>
+        <v>gKvIUJwVIHi</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>No</v>
+        <v>AstraZeneca</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>not_pregnant</v>
+        <v>astrazeneca</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>ilxtWultuYP</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>Gx9kgkrZj9y</v>
+        <v>GUiVk7RiR3p</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Driver / housekeeping staff</v>
+        <v>Student</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>driver_housekeeping_staff</v>
+        <v>student</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E15" s="5" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2183,118 +2183,118 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>HGNGJ3lHrFG</v>
+        <v>gVqGaROtask</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>Healthcare worker</v>
+        <v>No</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>healthcare_worker</v>
+        <v>not_pregnant</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>ilxtWultuYP</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>HxFNfoxk7ac</v>
+        <v>Gx9kgkrZj9y</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Rural</v>
+        <v>Driver / housekeeping staff</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>RURAL</v>
+        <v>driver_housekeeping_staff</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>VWzgQENmzPK</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>IHYwYAtvjCY</v>
+        <v>HGNGJ3lHrFG</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Urban</v>
+        <v>Healthcare worker</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>URBAN</v>
+        <v>healthcare_worker</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>VWzgQENmzPK</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>ilxDbKaotF7</v>
+        <v>HxFNfoxk7ac</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Lonza Group</v>
+        <v>Rural</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>lonzagroup</v>
+        <v>RURAL</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>VWzgQENmzPK</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>jbAJfe9Nqtk</v>
+        <v>IHYwYAtvjCY</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Other</v>
+        <v>Urban</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>other</v>
+        <v>URBAN</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>VWzgQENmzPK</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>KHU0Aaa2Bw2</v>
+        <v>jbAJfe9Nqtk</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Sanofi</v>
+        <v>Other</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>sanofi1</v>
+        <v>other</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E21" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>odf8pyeMlGk</v>
+        <v>labbhFBSyp4</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>BioNTech Manufacturing GmBH</v>
+        <v>Moderna</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>biontech1</v>
+        <v>moderna</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E22" s="4" t="str">
         <v>DtOGtoLbaB5</v>
@@ -2302,16 +2302,16 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>oMTIcie2RUL</v>
+        <v>n1p4obma3dp</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Moderna Therapeutics Inc</v>
+        <v>Gamaleya</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>moderna1</v>
+        <v>gamaleya</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E23" s="5" t="str">
         <v>DtOGtoLbaB5</v>
@@ -2325,10 +2325,10 @@
         <v>No</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>NO</v>
+        <v>No</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E24" s="4" t="str">
         <v>bLA3AqDKdwx</v>
@@ -2336,84 +2336,84 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>pmBtNMHMpsZ</v>
+        <v>PoeQ0Zb1avN</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>PGS Kalamazoo</v>
+        <v>Booster dose</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>pgskalamazoo</v>
+        <v>BOOSTER</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>PoeQ0Zb1avN</v>
+        <v>Q3obJT1MXov</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Booster dose</v>
+        <v>3rd Trimester (20-40 weeks)</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>BOOSTER</v>
+        <v>3trimester</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E26" s="4" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>kgDmgTYZICP</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>Q3obJT1MXov</v>
+        <v>scFBcsNG5JT</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>3rd Trimester (20-40 weeks)</v>
+        <v>Pregnant</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>3trimester</v>
+        <v>COVACPregnant</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>ilxtWultuYP</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>scFBcsNG5JT</v>
+        <v>SD1oprpITgl</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>Pregnant</v>
+        <v>Social worker/ volunteer</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>COVAXPregnant</v>
+        <v>social_worker_volunteer</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>ilxtWultuYP</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>SD1oprpITgl</v>
+        <v>SVcm0QZbxYn</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>Social worker/ volunteer</v>
+        <v>Retail (non essential)</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>social_worker_volunteer</v>
+        <v>retail_non_essential</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E29" s="5" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2421,16 +2421,16 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>SVcm0QZbxYn</v>
+        <v>Sw1isix3dwU</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Retail (non essential)</v>
+        <v>Retired</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>retail_non_essential</v>
+        <v>retired</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E30" s="4" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2438,36 +2438,36 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>Sw1isix3dwU</v>
+        <v>TKD1XJ4ZhMO</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>Retired</v>
+        <v>Unknown</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>retired</v>
+        <v>Unknown</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>bLA3AqDKdwx</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>TKD1XJ4ZhMO</v>
+        <v>TVWwdI7Mlrh</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>Unknown</v>
+        <v>Sputnik V / Gamaleya</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>UNKNOWN</v>
+        <v>gamaleya</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="33">
@@ -2478,10 +2478,10 @@
         <v>Male</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>MALE</v>
+        <v>Male</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>2021-01-12</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E33" s="5" t="str">
         <v>hiQ3QFheQ3O</v>
@@ -2498,7 +2498,7 @@
         <v>banker</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E34" s="4" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2509,13 +2509,13 @@
         <v>wCXR8ztOP2N</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>COVAX1</v>
+        <v>AZD1222 / AstraZeneca</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>COVAX1</v>
+        <v>astrazeneca</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E35" s="5" t="str">
         <v>VQo3HkUlMHc</v>
@@ -2532,7 +2532,7 @@
         <v>2trimester</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E36" s="4" t="str">
         <v>kgDmgTYZICP</v>
@@ -2549,7 +2549,7 @@
         <v>DOSE3</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E37" s="5" t="str">
         <v>oj3CWm4hpPb</v>
@@ -2563,10 +2563,10 @@
         <v>Lactating</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>COVAXLactating</v>
+        <v>COVACLactating</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E38" s="4" t="str">
         <v>ilxtWultuYP</v>
@@ -2577,13 +2577,13 @@
         <v>yeTPD0qoaz7</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>COVAX3</v>
+        <v>mRNA-1273 / Moderna</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>COVAX3</v>
+        <v>moderna</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E39" s="5" t="str">
         <v>VQo3HkUlMHc</v>
@@ -2591,16 +2591,16 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>z978nuyyRl7</v>
+        <v>Yjp2PzOQiMa</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>Manufacturer 2</v>
+        <v>SK Bio AstraZeneca</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>manufacturer2</v>
+        <v>astrazenecaskbio</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E40" s="4" t="str">
         <v>DtOGtoLbaB5</v>
@@ -2617,7 +2617,7 @@
         <v>1trimester</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E41" s="5" t="str">
         <v>kgDmgTYZICP</v>
@@ -2634,7 +2634,7 @@
         <v>retail_essentials</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E42" s="4" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2651,7 +2651,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -2673,13 +2673,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVID Vaccine Registry</v>
+        <v>COVAC - Covid-19 Vaccine Registry</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2717,7 +2717,7 @@
         <v>Person</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-23</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>MCPQUTHX1Ze</v>
@@ -2729,13 +2729,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="172.7109375" customWidth="1"/>
@@ -2783,7 +2783,7 @@
         <v>DFAxSmMm5pJ</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c COVAX 2 (21 days)</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c BioNtech (21 days)</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>Drop-out from COV-1 to COV-c COVAX2</v>
@@ -2805,7 +2805,7 @@
         <v>Percentage</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="J2" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2813,16 +2813,16 @@
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" s="5" t="str">
-        <v>H7YS9Fxl1mR</v>
+        <v>EhnDZJruoYj</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c COVAX 3 (21 days)</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c Sinopharm (28 days)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Drop-out from COV-1 to COV-c COVAX3</v>
+        <v>Drop-out from COV-1 to COV-c COVAX5</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>COV-1-COV-c COVAX3</v>
+        <v xml:space="preserve">COV-1-COV-c COVAX5 </v>
       </c>
       <c r="E3" s="5" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
@@ -2838,7 +2838,7 @@
         <v>Percentage</v>
       </c>
       <c r="I3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="J3" s="5" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2846,16 +2846,16 @@
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" s="4" t="str">
-        <v>KI5DoTUGLEE</v>
+        <v>H7YS9Fxl1mR</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c COVAX 1 (10 days)</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c Moderna (28 days)</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Drop-out from COV-1 to COV-c COVAX1</v>
+        <v>Drop-out from COV-1 to COV-c COVAX3</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>COV-1-COV-c COVAX1</v>
+        <v>COV-1-COV-c COVAX3</v>
       </c>
       <c r="E4" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
@@ -2871,7 +2871,7 @@
         <v>Percentage</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="J4" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2879,23 +2879,23 @@
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" s="5" t="str">
-        <v>qbNdD4CF8K5</v>
+        <v>JjIcypzBqPV</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c Gamaleya (21 days)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Drop-out from COV-1 to COV-c</v>
+        <v>Drop-out from COV-1 to COV-c COVAX4</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>COV-1-COV-c</v>
+        <v>COV-1-COV-c COVAX4</v>
       </c>
       <c r="E5" s="5" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
 </v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>CPV-1 - COV-c</v>
+        <v>COV-1 - COV-c</v>
       </c>
       <c r="G5" s="5" t="str">
         <v>COV-1</v>
@@ -2904,9 +2904,75 @@
         <v>Percentage</v>
       </c>
       <c r="I5" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="J5" s="5" t="str">
+        <v>mhdLWWUIqUp</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" s="4" t="str">
+        <v>KI5DoTUGLEE</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <v>COVAC - Drop-out from COV-1 to COV-c AstraZeneca (12 days)</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <v>Drop-out from COV-1 to COV-c COVAX1</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <v>COV-1-COV-c COVAX1</v>
+      </c>
+      <c r="E6" s="4" t="str" xml:space="preserve">
+        <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
+</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <v>COV-1 - COV-c</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <v>COV-1</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <v>mhdLWWUIqUp</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" s="5" t="str">
+        <v>qbNdD4CF8K5</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <v>Drop-out from COV-1 to COV-c</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <v>COV-1-COV-c</v>
+      </c>
+      <c r="E7" s="5" t="str" xml:space="preserve">
+        <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
+</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <v>CPV-1 - COV-c</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <v>COV-1</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="J7" s="5" t="str">
         <v>mhdLWWUIqUp</v>
       </c>
     </row>
@@ -2949,7 +3015,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-12</v>
+        <v>2021-02-22</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>e1jRVY5Mcq0</v>
@@ -2966,7 +3032,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
@@ -2984,10 +3050,10 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVID-19 vaccine registry</v>
+        <v>COVAC - COVID-19 vaccine registry</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -2999,7 +3065,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3043,10 +3109,10 @@
         <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>yGO7K9navzb</v>
+        <v>h6jrY8dxlPw</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F2" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3054,19 +3120,19 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v/>
+        <v>TWG0cq8P539</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>TEXT</v>
+        <v>visualizations</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v/>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Ar6hHusJH20</v>
+        <v>XhogYKdCxCn</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F3" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3083,10 +3149,10 @@
         <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>wkVdR09w1ZV</v>
+        <v>yGO7K9navzb</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F4" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3103,10 +3169,10 @@
         <v/>
       </c>
       <c r="D5" s="5" t="str">
-        <v>uoycKmEiRNz</v>
+        <v>Ar6hHusJH20</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F5" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3114,19 +3180,19 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>wHd33PaphEC</v>
+        <v/>
       </c>
       <c r="B6" s="4" t="str">
-        <v>visualizations</v>
+        <v>TEXT</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>COVAX - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
+        <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>UACnzvlcufQ</v>
+        <v>wkVdR09w1ZV</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F6" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3134,19 +3200,19 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>gNsB9zivLTy</v>
+        <v/>
       </c>
       <c r="B7" s="5" t="str">
-        <v>visualizations</v>
+        <v>TEXT</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>COVAX - At least one underlying condition</v>
+        <v/>
       </c>
       <c r="D7" s="5" t="str">
-        <v>Y61weOrxJXS</v>
+        <v>uoycKmEiRNz</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F7" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3154,19 +3220,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>vFkbMQiABfj</v>
+        <v>wHd33PaphEC</v>
       </c>
       <c r="B8" s="4" t="str">
         <v>visualizations</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>COVAX - Underlying conditions</v>
+        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>ytFTqxSW9AV</v>
+        <v>UACnzvlcufQ</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F8" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3174,19 +3240,19 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>Db3MWC56CBp</v>
+        <v>gNsB9zivLTy</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>Map</v>
+        <v>visualizations</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>COVAX-Dropout rates</v>
+        <v>COVAC - At least one underlying condition</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>XaeVdRGnR7J</v>
+        <v>Y61weOrxJXS</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F9" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3194,19 +3260,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>GJPPSQuVt4N</v>
+        <v>vFkbMQiABfj</v>
       </c>
       <c r="B10" s="4" t="str">
         <v>visualizations</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>COVAX - Number of doses administered</v>
+        <v>COVAC - Underlying conditions</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>ULSr3ZoJctd</v>
+        <v>ytFTqxSW9AV</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F10" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3214,19 +3280,19 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>cgMKXl648C2</v>
+        <v>Db3MWC56CBp</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Event report</v>
+        <v>Map</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>COVAX - Summary of doses</v>
+        <v>COVAC-Dropout rates</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>HJDKEwltTyy</v>
+        <v>XaeVdRGnR7J</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F11" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3234,19 +3300,19 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>QTONjOuZmh4</v>
+        <v>GJPPSQuVt4N</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Event chart</v>
+        <v>visualizations</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>COVAX - Occupation - HCWs</v>
+        <v>COVAC - Number of doses administered</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>KA0lBNvirHU</v>
+        <v>ULSr3ZoJctd</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F12" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3254,19 +3320,19 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>ZFd7uKfZpli</v>
+        <v>cgMKXl648C2</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Event chart</v>
+        <v>Event report</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>COVAX - Area of origin</v>
+        <v>COVAC - Summary of doses</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>OehlMy5dFc5</v>
+        <v>HJDKEwltTyy</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F13" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3274,19 +3340,19 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>aUjo2Myd25f</v>
+        <v>QTONjOuZmh4</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>visualizations</v>
+        <v>Event chart</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>COVAX - Complete vaccination uptake</v>
+        <v>COVAC - Occupation - HCWs</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>OvN5kvyDCAs</v>
+        <v>KA0lBNvirHU</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F14" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3294,19 +3360,19 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>KV7fffdXnlY</v>
+        <v>ZFd7uKfZpli</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>visualizations</v>
+        <v>Event chart</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>COVAX - Vaccine uptake by sex</v>
+        <v>COVAC - Area of origin</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>LHsZfeujSZz</v>
+        <v>OehlMy5dFc5</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F15" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3314,19 +3380,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>BWlYGFBDbO2</v>
+        <v>aUjo2Myd25f</v>
       </c>
       <c r="B16" s="4" t="str">
         <v>visualizations</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>COVAX - Vaccine uptake by age group</v>
+        <v>COVAC - Complete vaccination uptake</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>ZFrKEvxoOSO</v>
+        <v>OvN5kvyDCAs</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F16" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3334,19 +3400,19 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>MzSAvoJ0vLr</v>
+        <v>KV7fffdXnlY</v>
       </c>
       <c r="B17" s="5" t="str">
         <v>visualizations</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>COVAX - Vaccine uptake, last month</v>
+        <v>COVAC - Vaccine uptake by sex</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>zqLvFWIAsbq</v>
+        <v>LHsZfeujSZz</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F17" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3354,19 +3420,19 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>cOH1OjReS14</v>
+        <v>BWlYGFBDbO2</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Map</v>
+        <v>visualizations</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>COVAX-Number of doses given, last month</v>
+        <v>COVAC - Vaccine uptake by age group</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>BKU0qpNqRJt</v>
+        <v>ZFrKEvxoOSO</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F18" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3374,19 +3440,19 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>Hbs3xGj7XoN</v>
+        <v>MzSAvoJ0vLr</v>
       </c>
       <c r="B19" s="5" t="str">
         <v>visualizations</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC - Vaccine uptake, last month</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>LPZvKzUrssT</v>
+        <v>zqLvFWIAsbq</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F19" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3394,21 +3460,61 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
+        <v>cOH1OjReS14</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <v>Map</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <v>COVAC-Number of doses given, last month</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <v>BKU0qpNqRJt</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <v>YYtAbckt77l</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="str">
+        <v>Hbs3xGj7XoN</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <v>visualizations</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <v>LPZvKzUrssT</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <v>YYtAbckt77l</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="str">
         <v>vmNUVdhuxN7</v>
       </c>
-      <c r="B20" s="4" t="str">
+      <c r="B22" s="4" t="str">
         <v>visualizations</v>
       </c>
-      <c r="C20" s="4" t="str">
-        <v>COVAX - Cumulative number of given doses, Last 4 weeks</v>
-      </c>
-      <c r="D20" s="4" t="str">
+      <c r="C22" s="4" t="str">
+        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
+      </c>
+      <c r="D22" s="4" t="str">
         <v>uO249BXzjbw</v>
       </c>
-      <c r="E20" s="4" t="str">
-        <v>2021-01-29</v>
-      </c>
-      <c r="F20" s="4" t="str">
+      <c r="E22" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F22" s="4" t="str">
         <v>YYtAbckt77l</v>
       </c>
     </row>
@@ -3418,13 +3524,13 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="86.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
@@ -3445,13 +3551,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Complete vaccination uptake</v>
+        <v>COVAC - Complete vaccination uptake</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-31T13:20:29.708</v>
+        <v>2021-02-23T10:51:33.734</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>aUjo2Myd25f</v>
@@ -3459,13 +3565,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Vaccine uptake by age group</v>
+        <v>COVAC - Vaccine uptake by age group</v>
       </c>
       <c r="B3" s="5" t="str">
         <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-02-05T12:02:54.137</v>
+        <v>2021-02-23T10:49:04.389</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>BWlYGFBDbO2</v>
@@ -3473,13 +3579,13 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - Number of doses administered</v>
+        <v>COVAC - Number of doses administered</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>TEST TEST</v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-02-05T12:02:54.594</v>
+        <v>2021-02-23T10:46:09.387</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>GJPPSQuVt4N</v>
@@ -3487,13 +3593,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAX - At least one underlying condition</v>
+        <v>COVAC - At least one underlying condition</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-01-31T13:20:30.096</v>
+        <v>2021-02-23T10:50:10.386</v>
       </c>
       <c r="D5" s="5" t="str">
         <v>gNsB9zivLTy</v>
@@ -3501,13 +3607,13 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-02-05T12:02:54.820</v>
+        <v>2021-02-23T10:52:51.868</v>
       </c>
       <c r="D6" s="4" t="str">
         <v>Hbs3xGj7XoN</v>
@@ -3515,13 +3621,13 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX - Vaccine uptake by sex</v>
+        <v>COVAC - Vaccine uptake by sex</v>
       </c>
       <c r="B7" s="5" t="str">
         <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-02-05T12:02:55.040</v>
+        <v>2021-02-23T10:49:27.088</v>
       </c>
       <c r="D7" s="5" t="str">
         <v>KV7fffdXnlY</v>
@@ -3529,13 +3635,13 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX - Vaccine uptake, last month</v>
+        <v>COVAC - Vaccine uptake, last month</v>
       </c>
       <c r="B8" s="4" t="str">
         <v/>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-01-31T13:20:29.134</v>
+        <v>2021-02-23T10:48:22.065</v>
       </c>
       <c r="D8" s="4" t="str">
         <v>MzSAvoJ0vLr</v>
@@ -3543,43 +3649,57 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAX - Underlying conditions</v>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v/>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-01-31T13:20:30.448</v>
+        <v>2021-02-23T10:46:35.842</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>vFkbMQiABfj</v>
+        <v>TWG0cq8P539</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAX - Cumulative number of given doses, Last 4 weeks</v>
+        <v>COVAC - Underlying conditions</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>TEST TEST</v>
+        <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-02-05T12:02:55.243</v>
+        <v>2021-02-23T10:50:30.260</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>vmNUVdhuxN7</v>
+        <v>vFkbMQiABfj</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAX - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
+        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v/>
+        <v>TEST TEST</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-02-05T12:03:16.999</v>
+        <v>2021-02-23T10:47:14.717</v>
       </c>
       <c r="D11" s="5" t="str">
+        <v>vmNUVdhuxN7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="str">
+        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C12" s="4" t="str">
+        <v>2021-02-23T10:45:47.442</v>
+      </c>
+      <c r="D12" s="4" t="str">
         <v>wHd33PaphEC</v>
       </c>
     </row>
@@ -3616,13 +3736,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX-Number of doses given, last month</v>
+        <v>COVAC-Number of doses given, last month</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>cOH1OjReS14</v>
@@ -3630,13 +3750,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX-Dropout rates</v>
+        <v>COVAC-Dropout rates</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>Db3MWC56CBp</v>
@@ -3675,13 +3795,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Summary of doses</v>
+        <v>COVAC - Summary of doses</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>cgMKXl648C2</v>
@@ -3720,13 +3840,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Occupation - HCWs</v>
+        <v>COVAC - Occupation - HCWs</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>QTONjOuZmh4</v>
@@ -3734,13 +3854,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Area of origin</v>
+        <v>COVAC - Area of origin</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>ZFd7uKfZpli</v>
@@ -3852,7 +3972,7 @@
         <v>dzW10q0QMvN</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-26</v>
+        <v>2021-02-23</v>
       </c>
     </row>
     <row r="3">
@@ -3863,7 +3983,7 @@
         <v>I8XmjYX1rBC</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-26</v>
+        <v>2021-02-23</v>
       </c>
     </row>
   </sheetData>
@@ -3932,7 +4052,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
@@ -3950,10 +4070,10 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVID Immunization Metadata Admin</v>
+        <v>COVAC - Covid-19 Immunization Metadata Admin</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>AEAQ9LktNze</v>
@@ -3964,7 +4084,7 @@
         <v>AEFI access</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-22</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>J3mFUNTreYY</v>
@@ -3975,7 +4095,7 @@
         <v>AEFI admin</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-22</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>kPBGgIFMNFv</v>
@@ -3983,10 +4103,10 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVID Immunization Data Entry</v>
+        <v>COVAC - Covid-19 Immunization Data Entry</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-02-23</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>q3Nh5xhJEy2</v>
@@ -3997,7 +4117,7 @@
         <v>AEFI data capture</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-22</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>RWyhKm0cuQ5</v>
@@ -4005,10 +4125,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVID Immunization Data Analysis</v>
+        <v>COVAC - Covid-19 Immunization Data Analysis</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>2021-01-28</v>
+        <v>2021-02-23</v>
       </c>
       <c r="C7" s="5" t="str">
         <v>VLIaHu6ou8E</v>
@@ -4046,7 +4166,7 @@
         <v>who</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-07-07</v>
+        <v>2021-02-22</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>vUeLeQMSwhN</v>
@@ -4063,9 +4183,9 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="108.7109375" customWidth="1"/>
+    <col min="3" max="3" width="112.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
@@ -4089,87 +4209,87 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX Unique System Identifier (EPI)</v>
+        <v>Family name</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>System-generated unique ID following pattern: CURRENT_DATE(yyyy-MM-dd) followed by a random number (#####)</v>
+        <v>Family name of the patient</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>aJJvi3jiLZr</v>
+        <v>aW66s2QSosT</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Family name</v>
+        <v>Mobile phone number</v>
       </c>
       <c r="B3" s="5" t="str">
         <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Family name of the patient</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>aW66s2QSosT</v>
+        <v>ciCR6BBvIT4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Mobile phone number</v>
+        <v>Sex</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v/>
+        <v>patinfo_sex</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v/>
+        <v>Sex of Person</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>ciCR6BBvIT4</v>
+        <v>CklPZdOd6H1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Sex</v>
+        <v>National ID</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Sex of Person</v>
+        <v/>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>CklPZdOd6H1</v>
+        <v>Ewi7FUfcHAD</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>National ID</v>
+        <v>Unique System Identifier (EPI)</v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <v/>
+        <v>System-generated unique ID following pattern: CURRENT_DATE(yyyy-MM-dd) followed by a sequential number (#####)</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-01-28</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Ewi7FUfcHAD</v>
+        <v>KSr2yTdu1AI</v>
       </c>
     </row>
     <row r="7">
@@ -4183,7 +4303,7 @@
         <v>Client occupation from the pre-defined list</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E7" s="5" t="str">
         <v>LY2bDXpNvS7</v>
@@ -4200,7 +4320,7 @@
         <v>Date of birth plus calculated age</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>mAWcalQYYyk</v>
@@ -4217,7 +4337,7 @@
         <v>The name of the patient or initials</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E9" s="5" t="str">
         <v>TfdH5KvFmMy</v>
@@ -4234,7 +4354,7 @@
         <v xml:space="preserve">Current home address of the patient/case </v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E10" s="4" t="str">
         <v>VCtm2pySeEV</v>
@@ -4251,7 +4371,7 @@
         <v>Whether client lives in an urban or rural setting</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E11" s="5" t="str">
         <v>YCqoNJZKvAG</v>
@@ -4268,7 +4388,7 @@
         <v/>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>Z1rLc1rVHK8</v>
@@ -4285,7 +4405,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -4307,13 +4427,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVID-19 Vaccination Registry</v>
+        <v>COVAC - COVID-19 Vaccination Registry</v>
       </c>
       <c r="B2" s="4" t="str">
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4358,7 +4478,7 @@
         <v>a1jCssI2LkW</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05T12:03:16.542</v>
+        <v>2021-02-23T08:37:58.971</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4377,7 +4497,7 @@
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4399,7 +4519,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
     </row>
     <row r="3">
@@ -4410,7 +4530,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>COVAX - Dose Number</v>
+        <v>COVAC - Dose Number</v>
       </c>
     </row>
     <row r="4">
@@ -4421,7 +4541,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>COVAX- Batch Number</v>
+        <v>COVAC- Batch Number</v>
       </c>
     </row>
     <row r="5">
@@ -4432,7 +4552,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>COVAX - Dose Expiry Date</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
     </row>
     <row r="6">
@@ -4443,7 +4563,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>COVAX - Last Dose</v>
+        <v>COVAC - Last Dose</v>
       </c>
     </row>
     <row r="7">
@@ -4454,7 +4574,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>COVAX Suggested date for next dose</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
     </row>
     <row r="8">
@@ -4465,7 +4585,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>COVAX - Pregnancy</v>
+        <v>COVAC - Pregnancy</v>
       </c>
     </row>
     <row r="9">
@@ -4476,7 +4596,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>COVAX - Pregnancy gestation</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
     </row>
     <row r="10">
@@ -4487,7 +4607,7 @@
         <v>Pre-immunization Questions</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>COVAX Previously infected with COVID</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
     </row>
     <row r="11">
@@ -4498,7 +4618,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>COVAX - Underlying condition</v>
+        <v>COVAC - Underlying condition</v>
       </c>
     </row>
     <row r="12">
@@ -4509,7 +4629,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>COVAX - Underlying condition Other</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
     </row>
     <row r="13">
@@ -4520,7 +4640,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>COVAX - Immunodeficiency</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
     </row>
     <row r="14">
@@ -4528,10 +4648,10 @@
         <v xml:space="preserve">Vaccination </v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Pre-immunization Questions</v>
+        <v>Underlying Conditions</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>COVAX Allergic reaction after first dose</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="15">
@@ -4539,10 +4659,10 @@
         <v xml:space="preserve">Vaccination </v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Underlying Conditions</v>
+        <v>Pre-immunization Questions</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>COVAX - Cardiovascular Disease</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="16">
@@ -4553,7 +4673,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>COVAX - Chronic Lung Disease</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
     </row>
     <row r="17">
@@ -4564,7 +4684,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>COVAX - Diabetes</v>
+        <v>COVAC - Diabetes</v>
       </c>
     </row>
     <row r="18">
@@ -4575,7 +4695,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>COVAX - Malignancy</v>
+        <v>COVAC - Malignancy</v>
       </c>
     </row>
     <row r="19">
@@ -4586,7 +4706,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
     </row>
     <row r="20">
@@ -4597,7 +4717,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>COVAX - Manufacturer</v>
+        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
       </c>
     </row>
     <row r="21">
@@ -4608,7 +4728,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>COVAX - Renal Disease</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="22">
@@ -4619,7 +4739,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>COVAX - Multiple products used - Explain</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="23">
@@ -4630,7 +4750,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>COVAX - Total doses</v>
+        <v>COVAC - Total doses</v>
       </c>
     </row>
     <row r="24">
@@ -4641,7 +4761,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>COVAX - AEFIs present</v>
+        <v>COVAC - AEFIs present</v>
       </c>
     </row>
   </sheetData>
@@ -4650,7 +4770,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -4696,10 +4816,10 @@
         <v>A2Vtdh2mndr</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 2) </v>
+        <v>Vaccine Uptake BioNtech</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 2) </v>
+        <v xml:space="preserve">Vaccine Uptake (BioNTech/Pfizer) </v>
       </c>
       <c r="D2" s="4" t="str">
         <v/>
@@ -4711,7 +4831,7 @@
         <v>EVENT</v>
       </c>
       <c r="G2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4737,7 +4857,7 @@
         <v>EVENT</v>
       </c>
       <c r="G3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H3" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4763,7 +4883,7 @@
         <v>EVENT</v>
       </c>
       <c r="G4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H4" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4774,22 +4894,22 @@
         <v>ApGCVA6qhKT</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>ZZZVaccine Uptake (COVAX 1)</v>
+        <v>ZZZVaccine Uptake (AstraZeneca)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>ZZZVaccine Uptake (COVAX 1)</v>
+        <v>ZZZVaccine Uptake (AstraZeneca)</v>
       </c>
       <c r="D5" s="5" t="str">
         <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>Number of doses given of COVAX 1</v>
+        <v>Number of doses given of AstraZeneca</v>
       </c>
       <c r="F5" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H5" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4815,7 +4935,7 @@
         <v>EVENT</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H6" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4841,7 +4961,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H7" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4867,7 +4987,7 @@
         <v>EVENT</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H8" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4893,7 +5013,7 @@
         <v>EVENT</v>
       </c>
       <c r="G9" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H9" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4919,7 +5039,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H10" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4930,10 +5050,10 @@
         <v>dIAw5mn6Wqp</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COV-C Dropout: Numerator COVAX1 (10 days since enrollment, no final dose)</v>
+        <v>COV-C Dropout: Numerator astrazeneca (12 days since enrollment, no final dose)</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Dropout_rate_10_days_n</v>
+        <v>Dropout_rate_12_days_n</v>
       </c>
       <c r="D11" s="5" t="str">
         <v/>
@@ -4945,7 +5065,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H11" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4953,25 +5073,25 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>DNWp4zqrALv</v>
+        <v>dm0FUJgNzZE</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product</v>
+        <v>COV-C Dropout: Numerator sinopharm (28 days since enrollment, no final dose)</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>Received last dose</v>
+        <v>Dropout_rate_28_days_n_sinopharm</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>COV-c</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G12" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H12" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4979,25 +5099,25 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>Fj0B6zTlckL</v>
+        <v>DNWp4zqrALv</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COV-C Dropout: Numerator COVAX2 (21 days since enrollment, no final dose)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>Dropout_rate_21_days_n</v>
+        <v>Received last dose</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v/>
+        <v>COV-c</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v>Crosses 21 days since enrollment date this period</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G13" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H13" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5005,25 +5125,25 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>FZNIlzPRMmL</v>
+        <v>Fj0B6zTlckL</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 0-59)</v>
+        <v>COV-C Dropout: Numerator biontechpfizer (21 days since enrollment, no final dose)</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>Received last dose (Male 0-59)</v>
+        <v>Dropout_rate_21_days_n</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>COV-c (Male 0-59)</v>
+        <v/>
       </c>
       <c r="E14" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Crosses 21 days since enrollment date this period</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H14" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5031,25 +5151,25 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>h9G7i6mQKef</v>
+        <v>FZNIlzPRMmL</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Number of people receiving a second, third or booster dose (Female 60+)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 0-59)</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>2nd, 3rd, booster dose - (Female 60+)</v>
+        <v>Received last dose (Male 0-59)</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>COV-2 (Female 60+)</v>
+        <v>COV-c (Male 0-59)</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F15" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G15" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H15" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5057,25 +5177,25 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>HCe7qiP0GoC</v>
+        <v>Gyj2tvi2yKK</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>Number of people receiving a first dose (Male)</v>
+        <v>COV-C Dropout: Denominator gamaleya (21 days since enrollment)</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>First dose - Number of people (Male)</v>
+        <v>Dropout_rate_21_days_gamaleya</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>COV-1 Male</v>
+        <v/>
       </c>
       <c r="E16" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H16" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5083,25 +5203,25 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>hqm8znlAzkT</v>
+        <v>h9G7i6mQKef</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Number of people receiving a first dose  (Male 0-59)</v>
+        <v>Number of people receiving a second, third or booster dose (Female 60+)</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>First dose - Number of people (Male 0-59)</v>
+        <v>2nd, 3rd, booster dose - (Female 60+)</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>COV-1 (Male 0-59)</v>
+        <v>COV-2 (Female 60+)</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F17" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G17" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H17" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5109,25 +5229,25 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>IXW8ahBF3Pl</v>
+        <v>HCe7qiP0GoC</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v xml:space="preserve">ZZZNumber of people (Male) receiving a second, third or booster dose </v>
+        <v>Number of people receiving a first dose (Male)</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>ZZZ2nd, 3rd, booster dose - Number of males</v>
+        <v>First dose - Number of people (Male)</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>ZZZCOV-2 (Male)</v>
+        <v>COV-1 Male</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H18" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5135,16 +5255,16 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>kKr4FSA1O0Z</v>
+        <v>hqm8znlAzkT</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Number of people receiving a first dose (Female)</v>
+        <v>Number of people receiving a first dose  (Male 0-59)</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>First dose - Number of people (Female)</v>
+        <v>First dose - Number of people (Male 0-59)</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>COV-1 Female</v>
+        <v>COV-1 (Male 0-59)</v>
       </c>
       <c r="E19" s="5" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5153,7 +5273,7 @@
         <v>EVENT</v>
       </c>
       <c r="G19" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H19" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5161,25 +5281,25 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>kNzRGpiCvg4</v>
+        <v>IXW8ahBF3Pl</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v xml:space="preserve">Doses given - </v>
+        <v xml:space="preserve">ZZZNumber of people (Male) receiving a second, third or booster dose </v>
       </c>
       <c r="C20" s="4" t="str">
-        <v xml:space="preserve">1st, 2nd, 3rd, booster dose - Number of doses - </v>
+        <v>ZZZ2nd, 3rd, booster dose - Number of males</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>COV-n</v>
+        <v>ZZZCOV-2 (Male)</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>Number of doses (first, second, third, or booster dose) of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G20" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H20" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5187,25 +5307,25 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>M3jBOeFxHO0</v>
+        <v>kKr4FSA1O0Z</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 1) </v>
+        <v>Number of people receiving a first dose (Female)</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 1) </v>
+        <v>First dose - Number of people (Female)</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v/>
+        <v>COV-1 Female</v>
       </c>
       <c r="E21" s="5" t="str">
-        <v>Number of doses given of COVAX 1</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F21" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G21" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H21" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5213,25 +5333,25 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>MGjwUUNsE60</v>
+        <v>kNzRGpiCvg4</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Male 0-59)</v>
+        <v xml:space="preserve">Doses given </v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>2nd, 3rd or booster dose -  (Male 0-59)</v>
+        <v xml:space="preserve">1st, 2nd, 3rd, booster dose - Number of doses - </v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>COV-2 (Male 0-59)</v>
+        <v>COV-n</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>Number of males who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of doses (first, second, third, or booster dose) of a vaccine product</v>
       </c>
       <c r="F22" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H22" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5239,25 +5359,25 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>MUXThnNRCk6</v>
+        <v>M3jBOeFxHO0</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Number of people receiving a first dose (60+)</v>
+        <v>Vaccine Uptake AstraZeneca</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>First dose - Number of people (60+)</v>
+        <v xml:space="preserve">Vaccine Uptake (AstraZeneca) </v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>COV-1 (60+)</v>
+        <v/>
       </c>
       <c r="E23" s="5" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of doses given of AstraZeneca</v>
       </c>
       <c r="F23" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G23" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H23" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5265,25 +5385,25 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>P2OSNv6tWuj</v>
+        <v>MGjwUUNsE60</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>ZZZNumber of people receiving a first dose</v>
+        <v>Number of people receiving a second, third or booster dose (Male 0-59)</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>ZZZFirst dose - Number of people</v>
+        <v>2nd, 3rd or booster dose -  (Male 0-59)</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>ZZZCOV-1</v>
+        <v>COV-2 (Male 0-59)</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of males who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G24" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H24" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5291,25 +5411,25 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>pbiKvW0Xv5Y</v>
+        <v>MUXThnNRCk6</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Male)</v>
+        <v>Number of people receiving a first dose (60+)</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>Received last dose (Male)</v>
+        <v>First dose - Number of people (60+)</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>COV-c Male</v>
+        <v>COV-1 (60+)</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F25" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G25" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H25" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5317,25 +5437,25 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>qh0kIjHZbP8</v>
+        <v>MzXxrDWcNjW</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Male 60+)</v>
+        <v>Vaccine Uptake Sinopharm</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>2nd, 3rd, booster dose - (Male 60+)</v>
+        <v xml:space="preserve">Vaccine Uptake (Sinopharm ) </v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>COV-2 (Male 60+)</v>
+        <v/>
       </c>
       <c r="E26" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F26" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G26" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H26" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5343,25 +5463,25 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>RJ6pdxga9Od</v>
+        <v>P2OSNv6tWuj</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>Number of people receiving a first dose (Female 0-59)</v>
+        <v>ZZZNumber of people receiving a first dose</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>First dose - Number of people (Female 0-59)</v>
+        <v>ZZZFirst dose - Number of people</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>COV-1 (Female 0-59)</v>
+        <v>ZZZCOV-1</v>
       </c>
       <c r="E27" s="5" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F27" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G27" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H27" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5369,25 +5489,25 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>rqwQndYRiXO</v>
+        <v>pbiKvW0Xv5Y</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>COV-C Dropout: Denominator COVAX3 (28 days since enrollment)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Male)</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>Dropout_rate_28_days_D</v>
+        <v>Received last dose (Male)</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v/>
+        <v>COV-c Male</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>Crosses 28 days since enrollment date this period</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G28" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H28" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5395,25 +5515,25 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>rtoIINJSfAf</v>
+        <v>qh0kIjHZbP8</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>ZZZVaccine Uptake (COVAX 2)</v>
+        <v>Number of people receiving a second, third or booster dose (Male 60+)</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>ZZZVaccine Uptake (COVAX 2)</v>
+        <v>2nd, 3rd, booster dose - (Male 60+)</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v/>
+        <v>COV-2 (Male 60+)</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F29" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G29" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H29" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5421,25 +5541,25 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>SqD0kovH0CS</v>
+        <v>QiRbyLpu9Um</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Number of people receiving a first dose (0-59)</v>
+        <v>COV-C Dropout: Numerator gamaleya (21 days since enrollment, no final dose)</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>First dose - Number of people (0-59)</v>
+        <v>Dropout_rate_21_days_n_gamaleya</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>COV-1 (0-59)</v>
+        <v/>
       </c>
       <c r="E30" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Crosses 21 days since enrollment date this period</v>
       </c>
       <c r="F30" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G30" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H30" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5447,25 +5567,25 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>sYIBsws6qUG</v>
+        <v>RJ6pdxga9Od</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v xml:space="preserve">zzzNumber of people receiving a second, third or booster dose </v>
+        <v>Number of people receiving a first dose (Female 0-59)</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v xml:space="preserve">zzz2nd, 3rd, booster dose - Number of people </v>
+        <v>First dose - Number of people (Female 0-59)</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v xml:space="preserve">zzzCOV-2 </v>
+        <v>COV-1 (Female 0-59)</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F31" s="5" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G31" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H31" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5473,25 +5593,25 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>T4Fcv5Khfe8</v>
+        <v>rqwQndYRiXO</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>ZZZVaccine Uptake (COVAX 3)</v>
+        <v>COV-C Dropout: Denominator moderna (28 days since enrollment)</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>ZZZVaccine Uptake (COVAX 3)</v>
+        <v>Dropout_rate_28_days_D</v>
       </c>
       <c r="D32" s="4" t="str">
         <v/>
       </c>
       <c r="E32" s="4" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F32" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G32" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H32" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5499,25 +5619,25 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>toRV4TP9yQK</v>
+        <v>rtoIINJSfAf</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>COV-C Dropout: Denominator COVAX1 (10 days since enrollment)</v>
+        <v>ZZZVaccine Uptake (BioNTech/Pfizer)</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>Dropout_rate_10_days_D</v>
+        <v>ZZZVaccine Uptake (BioNTech/Pfizer)</v>
       </c>
       <c r="D33" s="5" t="str">
         <v/>
       </c>
       <c r="E33" s="5" t="str">
-        <v>Crosses 30 days since enrollment date this period</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F33" s="5" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G33" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H33" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5525,25 +5645,25 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>UWXUTVN709H</v>
+        <v>SqD0kovH0CS</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Female)</v>
+        <v>Number of people receiving a first dose (0-59)</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>Received last dose (Female)</v>
+        <v>First dose - Number of people (0-59)</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>COV-c Female</v>
+        <v>COV-1 (0-59)</v>
       </c>
       <c r="E34" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F34" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G34" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H34" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5551,25 +5671,25 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>UzbfnPqo0LV</v>
+        <v>sYIBsws6qUG</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>ZZZNumber of doses given</v>
+        <v xml:space="preserve">zzzNumber of people receiving a second, third or booster dose </v>
       </c>
       <c r="C35" s="5" t="str">
-        <v xml:space="preserve">ZZZ1st, 2nd, 3rd, booster dose - Number of people </v>
+        <v xml:space="preserve">zzz2nd, 3rd, booster dose - Number of people </v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>ZZZCOV-n</v>
+        <v xml:space="preserve">zzzCOV-2 </v>
       </c>
       <c r="E35" s="5" t="str">
         <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F35" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G35" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H35" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5577,25 +5697,25 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>UzPqw49tyym</v>
+        <v>T4Fcv5Khfe8</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a second, third or booster dose  (Male) </v>
+        <v>ZZZVaccine Uptake (Moderna)</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v xml:space="preserve">2nd, 3rd, booster dose - Number of males </v>
+        <v>ZZZVaccine Uptake (Moderna)</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>COV-2 (Male)</v>
+        <v/>
       </c>
       <c r="E36" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F36" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G36" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H36" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5603,13 +5723,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>V7SgYaK5lyF</v>
+        <v>toRV4TP9yQK</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>COV-C Dropout: Denominator (30 days since enrollment)</v>
+        <v>COV-C Dropout: Denominator astrazeneca (10 days since enrollment)</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Dropout_rate_30_days_D</v>
+        <v>Dropout_rate_10_days_D</v>
       </c>
       <c r="D37" s="5" t="str">
         <v/>
@@ -5621,7 +5741,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G37" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H37" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5629,25 +5749,25 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>wkaRLVNi6Fm</v>
+        <v>UWXUTVN709H</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Female)  JM</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Female)</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>2nd, 3rd, booster dose - Number of females JM</v>
+        <v>Received last dose (Female)</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>COV-2 (Female)-JM</v>
+        <v>COV-c Female</v>
       </c>
       <c r="E38" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F38" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G38" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H38" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5655,25 +5775,25 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>x4L0LuEBHhW</v>
+        <v>UzbfnPqo0LV</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>Number of people receiving a first dose (Female 60+)</v>
+        <v>ZZZNumber of doses given</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>First dose - Number of people (Female 60+)</v>
+        <v xml:space="preserve">ZZZ1st, 2nd, 3rd, booster dose - Number of people </v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>COV-1 (Female 60+)</v>
+        <v>ZZZCOV-n</v>
       </c>
       <c r="E39" s="5" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F39" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G39" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H39" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5681,25 +5801,25 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>xE7kgNbrb5v</v>
+        <v>UzPqw49tyym</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>COV-C Dropout: Numerator COVAX3 (28 days since enrollment, no final dose)</v>
+        <v xml:space="preserve">Number of people receiving a second, third or booster dose  (Male) </v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>Dropout_rate_28_days_n</v>
+        <v xml:space="preserve">2nd, 3rd, booster dose - Number of males </v>
       </c>
       <c r="D40" s="4" t="str">
-        <v/>
+        <v>COV-2 (Male)</v>
       </c>
       <c r="E40" s="4" t="str">
-        <v>Crosses 28 days since enrollment date this period</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F40" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G40" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H40" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5707,25 +5827,25 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>XFUvVgqPukT</v>
+        <v>V7SgYaK5lyF</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 60+)</v>
+        <v>COV-C Dropout: Denominator (30 days since enrollment)</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>Received last dose (Female 60+)</v>
+        <v>Dropout_rate_30_days_D</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>COV-c (Female 60+)</v>
+        <v/>
       </c>
       <c r="E41" s="5" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Crosses 30 days since enrollment date this period</v>
       </c>
       <c r="F41" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G41" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H41" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5733,25 +5853,25 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>xY4T9hHXNji</v>
+        <v>Vw3m2BgMNRD</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Female 0-59)</v>
+        <v>COV-C Dropout: Denominator sinopharm (28 days since enrollment)</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>2nd, 3rd or booster dose -  (Female 0-59)</v>
+        <v>Dropout_rate_28_days_sinopharm</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>COV-2 (Female 0-59)</v>
+        <v/>
       </c>
       <c r="E42" s="4" t="str">
-        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F42" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G42" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H42" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5759,25 +5879,25 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>z7eWopCMD1k</v>
+        <v>wkaRLVNi6Fm</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 3) </v>
+        <v xml:space="preserve">Number of people receiving a second, third or booster dose (Female) </v>
       </c>
       <c r="C43" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 3) </v>
+        <v xml:space="preserve">2nd, 3rd, booster dose - Number of females </v>
       </c>
       <c r="D43" s="5" t="str">
-        <v/>
+        <v>COV-2 (Female)</v>
       </c>
       <c r="E43" s="5" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F43" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G43" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H43" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5785,25 +5905,25 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>zgt8n5PIAAf</v>
+        <v>x4L0LuEBHhW</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (0-59)</v>
+        <v>Number of people receiving a first dose (Female 60+)</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>2nd, 3rd or booster dose - Number of people (0-59)</v>
+        <v>First dose - Number of people (Female 60+)</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>COV-2 (0-59)</v>
+        <v>COV-1 (Female 60+)</v>
       </c>
       <c r="E44" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F44" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H44" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5811,25 +5931,25 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>Zn0UuSRYyJw</v>
+        <v>xE7kgNbrb5v</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>Underlying conditions - People with</v>
+        <v>COV-C Dropout: Numerator moderna (28 days since enrollment, no final dose)</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>Underlying conditions - People with</v>
+        <v>Dropout_rate_28_days_n</v>
       </c>
       <c r="D45" s="5" t="str">
         <v/>
       </c>
       <c r="E45" s="5" t="str">
-        <v>COunt of people who have one or more underlying conditions</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F45" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G45" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H45" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5837,16 +5957,16 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>zovL7DKBRuK</v>
+        <v>XFUvVgqPukT</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 60+)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 60+)</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Received last dose (Male 60+)</v>
+        <v>Received last dose (Female 60+)</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>COV-c (Male 60+)</v>
+        <v>COV-c (Female 60+)</v>
       </c>
       <c r="E46" s="4" t="str">
         <v>Number of people who have had a last recommended dose of a vaccine product</v>
@@ -5855,7 +5975,7 @@
         <v>EVENT</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H46" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5863,25 +5983,25 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>Zp39TSOR8eW</v>
+        <v>xY4T9hHXNji</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 0-59)</v>
+        <v>Number of people receiving a second, third or booster dose (Female 0-59)</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>Received last dose (Female 0-59)</v>
+        <v>2nd, 3rd or booster dose -  (Female 0-59)</v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>COV-c (Female 0-59)</v>
+        <v>COV-2 (Female 0-59)</v>
       </c>
       <c r="E47" s="5" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F47" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G47" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H47" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5889,25 +6009,25 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>zr25iLoCE4g</v>
+        <v>z7eWopCMD1k</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a second, third or booster dose </v>
+        <v>Vaccine Uptake Moderna</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>2nd, 3rd, booster dose - Number of people</v>
+        <v xml:space="preserve">Vaccine Uptake (Moderna) </v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>COV-2</v>
+        <v/>
       </c>
       <c r="E48" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F48" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="H48" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5915,27 +6035,183 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
+        <v>zgt8n5PIAAf</v>
+      </c>
+      <c r="B49" s="5" t="str">
+        <v>Number of people receiving a second, third or booster dose (0-59)</v>
+      </c>
+      <c r="C49" s="5" t="str">
+        <v>2nd, 3rd or booster dose - Number of people (0-59)</v>
+      </c>
+      <c r="D49" s="5" t="str">
+        <v>COV-2 (0-59)</v>
+      </c>
+      <c r="E49" s="5" t="str">
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+      </c>
+      <c r="F49" s="5" t="str">
+        <v>EVENT</v>
+      </c>
+      <c r="G49" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="str">
+        <v>Zn0UuSRYyJw</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <v>Underlying conditions - People with</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <v>Underlying conditions - People with</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E50" s="4" t="str">
+        <v>COunt of people who have one or more underlying conditions</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <v>EVENT</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="H50" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="str">
+        <v>zovL7DKBRuK</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 60+)</v>
+      </c>
+      <c r="C51" s="5" t="str">
+        <v>Received last dose (Male 60+)</v>
+      </c>
+      <c r="D51" s="5" t="str">
+        <v>COV-c (Male 60+)</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+      </c>
+      <c r="F51" s="5" t="str">
+        <v>EVENT</v>
+      </c>
+      <c r="G51" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="str">
+        <v>Zp39TSOR8eW</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 0-59)</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <v>Received last dose (Female 0-59)</v>
+      </c>
+      <c r="D52" s="4" t="str">
+        <v>COV-c (Female 0-59)</v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <v>EVENT</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="H52" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="str">
+        <v>ZQUxbCYqEOn</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <v>Vaccine Uptake Gamaleya</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <v xml:space="preserve">Vaccine Uptake (Gamaleya) </v>
+      </c>
+      <c r="D53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E53" s="5" t="str">
+        <v>Number of people who have had any dose of a vaccine product</v>
+      </c>
+      <c r="F53" s="5" t="str">
+        <v>EVENT</v>
+      </c>
+      <c r="G53" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="str">
+        <v>zr25iLoCE4g</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <v xml:space="preserve">Number of people receiving a second, third or booster dose </v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <v>2nd, 3rd, booster dose - Number of people</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <v>COV-2</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+      </c>
+      <c r="F54" s="4" t="str">
+        <v>EVENT</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="H54" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="str">
         <v>ZS6qo9BSrcI</v>
       </c>
-      <c r="B49" s="5" t="str">
-        <v>COV-C Dropout: Denominator COVAX2 (21 days since enrollment)</v>
-      </c>
-      <c r="C49" s="5" t="str">
+      <c r="B55" s="5" t="str">
+        <v>COV-C Dropout: Denominator biontechpfizer (21 days since enrollment)</v>
+      </c>
+      <c r="C55" s="5" t="str">
         <v>Dropout_rate_21_days_D</v>
       </c>
-      <c r="D49" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E49" s="5" t="str">
+      <c r="D55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="5" t="str">
         <v>Crosses 21 days since enrollment date this period</v>
       </c>
-      <c r="F49" s="5" t="str">
+      <c r="F55" s="5" t="str">
         <v>ENROLLMENT</v>
       </c>
-      <c r="G49" s="5" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="H49" s="5" t="str">
+      <c r="G55" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="H55" s="5" t="str">
         <v>yDuAzyqYABS</v>
       </c>
     </row>
@@ -5945,14 +6221,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="107.7109375" customWidth="1"/>
-    <col min="3" max="3" width="90.7109375" customWidth="1"/>
+    <col min="2" max="2" width="99.7109375" customWidth="1"/>
+    <col min="3" max="3" width="106.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
@@ -5979,13 +6255,13 @@
         <v>A6Oy09dbQwn</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>if there was an allergic reaction after the first dose, fill out an AEFI stage</v>
+        <v>if there was an allergic reaction after the first dose, show warning "conduct AEFI Investigation"</v>
       </c>
       <c r="C2" s="4" t="str">
         <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6002,7 +6278,7 @@
         <v>Rule transfers date of remission and if person has previously had covid</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6019,7 +6295,7 @@
         <v>If the client is a health worker, show a warning in the top bar</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6036,7 +6312,7 @@
         <v/>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E5" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6047,13 +6323,13 @@
         <v>e0WJRMhSrZy</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>If Age is under 18, then warn that COVAX 1 is recommended for ages 18 and up</v>
+        <v>If Age is under 18, then warn that AstraZeneca is recommended for ages 18 and up</v>
       </c>
       <c r="C6" s="4" t="str">
         <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E6" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6064,13 +6340,13 @@
         <v>fJLXDY8WJIb</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Hide Manufacturers COVAX1</v>
+        <v>Assign name/Hide options to AstraZeneca/ astrazeneca</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>If COVAX1 is selected, hide manufacturers who do not produce covax1</v>
+        <v>If Astra Zeneca (astrazeneca) is selected, assign value AZD1222</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E7" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6087,7 +6363,7 @@
         <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6104,7 +6380,7 @@
         <v>Rule transfers date of remission and if person has previously had covid</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E9" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6115,13 +6391,13 @@
         <v>HDGNEGd5wnd</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Show warning: If previous dose was first, then this shoul be second</v>
+        <v>Hide first dose option if previous was first dose</v>
       </c>
       <c r="C10" s="4" t="str">
         <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E10" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6138,7 +6414,7 @@
         <v/>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E11" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6149,13 +6425,13 @@
         <v>hdPflHqZKO3</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Show warning: If previous dose was second then this should be the third dose, or a booster dose</v>
+        <v>Show warning: If first dose, then hide "last dose" DE</v>
       </c>
       <c r="C12" s="4" t="str">
         <v/>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6172,7 +6448,7 @@
         <v/>
       </c>
       <c r="D13" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E13" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6189,7 +6465,7 @@
         <v/>
       </c>
       <c r="D14" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E14" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6206,7 +6482,7 @@
         <v/>
       </c>
       <c r="D15" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E15" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6223,7 +6499,7 @@
         <v/>
       </c>
       <c r="D16" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E16" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6240,7 +6516,7 @@
         <v/>
       </c>
       <c r="D17" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E17" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6251,13 +6527,13 @@
         <v>jJGIDJ4HYvE</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Hide Manufacturers COVAX3</v>
+        <v>Assign name to Moderna/ moderna</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>If COVAX3 is selected, hide manufacturers who do not produce covax3</v>
+        <v>If moderna is selected, assign value to vaccine name "mRNA-1273"</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E18" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6274,7 +6550,7 @@
         <v/>
       </c>
       <c r="D19" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E19" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6282,16 +6558,16 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>K9Vjkz1xOw1</v>
+        <v>Jvy8jLRKux9</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>if client has a history of malignancy assign value to current event</v>
+        <v>Assign name to Gamaleya/ gamaleya</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v/>
+        <v>If Gamaleya/gamaleya is selected, assign value to vaccine name "Sputnik V"</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E20" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6299,16 +6575,16 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>KGBdMuY2ASs</v>
+        <v>K9Vjkz1xOw1</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>if client has a history of Diabetes assign value to current event</v>
+        <v>if client has a history of malignancy assign value to current event</v>
       </c>
       <c r="C21" s="5" t="str">
         <v/>
       </c>
       <c r="D21" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E21" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6316,16 +6592,16 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>l8opvp32VAd</v>
+        <v>KGBdMuY2ASs</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>if client has a history of Renal disease assign value to current event</v>
+        <v>if client has a history of Diabetes assign value to current event</v>
       </c>
       <c r="C22" s="4" t="str">
         <v/>
       </c>
       <c r="D22" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E22" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6333,16 +6609,16 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>LO6XtDyCbya</v>
+        <v>l8opvp32VAd</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Show warning if person has had covid within 90 days of vaccination date</v>
+        <v>if client has a history of Renal disease assign value to current event</v>
       </c>
       <c r="C23" s="5" t="str">
         <v/>
       </c>
       <c r="D23" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E23" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6350,16 +6626,16 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>nU9WWRKt7PL</v>
+        <v>LO6XtDyCbya</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Show vaccine type from previous vaccination event</v>
+        <v>Show warning if person has had covid within 90 days of vaccination date</v>
       </c>
       <c r="C24" s="4" t="str">
         <v/>
       </c>
       <c r="D24" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E24" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6367,16 +6643,16 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>O2NnmPrpL7s</v>
+        <v>nU9WWRKt7PL</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>Assign dose number to COVAX2</v>
+        <v>Show vaccine type from previous vaccination event</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>If COVAX2 is selected, assign 2 as max doses and hide options for 3 doses</v>
+        <v/>
       </c>
       <c r="D25" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E25" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6384,16 +6660,16 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>oCzO3wOH9Wa</v>
+        <v>O2NnmPrpL7s</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Hide Manufacturers COVAX2</v>
+        <v>Assign dose number to biontechpfizer</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>If COVAX1 is selected, hide manufacturers who do not produce covax2</v>
+        <v>If biontechpfizer is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E26" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6401,16 +6677,16 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>OdSVYvgu6G2</v>
+        <v>oCzO3wOH9Wa</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>if client has a history of neurological deficiency assign value to current event</v>
+        <v>Assign name to BiONtech/Pfizer/biontechpfizer</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v/>
+        <v>If BioNTech/Pfizer is selected, assign value Comirnaty,Tozinameran to vaccine name</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E27" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6418,16 +6694,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>oPUB5us9T8e</v>
+        <v>OdSVYvgu6G2</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v xml:space="preserve">Calculate age </v>
+        <v>if client has a history of neurological deficiency assign value to current event</v>
       </c>
       <c r="C28" s="4" t="str">
         <v/>
       </c>
       <c r="D28" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E28" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6435,16 +6711,16 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>ParDbFN1amU</v>
+        <v>oPUB5us9T8e</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>If client has a history of OTHER disease show it on indicator panel</v>
+        <v xml:space="preserve">Calculate age </v>
       </c>
       <c r="C29" s="5" t="str">
         <v/>
       </c>
       <c r="D29" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E29" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6452,16 +6728,16 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>pN5K5h6wSo4</v>
+        <v>ParDbFN1amU</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Assign dose number to COVAX3</v>
+        <v>If client has a history of OTHER disease show it on indicator panel</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>If COVAX3 is selected, assign 2 as max doses and hide options for 3 doses</v>
+        <v/>
       </c>
       <c r="D30" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E30" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6469,16 +6745,16 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>ppbeGorruVj</v>
+        <v>PJjKiFrvfuN</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>If Age is under 18, then warn that COVAX 3 is recommended for ages 18 and up</v>
+        <v>If this is the second dose, mark it as "last dose" for all vaccine products</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v/>
+        <v>It selects the "last dose" option, it assumes that all products have two doses as the complete schedule.</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E31" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6486,16 +6762,16 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>QEq5oRr4UEw</v>
+        <v>pN5K5h6wSo4</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>if client has a history of Other assign value to current event</v>
+        <v>Assign dose number to moderna</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v/>
+        <v>If moderna is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E32" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6503,16 +6779,16 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>qLCtAeQQOP3</v>
+        <v>ppbeGorruVj</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v xml:space="preserve">Show warning: If previous dose was second and the vaccine was COVAX 1 then there should be no more doses </v>
+        <v>If Age is under 18, then warn that Moderna is recommended for ages 18 and up</v>
       </c>
       <c r="C33" s="5" t="str">
         <v/>
       </c>
       <c r="D33" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E33" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6520,16 +6796,16 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>qrIXRSq77JN</v>
+        <v>QEq5oRr4UEw</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>If client has a history of Renal Disease show it on indicator panel</v>
+        <v>if client has a history of Other assign value to current event</v>
       </c>
       <c r="C34" s="4" t="str">
         <v/>
       </c>
       <c r="D34" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E34" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6537,16 +6813,16 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>QWOOvnYfKbN</v>
+        <v>qrIXRSq77JN</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>Assign a suggested date for next dose COVAX 1</v>
+        <v>If client has a history of Renal Disease show it on indicator panel</v>
       </c>
       <c r="C35" s="5" t="str">
         <v/>
       </c>
       <c r="D35" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E35" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6554,16 +6830,16 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>r9NQ2R4eFIO</v>
+        <v>QWOOvnYfKbN</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>If client has a history of Diabetes show it on indicator panel</v>
+        <v>Assign a suggested date for next dose astrazeneca</v>
       </c>
       <c r="C36" s="4" t="str">
         <v/>
       </c>
       <c r="D36" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E36" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6571,16 +6847,16 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>Rhh99IrHe3P</v>
+        <v>r9NQ2R4eFIO</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>Assign a suggested date for next dose COVAX 3</v>
+        <v>If client has a history of Diabetes show it on indicator panel</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Assigns a next suggested dose date 28 days after this dose, based on CDC recommendations</v>
+        <v/>
       </c>
       <c r="D37" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E37" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6588,16 +6864,16 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>SDfSLD0WFOL</v>
+        <v>Rhh99IrHe3P</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>if client has a history of malignancy show it on indicator panel</v>
+        <v>Assign a suggested date for next dose moderna</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v/>
+        <v>Assigns a next suggested dose date 28 days after this dose, based on CDC recommendations</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E38" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6605,16 +6881,16 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>SkBUqyO9zG0</v>
+        <v>rIOcajqykjp</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>Last dose - complete programme</v>
+        <v>Assign a suggested date for next dose gamaleya</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v/>
+        <v>Assigns a next suggested dose date 21 days after this dose (guideline says 21-28 days)</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E39" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6622,16 +6898,16 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>srC0NIzM3Ou</v>
+        <v>SDfSLD0WFOL</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>Hide pregnancy if not a woman</v>
+        <v>if client has a history of malignancy show it on indicator panel</v>
       </c>
       <c r="C40" s="4" t="str">
         <v/>
       </c>
       <c r="D40" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E40" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6639,16 +6915,16 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>TRR2ODBsnkN</v>
+        <v>SkBUqyO9zG0</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>If Age is under 16, then warn that COVAX 2 is recommended for ages 16 and up</v>
+        <v>Last dose - complete programme</v>
       </c>
       <c r="C41" s="5" t="str">
         <v/>
       </c>
       <c r="D41" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E41" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6656,16 +6932,16 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>ucrvgwsRCim</v>
+        <v>srC0NIzM3Ou</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>If client has a history of immunodeficiency show it on indicator panel</v>
+        <v>Hide pregnancy if not a woman</v>
       </c>
       <c r="C42" s="4" t="str">
         <v/>
       </c>
       <c r="D42" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E42" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6673,16 +6949,16 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>vd1vZsjDft4</v>
+        <v>TRR2ODBsnkN</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
+        <v>If Age is under 16, then warn that BioNTech/Pfizer is recommended for ages 16 and up</v>
       </c>
       <c r="C43" s="5" t="str">
         <v/>
       </c>
       <c r="D43" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E43" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6690,16 +6966,16 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>vqQMyfw3i3u</v>
+        <v>ucrvgwsRCim</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>If client has a history of Neurological disease show it on indicator panel</v>
+        <v>If client has a history of immunodeficiency show it on indicator panel</v>
       </c>
       <c r="C44" s="4" t="str">
         <v/>
       </c>
       <c r="D44" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E44" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6707,16 +6983,16 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>W0YQaz1qRJb</v>
+        <v>vd1vZsjDft4</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>Send notification if overdue</v>
+        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
       </c>
       <c r="C45" s="5" t="str">
         <v/>
       </c>
       <c r="D45" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E45" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6724,16 +7000,16 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>X7tSyOIdusk</v>
+        <v>VJTg5eGf3Je</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Assign dose number to COVAX1</v>
+        <v>Assign a suggested date for next dose sinopharm</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>If COVAX1 is selected, assign 2 as max doses and hide options for 3 doses</v>
+        <v>Assigns a next suggested dose date 21 days after this dose</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E46" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6741,16 +7017,16 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>XTLv9YqOtNX</v>
+        <v>vqQMyfw3i3u</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>If previous vaccine is differente than current vaccine, show warning.</v>
+        <v>If client has a history of Neurological disease show it on indicator panel</v>
       </c>
       <c r="C47" s="5" t="str">
         <v/>
       </c>
       <c r="D47" s="5" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E47" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6758,16 +7034,16 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>zLLHG561wsq</v>
+        <v>VTIzJo0OQ7I</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>Hide anaphylaxis DE if first dose</v>
+        <v>Assign dose number to gamaleya</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>Hides a DE where one is asked about allergic reactions to previopus dose</v>
+        <v>If moderna is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-02-23</v>
       </c>
       <c r="E48" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6775,18 +7051,154 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
+        <v>W0YQaz1qRJb</v>
+      </c>
+      <c r="B49" s="5" t="str">
+        <v>Send notification if overdue</v>
+      </c>
+      <c r="C49" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D49" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="E49" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="str">
+        <v>Wcnh9W2Pfz5</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <v>Assign dose number to sinopharm</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <v>If sinopharm is selected, assign 2 as max doses and hide options for 3 doses</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="str">
+        <v>X7tSyOIdusk</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <v>Assign dose number to astrazeneca</v>
+      </c>
+      <c r="C51" s="5" t="str">
+        <v>If astrazeneca is selected, assign 2 as max doses and hide options for 3 doses</v>
+      </c>
+      <c r="D51" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="str">
+        <v>xeInMQrA5Mo</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <v>If Age is under 18, then warn that Sinopharm is recommended for ages 18 and up</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D52" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="str">
+        <v>XTLv9YqOtNX</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <v>If previous vaccine is differente than current vaccine, show warning.</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D53" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="E53" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="str">
+        <v>xydE4Vcj6xU</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <v>If Age is under 18, then warn that Gamaleya is recommended for ages 18 and up</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D54" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="str">
+        <v>zgex5murOHT</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <v>Assign name to Sinopharm/ sinopharm</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <v>If Sinopharm/gamaleya is selected, assign value to vaccine name "Sputnik V"</v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="E55" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="str">
+        <v>zLLHG561wsq</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <v>Hide anaphylaxis DE if first dose</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <v>Hides a DE where one is asked about allergic reactions to previopus dose</v>
+      </c>
+      <c r="D56" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="E56" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="str">
         <v>ZT3tLrXXadf</v>
       </c>
-      <c r="B49" s="5" t="str">
-        <v>Assign a suggested date for next dose COVAX 2</v>
-      </c>
-      <c r="C49" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D49" s="5" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="E49" s="5" t="str">
+      <c r="B57" s="5" t="str">
+        <v>Assign a suggested date for next dose biontechpfizer</v>
+      </c>
+      <c r="C57" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D57" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="E57" s="5" t="str">
         <v>yDuAzyqYABS</v>
       </c>
     </row>

--- a/metadata/COVAX/COVAX_TRACKER_V1_DHIS2.34/reference.xlsx
+++ b/metadata/COVAX/COVAX_TRACKER_V1_DHIS2.34/reference.xlsx
@@ -28,12 +28,11 @@
     <sheet name="dashboardItems" sheetId="23" r:id="rId23"/>
     <sheet name="visualizations" sheetId="24" r:id="rId24"/>
     <sheet name="maps" sheetId="25" r:id="rId25"/>
-    <sheet name="eventReports" sheetId="26" r:id="rId26"/>
-    <sheet name="eventCharts" sheetId="27" r:id="rId27"/>
-    <sheet name="trackedEntityInstanceFilters" sheetId="28" r:id="rId28"/>
-    <sheet name="programNotificationTemplates" sheetId="29" r:id="rId29"/>
-    <sheet name="userGroups" sheetId="30" r:id="rId30"/>
-    <sheet name="users" sheetId="31" r:id="rId31"/>
+    <sheet name="eventCharts" sheetId="26" r:id="rId26"/>
+    <sheet name="trackedEntityInstanceFilters" sheetId="27" r:id="rId27"/>
+    <sheet name="programNotificationTemplates" sheetId="28" r:id="rId28"/>
+    <sheet name="userGroups" sheetId="29" r:id="rId29"/>
+    <sheet name="users" sheetId="30" r:id="rId30"/>
   </sheets>
 </workbook>
 </file>
@@ -449,7 +448,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -465,7 +464,7 @@
         <v>Code</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX</v>
+        <v>COVAC</v>
       </c>
     </row>
     <row r="3">
@@ -481,7 +480,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V1.0.0</v>
+        <v>V1.1.0</v>
       </c>
     </row>
     <row r="5">
@@ -489,7 +488,7 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>DHIS2.34</v>
+        <v>DHIS2.34.3-80c86cc</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +496,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-02-24T13:42</v>
+        <v>20210303T014351</v>
       </c>
     </row>
     <row r="7">
@@ -505,7 +504,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX_TRACKER_V1.0.0_DHIS2.34_2021-02-24T13:42</v>
+        <v>COVAC_TRACKER_V1.1.0_DHIS2.34.3-80c86cc_20210303T014351</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +553,7 @@
         <v>Ewi7FUfcHAD</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -571,7 +570,7 @@
         <v>KSr2yTdu1AI</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -588,7 +587,7 @@
         <v>TfdH5KvFmMy</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -605,7 +604,7 @@
         <v>aW66s2QSosT</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E5" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -616,13 +615,13 @@
         <v>kbwzu78u3JT</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Sex</v>
+        <v>COVAC - Sex</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>CklPZdOd6H1</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -639,7 +638,7 @@
         <v>Z1rLc1rVHK8</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -656,7 +655,7 @@
         <v>mAWcalQYYyk</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -673,7 +672,7 @@
         <v>ciCR6BBvIT4</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -690,7 +689,7 @@
         <v>VCtm2pySeEV</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E10" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -707,7 +706,7 @@
         <v>YCqoNJZKvAG</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E11" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -724,7 +723,7 @@
         <v>LY2bDXpNvS7</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -736,13 +735,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="390.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
@@ -775,128 +774,128 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAC - Vaccine Name</v>
+        <v>COVAC - AEFIs present</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAC - Vaccine Name</v>
+        <v>COVAC - AEFIs present</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>COVAC_vaccine_name</v>
+        <v>AEFIs_present</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>Name of vaccine product</v>
+        <v>Are there any adverse events present after receiving the immunization?</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G2" s="4" t="str">
-        <v>bbnyNYD1wgS</v>
+        <v>m9PgIDAJGlF</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAC - Underlying condition</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAC - Underlying condition</v>
+        <v>COVAC allergic reaction</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Comcondition_present</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v/>
+        <v>If you have had a severe allergic reaction (anaphylaxis) or an immediate allergic reaction—even if it was not severe—after getting the first dose of the vaccine, you should not get another dose of an mRNA COVID-19 vaccine. An immediate allergic reaction means a reaction within 4 hours of getting vaccinated, including symptoms such as hives, swelling, or wheezing (respiratory distress).</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G3" s="5" t="str">
-        <v>bCtWZGjSWM8</v>
+        <v>dWoveSw6b79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAC - Pregnancy</v>
+        <v>COVAC- Batch Number</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAC - Pregnancy</v>
+        <v>COVAC - Batch Number</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Comcond_pregnant</v>
+        <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>Is the patient pregnant or lactating?</v>
+        <v>Batch number for this vaccine dose</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G4" s="4" t="str">
-        <v>BfNZcj99yz4</v>
+        <v>Yp1F4txx8tm</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAC - Chronic Lung Disease</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAC_Chronic Lung Disease</v>
+        <v>COVAC Cardiovascular Disease</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Covac_Comcond_lung</v>
+        <v>Covac_Comcond_cardi</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>Chronic Lung Disease</v>
+        <v>Cardiovascular disease, including hypertension</v>
       </c>
       <c r="E5" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G5" s="5" t="str">
-        <v>C0Bony47eKp</v>
+        <v>LNHAYF3qdZl</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAC - Pregnancy gestation</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAC - Pregnancy gestation</v>
+        <v>COVAC_Chronic Lung Disease</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>covac_pregnancy_gestation</v>
+        <v>Covac_Comcond_lung</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Pregnancy gestation (weeks)</v>
+        <v>Chronic Lung Disease</v>
       </c>
       <c r="E6" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G6" s="4" t="str">
-        <v>CBAs12YL4g7</v>
+        <v>C0Bony47eKp</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAC - Underlying condition Other</v>
+        <v>COVAC - Diabetes</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC - Underlying condition Other</v>
+        <v>COVAC Diabetes</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>covac_Comcond_other</v>
+        <v>Covac_Comcond_diabetes</v>
       </c>
       <c r="D7" s="5" t="str">
         <v/>
@@ -905,67 +904,67 @@
         <v>default</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G7" s="5" t="str">
-        <v>dpyQUtizp7s</v>
+        <v>TT1h0vGu5da</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAC - Last Dose</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAC - Last Dose</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v/>
+        <v>dose_expiry_date</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>This is the last dose in the course</v>
+        <v>Date dose of expiration</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G8" s="4" t="str">
-        <v>DSOWCIdQ8Tr</v>
+        <v>YTQulAldGOs</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAC - Allergic reaction after first dose</v>
+        <v>COVAC - Dose Number</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAC allergic reaction</v>
+        <v>COVAC - Dose Number</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v/>
+        <v>dose_number</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>If you have had a severe allergic reaction (anaphylaxis) or an immediate allergic reaction—even if it was not severe—after getting the first dose of the vaccine, you should not get another dose of an mRNA COVID-19 vaccine. An immediate allergic reaction means a reaction within 4 hours of getting vaccinated, including symptoms such as hives, swelling, or wheezing (respiratory distress).</v>
+        <v>Defines if this is the first vs the second dose, for example</v>
       </c>
       <c r="E9" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G9" s="5" t="str">
-        <v>dWoveSw6b79</v>
+        <v>LUIsbsm3okG</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAC Suggested date for next dose</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Next dose date</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v/>
+        <v>Covac_Comcond_immuno</v>
       </c>
       <c r="D10" s="4" t="str">
         <v/>
@@ -974,182 +973,182 @@
         <v>default</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G10" s="4" t="str">
-        <v>FFWcps4MfuH</v>
+        <v>MuZ9dMVXpuM</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAC - Renal Disease</v>
+        <v>COVAC - Last Dose</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAC - Renal Disease</v>
+        <v>COVAC - Last Dose</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Covac_Comcond_renal</v>
+        <v/>
       </c>
       <c r="D11" s="5" t="str">
-        <v/>
+        <v>This is the last dose in the course</v>
       </c>
       <c r="E11" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G11" s="5" t="str">
-        <v>gW4pd818Sw8</v>
+        <v>DSOWCIdQ8Tr</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>AEFI_Serious adverse event following immunization</v>
+        <v>COVAC - Malignancy</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Serious adverse event following immunization</v>
+        <v>COVAC - Malignancy</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v/>
+        <v>Covac_Comcond_malig</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v/>
+        <v>COVAC - Malignancy</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G12" s="4" t="str">
-        <v>kQCVFWE2MPb</v>
+        <v>xVxLMku5DMX</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>COVAC - Cardiovascular Disease</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAC Cardiovascular Disease</v>
+        <v>Multiple products explanation</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>Covac_Comcond_cardi</v>
+        <v/>
       </c>
       <c r="D13" s="5" t="str">
-        <v>Cardiovascular disease, including hypertension</v>
+        <v/>
       </c>
       <c r="E13" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G13" s="5" t="str">
-        <v>LNHAYF3qdZl</v>
+        <v>OAxinuYFDG6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>COVAC Previously infected with COVID</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Previously infected with COVID</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v/>
+        <v>COVAC_Comcond_neuro</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>Has the patient been infected with COVID-19 within the last 90 days?</v>
+        <v>Chronic neurological or neuromuscular disease</v>
       </c>
       <c r="E14" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G14" s="4" t="str">
-        <v>LOU9t0aR0z7</v>
+        <v>VCetMtYu1DY</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>COVAC - Dose Number</v>
+        <v>COVAC - Pregnancy</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAC - Dose Number</v>
+        <v>COVAC - Pregnancy</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>dose_number</v>
+        <v>Comcond_pregnant</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>Defines if this is the first vs the second dose, for example</v>
+        <v>Is the patient pregnant or lactating?</v>
       </c>
       <c r="E15" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G15" s="5" t="str">
-        <v>LUIsbsm3okG</v>
+        <v>BfNZcj99yz4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>COVAC - AEFIs present</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAC - AEFIs present</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>AEFIs_present</v>
+        <v>covac_pregnancy_gestation</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>Are there any adverse events present after receiving the immunization?</v>
+        <v>Pregnancy gestation (weeks)</v>
       </c>
       <c r="E16" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G16" s="4" t="str">
-        <v>m9PgIDAJGlF</v>
+        <v>CBAs12YL4g7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>COVAC - Immunodeficiency</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAC - Immunodeficiency</v>
+        <v>Previously infected with COVID</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>Covac_Comcond_immuno</v>
+        <v/>
       </c>
       <c r="D17" s="5" t="str">
-        <v/>
+        <v>Has the patient been infected with COVID-19 within the last 90 days?</v>
       </c>
       <c r="E17" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G17" s="5" t="str">
-        <v>MuZ9dMVXpuM</v>
+        <v>LOU9t0aR0z7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>COVAC - Multiple products used - Explain</v>
+        <v>COVAC - Renal Disease</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Multiple products explanation</v>
+        <v>COVAC - Renal Disease</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v/>
+        <v>Covac_Comcond_renal</v>
       </c>
       <c r="D18" s="4" t="str">
         <v/>
@@ -1158,90 +1157,90 @@
         <v>default</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G18" s="4" t="str">
-        <v>OAxinuYFDG6</v>
+        <v>gW4pd818Sw8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>COVAC - Eligibility</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAC - Eligibility</v>
+        <v>Next dose date</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>eligible</v>
+        <v/>
       </c>
       <c r="D19" s="5" t="str">
-        <v>Whether the client is eligible for the vaccine</v>
+        <v/>
       </c>
       <c r="E19" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G19" s="5" t="str">
-        <v>OXBnk0mWcOw</v>
+        <v>FFWcps4MfuH</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>COVAC - Date of remission</v>
+        <v>COVAC - Total doses</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Date of remission COVID</v>
+        <v>COVAC Total doses</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v/>
+        <v>totalDoses</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v/>
+        <v xml:space="preserve">Total doses required for this vaccine product </v>
       </c>
       <c r="E20" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G20" s="4" t="str">
-        <v>oZiX5uHkacg</v>
+        <v>PamkjF1JUnE</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>COVAC - Total doses</v>
+        <v>COVAC - Underlying condition</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAC Total doses</v>
+        <v>COVAC - Underlying condition</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>totalDoses</v>
+        <v>Comcondition_present</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v xml:space="preserve">Total doses required for this vaccine product </v>
+        <v/>
       </c>
       <c r="E21" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G21" s="5" t="str">
-        <v>PamkjF1JUnE</v>
+        <v>bCtWZGjSWM8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>COVAC_vaccine_manufacturer</v>
+        <v>covac_Comcond_other</v>
       </c>
       <c r="D22" s="4" t="str">
         <v/>
@@ -1250,21 +1249,21 @@
         <v>default</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G22" s="4" t="str">
-        <v>rpkH9ZPGJcX</v>
+        <v>dpyQUtizp7s</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>COVAC - Diabetes</v>
+        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>COVAC Diabetes</v>
+        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>Covac_Comcond_diabetes</v>
+        <v>COVAC_vaccine_manufacturer</v>
       </c>
       <c r="D23" s="5" t="str">
         <v/>
@@ -1273,125 +1272,33 @@
         <v>default</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G23" s="5" t="str">
-        <v>TT1h0vGu5da</v>
+        <v>rpkH9ZPGJcX</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>AEFI_Nonserious adverse event following immunization</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Non-serious adverse event following immunization</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v/>
+        <v>COVAC_vaccine_name</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v/>
+        <v>Name of vaccine product</v>
       </c>
       <c r="E24" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="G24" s="4" t="str">
-        <v>V5CfmqTsKrv</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="str">
-        <v>COVAC - Neurological/Neuromuscular</v>
-      </c>
-      <c r="B25" s="5" t="str">
-        <v>COVAC - Neurological/Neuromuscular</v>
-      </c>
-      <c r="C25" s="5" t="str">
-        <v>COVAC_Comcond_neuro</v>
-      </c>
-      <c r="D25" s="5" t="str">
-        <v>Chronic neurological or neuromuscular disease</v>
-      </c>
-      <c r="E25" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F25" s="5" t="str">
-        <v>2021-02-23</v>
-      </c>
-      <c r="G25" s="5" t="str">
-        <v>VCetMtYu1DY</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="str">
-        <v>COVAC - Malignancy</v>
-      </c>
-      <c r="B26" s="4" t="str">
-        <v>COVAC - Malignancy</v>
-      </c>
-      <c r="C26" s="4" t="str">
-        <v>Covac_Comcond_malig</v>
-      </c>
-      <c r="D26" s="4" t="str">
-        <v>COVAC - Malignancy</v>
-      </c>
-      <c r="E26" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F26" s="4" t="str">
-        <v>2021-02-23</v>
-      </c>
-      <c r="G26" s="4" t="str">
-        <v>xVxLMku5DMX</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="str">
-        <v>COVAC- Batch Number</v>
-      </c>
-      <c r="B27" s="5" t="str">
-        <v>COVAC - Batch Number</v>
-      </c>
-      <c r="C27" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D27" s="5" t="str">
-        <v>Batch number for this vaccine dose</v>
-      </c>
-      <c r="E27" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F27" s="5" t="str">
-        <v>2021-02-23</v>
-      </c>
-      <c r="G27" s="5" t="str">
-        <v>Yp1F4txx8tm</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="str">
-        <v>COVAC - Dose Expiry Date</v>
-      </c>
-      <c r="B28" s="4" t="str">
-        <v>COVAC - Dose Expiry Date</v>
-      </c>
-      <c r="C28" s="4" t="str">
-        <v>dose_expiry_date</v>
-      </c>
-      <c r="D28" s="4" t="str">
-        <v>Date dose of expiration</v>
-      </c>
-      <c r="E28" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F28" s="4" t="str">
-        <v>2021-02-23</v>
-      </c>
-      <c r="G28" s="4" t="str">
-        <v>YTQulAldGOs</v>
+        <v>bbnyNYD1wgS</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1307,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1419,55 +1326,55 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAC - Vaccine Name</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAC - Underlying condition</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAC - Pregnancy</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAC - Chronic Lung Disease</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAC - Pregnancy gestation</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC - Underlying condition Other</v>
+        <v>COVAC - Underlying condition</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B8" s="4" t="str">
         <v>COVAC - Last Dose</v>
@@ -1475,114 +1382,130 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAC Suggested date for next dose</v>
+        <v>COVAC- Batch Number</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAC - Renal Disease</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAC - Cardiovascular Disease</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAC Previously infected with COVID</v>
+        <v>COVAC - Pregnancy</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAC - Dose Number</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAC - Immunodeficiency</v>
+        <v>COVAC - Diabetes</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAC - Multiple products used - Explain</v>
+        <v>COVAC - Total doses</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAC - Eligibility</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAC - Date of remission</v>
+        <v>COVAC - AEFIs present</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAC - Diabetes</v>
+        <v>COVAC - Malignancy</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAC - Neurological/Neuromuscular</v>
+        <v>COVAC - Dose Number</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAC - Malignancy</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAC- Batch Number</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAC - Dose Expiry Date</v>
+        <v>COVAC Suggested date for next dose</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="str">
+        <v>COVAC - Covid-19 vaccination registry</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <v>COVAC Previously infected with COVID</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="str">
+        <v>COVAC - Covid-19 vaccination registry</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
       </c>
     </row>
   </sheetData>
@@ -1621,7 +1544,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-19</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>bjDvmb4bfuf</v>
@@ -1666,7 +1589,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-24</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>GLevLNI9wkl</v>
@@ -1707,7 +1630,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-19</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>xYerKDKCefk</v>
@@ -1745,7 +1668,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-19</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>HllvX50cXC0</v>
@@ -1784,128 +1707,128 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Yes/No/Unknown</v>
+        <v>Area Urban Rural</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>VWzgQENmzPK</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>Yes; No; Unknown</v>
+        <v>Urban; Rural</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Occupation - COVID</v>
+        <v>COVAC AEFI Pregnancy</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>ilxtWultuYP</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Healthcare worker; Law enforcement/ Firefighter; Banker; Driver / housekeeping staff; Teacher; Hotelier / airline personel; Retail (essential); Retail (non essential); Social worker/ volunteer; Retired; Student; Unemployed; Other</v>
+        <v>Pregnant; Lactating; No</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAC Vaccine Manufacturers</v>
+        <v>COVAC Dose</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>oj3CWm4hpPb</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>Moderna; AstraZeneca; BioNTech/Pfizer; Gamaleya; Sinopharm / BIBP; SK Bio AstraZeneca</v>
+        <v>1st dose; 2nd dose; 3rd dose; Booster dose</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Sex</v>
+        <v>COVAC trimester</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>kgDmgTYZICP</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>Female; Male</v>
+        <v>1st Trimester (1-12 weeks); 2nd Trimester (13-28 weeks); 3rd Trimester (20-40 weeks)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAC AEFI Pregnancy</v>
+        <v>COVAC Vaccine Manufacturers</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <v>ilxtWultuYP</v>
+        <v>DtOGtoLbaB5</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Pregnant; Lactating; No</v>
+        <v>Moderna; AstraZeneca; BioNTech/Pfizer; Gamaleya; Sinopharm / BIBP; SK Bio AstraZeneca</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAC trimester</v>
+        <v>COVAC Vaccine Names</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>VQo3HkUlMHc</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>1st Trimester (1-12 weeks); 2nd Trimester (13-28 weeks); 3rd Trimester (20-40 weeks)</v>
+        <v>AZD1222 / AstraZeneca; BNT162b2 / COMIRNATY Tozinameran (INN) / BioNTech/Pfizer; mRNA-1273 / Moderna; Sputnik V / Gamaleya; SARS-CoV-2 Vaccine (VeroCell), Inactivated / Sinopharm</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAC Dose</v>
+        <v>Occupation - COVID</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="C8" s="4" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>CNNH0YKxRh9</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>1st dose; 2nd dose; 3rd dose; Booster dose</v>
+        <v>Healthcare worker; Law enforcement/ Firefighter; Banker; Driver / housekeeping staff; Teacher; Hotelier / airline personel; Retail (essential); Retail (non essential); Social worker/ volunteer; Retired; Student; Unemployed; Other</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAC Vaccine Names</v>
+        <v>COVAC - Sex</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>hiQ3QFheQ3O</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>AZD1222 / AstraZeneca; BNT162b2 / COMIRNATY Tozinameran (INN) / BioNTech/Pfizer; mRNA-1273 / Moderna; Sputnik V / Gamaleya; SARS-CoV-2 Vaccine (VeroCell), Inactivated / Sinopharm</v>
+        <v>Female; Male</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>Area Urban Rural</v>
+        <v>COVAC - Yes/No/Unknown</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v>VWzgQENmzPK</v>
+        <v>bLA3AqDKdwx</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>Urban; Rural</v>
+        <v>Yes; No; Unknown</v>
       </c>
     </row>
   </sheetData>
@@ -1945,152 +1868,152 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>ahtoNsMUVFa</v>
+        <v>G08Evdkx5dY</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>Teacher</v>
+        <v>1st dose</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>teacher</v>
+        <v>DOSE1</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E2" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>AZK4rjJCss5</v>
+        <v>zDqDiyA8ySB</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>Female</v>
+        <v>1st Trimester (1-12 weeks)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Female</v>
+        <v>1trimester</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>kgDmgTYZICP</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>B26BIJSeQy0</v>
+        <v>DYJrGkIG11J</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>BNT162b2 / COMIRNATY Tozinameran (INN) / BioNTech/Pfizer</v>
+        <v>2nd dose</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>biontechpfizer</v>
+        <v>DOSE2</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>bVYOqnn9R2r</v>
+        <v>wEsSrYnDsRk</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>Hotelier / airline personel</v>
+        <v>2nd Trimester (13-28 weeks)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>hotelier_airline_personel</v>
+        <v>2trimester</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>kgDmgTYZICP</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>CkibqhWdy3q</v>
+        <v>xl5HHvHV2XH</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Sinopharm / BIBP</v>
+        <v>3rd dose</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>sinopharm</v>
+        <v>DOSE3</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>clKOrDK3Gw0</v>
+        <v>Q3obJT1MXov</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>SARS-CoV-2 Vaccine (VeroCell), Inactivated / Sinopharm</v>
+        <v>3rd Trimester (20-40 weeks)</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>sinopharm</v>
+        <v>3trimester</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>kgDmgTYZICP</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>CvivP1rh4ii</v>
+        <v>gKvIUJwVIHi</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Yes</v>
+        <v>AstraZeneca</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Yes</v>
+        <v>astrazeneca</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>DYJrGkIG11J</v>
+        <v>wCXR8ztOP2N</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>2nd dose</v>
+        <v>AZD1222 / AstraZeneca</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>DOSE2</v>
+        <v>astrazeneca</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>EErrO8Fyu43</v>
+        <v>UvR0km5ntbi</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Law enforcement/ Firefighter</v>
+        <v>Banker</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>law_enforcement_firefighter</v>
+        <v>banker</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E10" s="4" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2107,7 +2030,7 @@
         <v>biontechpfizer</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E11" s="5" t="str">
         <v>DtOGtoLbaB5</v>
@@ -2115,33 +2038,33 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>fWAvnP7mf98</v>
+        <v>B26BIJSeQy0</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Unemployed</v>
+        <v>BNT162b2 / COMIRNATY Tozinameran (INN) / BioNTech/Pfizer</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>unemployed</v>
+        <v>biontechpfizer</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>G08Evdkx5dY</v>
+        <v>PoeQ0Zb1avN</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>1st dose</v>
+        <v>Booster dose</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>DOSE1</v>
+        <v>BOOSTER</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E13" s="5" t="str">
         <v>oj3CWm4hpPb</v>
@@ -2149,67 +2072,67 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>gKvIUJwVIHi</v>
+        <v>Gx9kgkrZj9y</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>AstraZeneca</v>
+        <v>Driver / housekeeping staff</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>astrazeneca</v>
+        <v>driver_housekeeping_staff</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E14" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>GUiVk7RiR3p</v>
+        <v>AZK4rjJCss5</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Student</v>
+        <v>Female</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>student</v>
+        <v>FEMALE</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E15" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>hiQ3QFheQ3O</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>gVqGaROtask</v>
+        <v>n1p4obma3dp</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>No</v>
+        <v>Gamaleya</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>not_pregnant</v>
+        <v>gamaleya</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E16" s="4" t="str">
-        <v>ilxtWultuYP</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>Gx9kgkrZj9y</v>
+        <v>HGNGJ3lHrFG</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Driver / housekeeping staff</v>
+        <v>Healthcare worker</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>driver_housekeeping_staff</v>
+        <v>healthcare_worker</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E17" s="5" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2217,16 +2140,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>HGNGJ3lHrFG</v>
+        <v>bVYOqnn9R2r</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Healthcare worker</v>
+        <v>Hotelier / airline personel</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>healthcare_worker</v>
+        <v>hotelier_airline_personel</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E18" s="4" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2234,53 +2157,53 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>HxFNfoxk7ac</v>
+        <v>xmyy2NiyJaI</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Rural</v>
+        <v>Lactating</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>RURAL</v>
+        <v>COVACLactating</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E19" s="5" t="str">
-        <v>VWzgQENmzPK</v>
+        <v>ilxtWultuYP</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>IHYwYAtvjCY</v>
+        <v>EErrO8Fyu43</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Urban</v>
+        <v>Law enforcement/ Firefighter</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>URBAN</v>
+        <v>law_enforcement_firefighter</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E20" s="4" t="str">
-        <v>VWzgQENmzPK</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>jbAJfe9Nqtk</v>
+        <v>UrUdMteQzlT</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Other</v>
+        <v>Male</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>other</v>
+        <v>MALE</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E21" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>hiQ3QFheQ3O</v>
       </c>
     </row>
     <row r="22">
@@ -2294,7 +2217,7 @@
         <v>moderna</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E22" s="4" t="str">
         <v>DtOGtoLbaB5</v>
@@ -2302,19 +2225,19 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>n1p4obma3dp</v>
+        <v>yeTPD0qoaz7</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Gamaleya</v>
+        <v>mRNA-1273 / Moderna</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>gamaleya</v>
+        <v>moderna</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E23" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="24">
@@ -2325,10 +2248,10 @@
         <v>No</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>No</v>
+        <v>NO</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E24" s="4" t="str">
         <v>bLA3AqDKdwx</v>
@@ -2336,36 +2259,36 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>PoeQ0Zb1avN</v>
+        <v>gVqGaROtask</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>Booster dose</v>
+        <v>No</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>BOOSTER</v>
+        <v>not_pregnant</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E25" s="5" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>ilxtWultuYP</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>Q3obJT1MXov</v>
+        <v>jbAJfe9Nqtk</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>3rd Trimester (20-40 weeks)</v>
+        <v>Other</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>3trimester</v>
+        <v>other</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E26" s="4" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="27">
@@ -2379,7 +2302,7 @@
         <v>COVACPregnant</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E27" s="5" t="str">
         <v>ilxtWultuYP</v>
@@ -2387,16 +2310,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>SD1oprpITgl</v>
+        <v>zIN2FnIIZC2</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>Social worker/ volunteer</v>
+        <v>Retail (essential)</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>social_worker_volunteer</v>
+        <v>retail_essentials</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E28" s="4" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2413,7 +2336,7 @@
         <v>retail_non_essential</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E29" s="5" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2430,7 +2353,7 @@
         <v>retired</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E30" s="4" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2438,33 +2361,33 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>TKD1XJ4ZhMO</v>
+        <v>HxFNfoxk7ac</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>Unknown</v>
+        <v>Rural</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>Unknown</v>
+        <v>RURAL</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E31" s="5" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>VWzgQENmzPK</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>TVWwdI7Mlrh</v>
+        <v>clKOrDK3Gw0</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>Sputnik V / Gamaleya</v>
+        <v>SARS-CoV-2 Vaccine (VeroCell), Inactivated / Sinopharm</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>gamaleya</v>
+        <v>sinopharm</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E32" s="4" t="str">
         <v>VQo3HkUlMHc</v>
@@ -2472,172 +2395,172 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>UrUdMteQzlT</v>
+        <v>CkibqhWdy3q</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>Male</v>
+        <v>Sinopharm / BIBP</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>Male</v>
+        <v>sinopharm</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E33" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>UvR0km5ntbi</v>
+        <v>Yjp2PzOQiMa</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>Banker</v>
+        <v>SK Bio AstraZeneca</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>banker</v>
+        <v>astrazenecaskbio</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E34" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>wCXR8ztOP2N</v>
+        <v>SD1oprpITgl</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>AZD1222 / AstraZeneca</v>
+        <v>Social worker/ volunteer</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>astrazeneca</v>
+        <v>social_worker_volunteer</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E35" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>wEsSrYnDsRk</v>
+        <v>TVWwdI7Mlrh</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>2nd Trimester (13-28 weeks)</v>
+        <v>Sputnik V / Gamaleya</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>2trimester</v>
+        <v>gamaleya</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E36" s="4" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>xl5HHvHV2XH</v>
+        <v>GUiVk7RiR3p</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>3rd dose</v>
+        <v>Student</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>DOSE3</v>
+        <v>student</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E37" s="5" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>xmyy2NiyJaI</v>
+        <v>ahtoNsMUVFa</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Lactating</v>
+        <v>Teacher</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>COVACLactating</v>
+        <v>teacher</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E38" s="4" t="str">
-        <v>ilxtWultuYP</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>yeTPD0qoaz7</v>
+        <v>fWAvnP7mf98</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>mRNA-1273 / Moderna</v>
+        <v>Unemployed</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>moderna</v>
+        <v>unemployed</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E39" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>Yjp2PzOQiMa</v>
+        <v>TKD1XJ4ZhMO</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>SK Bio AstraZeneca</v>
+        <v>Unknown</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>astrazenecaskbio</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E40" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>bLA3AqDKdwx</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>zDqDiyA8ySB</v>
+        <v>IHYwYAtvjCY</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>1st Trimester (1-12 weeks)</v>
+        <v>Urban</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>1trimester</v>
+        <v>URBAN</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E41" s="5" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>VWzgQENmzPK</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>zIN2FnIIZC2</v>
+        <v>CvivP1rh4ii</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Retail (essential)</v>
+        <v>Yes</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>retail_essentials</v>
+        <v>YES</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E42" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>bLA3AqDKdwx</v>
       </c>
     </row>
   </sheetData>
@@ -2679,7 +2602,7 @@
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2717,7 +2640,7 @@
         <v>Person</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>MCPQUTHX1Ze</v>
@@ -2780,23 +2703,23 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" s="4" t="str">
-        <v>DFAxSmMm5pJ</v>
+        <v>qbNdD4CF8K5</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAC - Drop-out from COV-1 to COV-c BioNtech (21 days)</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Drop-out from COV-1 to COV-c COVAX2</v>
+        <v>Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>COV-1-COV-c COVAX2</v>
+        <v>COV-1-COV-c</v>
       </c>
       <c r="E2" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
 </v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>COV-1 - COV-c</v>
+        <v>CPV-1 - COV-c</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>COV-1</v>
@@ -2805,7 +2728,7 @@
         <v>Percentage</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="J2" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2813,16 +2736,16 @@
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" s="5" t="str">
-        <v>EhnDZJruoYj</v>
+        <v>KI5DoTUGLEE</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAC - Drop-out from COV-1 to COV-c Sinopharm (28 days)</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c AstraZeneca (12 days)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Drop-out from COV-1 to COV-c COVAX5</v>
+        <v>Drop-out from COV-1 to COV-c COVAX1</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v xml:space="preserve">COV-1-COV-c COVAX5 </v>
+        <v>COV-1-COV-c COVAX1</v>
       </c>
       <c r="E3" s="5" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
@@ -2838,7 +2761,7 @@
         <v>Percentage</v>
       </c>
       <c r="I3" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="J3" s="5" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2846,16 +2769,16 @@
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" s="4" t="str">
-        <v>H7YS9Fxl1mR</v>
+        <v>DFAxSmMm5pJ</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAC - Drop-out from COV-1 to COV-c Moderna (28 days)</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c BioNtech (21 days)</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Drop-out from COV-1 to COV-c COVAX3</v>
+        <v>Drop-out from COV-1 to COV-c COVAX2</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>COV-1-COV-c COVAX3</v>
+        <v>COV-1-COV-c COVAX2</v>
       </c>
       <c r="E4" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
@@ -2871,7 +2794,7 @@
         <v>Percentage</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="J4" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2904,7 +2827,7 @@
         <v>Percentage</v>
       </c>
       <c r="I5" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="J5" s="5" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2912,16 +2835,16 @@
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" s="4" t="str">
-        <v>KI5DoTUGLEE</v>
+        <v>H7YS9Fxl1mR</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAC - Drop-out from COV-1 to COV-c AstraZeneca (12 days)</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c Moderna (28 days)</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>Drop-out from COV-1 to COV-c COVAX1</v>
+        <v>Drop-out from COV-1 to COV-c COVAX3</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>COV-1-COV-c COVAX1</v>
+        <v>COV-1-COV-c COVAX3</v>
       </c>
       <c r="E6" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
@@ -2937,7 +2860,7 @@
         <v>Percentage</v>
       </c>
       <c r="I6" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="J6" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2945,23 +2868,23 @@
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7" s="5" t="str">
-        <v>qbNdD4CF8K5</v>
+        <v>EhnDZJruoYj</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c Sinopharm (28 days)</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>Drop-out from COV-1 to COV-c</v>
+        <v>Drop-out from COV-1 to COV-c COVAX5</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>COV-1-COV-c</v>
+        <v xml:space="preserve">COV-1-COV-c COVAX5 </v>
       </c>
       <c r="E7" s="5" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
 </v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>CPV-1 - COV-c</v>
+        <v>COV-1 - COV-c</v>
       </c>
       <c r="G7" s="5" t="str">
         <v>COV-1</v>
@@ -2970,7 +2893,7 @@
         <v>Percentage</v>
       </c>
       <c r="I7" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="J7" s="5" t="str">
         <v>mhdLWWUIqUp</v>
@@ -3015,10 +2938,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-22</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>e1jRVY5Mcq0</v>
+        <v>hmSnCXmLYwt</v>
       </c>
     </row>
   </sheetData>
@@ -3053,7 +2976,7 @@
         <v>COVAC - COVID-19 vaccine registry</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3065,7 +2988,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3100,19 +3023,19 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v/>
+        <v>QTONjOuZmh4</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>TEXT</v>
+        <v>Event chart</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v/>
+        <v>COVAC - Occupation - HCWs</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>h6jrY8dxlPw</v>
+        <v>VOyneBUDeZJ</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F2" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3120,19 +3043,19 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>TWG0cq8P539</v>
+        <v>ZFd7uKfZpli</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>visualizations</v>
+        <v>Event chart</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>COVAC - People with completed vaccination schedule</v>
+        <v>COVAC - Area of origin</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>XhogYKdCxCn</v>
+        <v>CSPGbrTFB01</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F3" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3149,10 +3072,10 @@
         <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>yGO7K9navzb</v>
+        <v>GnVAMXXwRIB</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F4" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3160,19 +3083,19 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v/>
+        <v>TWG0cq8P539</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>TEXT</v>
+        <v>SINGLE_VALUE</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v/>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>Ar6hHusJH20</v>
+        <v>XhogYKdCxCn</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F5" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3189,10 +3112,10 @@
         <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>wkVdR09w1ZV</v>
+        <v>yGO7K9navzb</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F6" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3209,10 +3132,10 @@
         <v/>
       </c>
       <c r="D7" s="5" t="str">
-        <v>uoycKmEiRNz</v>
+        <v>Ar6hHusJH20</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F7" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3220,19 +3143,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>wHd33PaphEC</v>
+        <v/>
       </c>
       <c r="B8" s="4" t="str">
-        <v>visualizations</v>
+        <v>TEXT</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
+        <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <v>UACnzvlcufQ</v>
+        <v>wkVdR09w1ZV</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F8" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3240,19 +3163,19 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>gNsB9zivLTy</v>
+        <v/>
       </c>
       <c r="B9" s="5" t="str">
-        <v>visualizations</v>
+        <v>TEXT</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>COVAC - At least one underlying condition</v>
+        <v/>
       </c>
       <c r="D9" s="5" t="str">
-        <v>Y61weOrxJXS</v>
+        <v>uoycKmEiRNz</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F9" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3260,19 +3183,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>vFkbMQiABfj</v>
+        <v>wHd33PaphEC</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>visualizations</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>COVAC - Underlying conditions</v>
+        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>ytFTqxSW9AV</v>
+        <v>UACnzvlcufQ</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F10" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3280,19 +3203,19 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>Db3MWC56CBp</v>
+        <v>gNsB9zivLTy</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Map</v>
+        <v>COLUMN</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>COVAC-Dropout rates</v>
+        <v>COVAC - At least one underlying condition</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>XaeVdRGnR7J</v>
+        <v>Y61weOrxJXS</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F11" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3300,19 +3223,19 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>GJPPSQuVt4N</v>
+        <v>vFkbMQiABfj</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>visualizations</v>
+        <v>PIE</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>COVAC - Number of doses administered</v>
+        <v>COVAC - Underlying conditions</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>ULSr3ZoJctd</v>
+        <v>ytFTqxSW9AV</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F12" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3320,19 +3243,19 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>cgMKXl648C2</v>
+        <v/>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Event report</v>
+        <v>MAP</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>COVAC - Summary of doses</v>
+        <v/>
       </c>
       <c r="D13" s="5" t="str">
-        <v>HJDKEwltTyy</v>
+        <v>XaeVdRGnR7J</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F13" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3340,19 +3263,19 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>QTONjOuZmh4</v>
+        <v>GJPPSQuVt4N</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Event chart</v>
+        <v>SINGLE_VALUE</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>COVAC - Occupation - HCWs</v>
+        <v>COVAC - Number of doses administered</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>KA0lBNvirHU</v>
+        <v>ULSr3ZoJctd</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F14" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3360,19 +3283,19 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>ZFd7uKfZpli</v>
+        <v>aUjo2Myd25f</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Event chart</v>
+        <v>COLUMN</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>COVAC - Area of origin</v>
+        <v>COVAC - Complete vaccination uptake</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>OehlMy5dFc5</v>
+        <v>OvN5kvyDCAs</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F15" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3380,19 +3303,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>aUjo2Myd25f</v>
+        <v>KV7fffdXnlY</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>visualizations</v>
+        <v>PIE</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>COVAC - Complete vaccination uptake</v>
+        <v>COVAC - Vaccine uptake by sex</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>OvN5kvyDCAs</v>
+        <v>LHsZfeujSZz</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F16" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3400,19 +3323,19 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>KV7fffdXnlY</v>
+        <v>BWlYGFBDbO2</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>visualizations</v>
+        <v>PIE</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>COVAC - Vaccine uptake by sex</v>
+        <v>COVAC - Vaccine uptake by age group</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>LHsZfeujSZz</v>
+        <v>ZFrKEvxoOSO</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F17" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3420,19 +3343,19 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>BWlYGFBDbO2</v>
+        <v>MzSAvoJ0vLr</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>visualizations</v>
+        <v>PIE</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>COVAC - Vaccine uptake by age group</v>
+        <v>COVAC - Vaccine uptake, last month</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>ZFrKEvxoOSO</v>
+        <v>zqLvFWIAsbq</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F18" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3440,19 +3363,19 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>MzSAvoJ0vLr</v>
+        <v/>
       </c>
       <c r="B19" s="5" t="str">
-        <v>visualizations</v>
+        <v>MAP</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>COVAC - Vaccine uptake, last month</v>
+        <v/>
       </c>
       <c r="D19" s="5" t="str">
-        <v>zqLvFWIAsbq</v>
+        <v>BKU0qpNqRJt</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F19" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3460,19 +3383,19 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>cOH1OjReS14</v>
+        <v>Hbs3xGj7XoN</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Map</v>
+        <v>LINE</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>COVAC-Number of doses given, last month</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>BKU0qpNqRJt</v>
+        <v>LPZvKzUrssT</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F20" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3480,41 +3403,21 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>Hbs3xGj7XoN</v>
+        <v>vmNUVdhuxN7</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>visualizations</v>
+        <v>STACKED_COLUMN</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>COVAC - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>LPZvKzUrssT</v>
+        <v>uO249BXzjbw</v>
       </c>
       <c r="E21" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="F21" s="5" t="str">
-        <v>YYtAbckt77l</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="str">
-        <v>vmNUVdhuxN7</v>
-      </c>
-      <c r="B22" s="4" t="str">
-        <v>visualizations</v>
-      </c>
-      <c r="C22" s="4" t="str">
-        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
-      </c>
-      <c r="D22" s="4" t="str">
-        <v>uO249BXzjbw</v>
-      </c>
-      <c r="E22" s="4" t="str">
-        <v>2021-02-23</v>
-      </c>
-      <c r="F22" s="4" t="str">
         <v>YYtAbckt77l</v>
       </c>
     </row>
@@ -3531,7 +3434,7 @@
   <cols>
     <col min="1" max="1" width="86.7109375" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3551,156 +3454,156 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAC - Complete vaccination uptake</v>
+        <v>COVAC - At least one underlying condition</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-23T10:51:33.734</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>aUjo2Myd25f</v>
+        <v>gNsB9zivLTy</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAC - Vaccine uptake by age group</v>
+        <v>COVAC - Complete vaccination uptake</v>
       </c>
       <c r="B3" s="5" t="str">
         <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-02-23T10:49:04.389</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>BWlYGFBDbO2</v>
+        <v>aUjo2Myd25f</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAC - Number of doses administered</v>
+        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v/>
+        <v>TEST TEST</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-02-23T10:46:09.387</v>
+        <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>GJPPSQuVt4N</v>
+        <v>vmNUVdhuxN7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAC - At least one underlying condition</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-02-23T10:50:10.386</v>
+        <v/>
       </c>
       <c r="D5" s="5" t="str">
-        <v>gNsB9zivLTy</v>
+        <v>Hbs3xGj7XoN</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAC - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC - Number of doses administered</v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-02-23T10:52:51.868</v>
+        <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Hbs3xGj7XoN</v>
+        <v>GJPPSQuVt4N</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAC - Vaccine uptake by sex</v>
+        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
       </c>
       <c r="B7" s="5" t="str">
         <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-02-23T10:49:27.088</v>
+        <v/>
       </c>
       <c r="D7" s="5" t="str">
-        <v>KV7fffdXnlY</v>
+        <v>wHd33PaphEC</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAC - Vaccine uptake, last month</v>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v/>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-02-23T10:48:22.065</v>
+        <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <v>MzSAvoJ0vLr</v>
+        <v>TWG0cq8P539</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAC - People with completed vaccination schedule</v>
+        <v>COVAC - Underlying conditions</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAC - People with completed vaccination schedule</v>
+        <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-02-23T10:46:35.842</v>
+        <v/>
       </c>
       <c r="D9" s="5" t="str">
-        <v>TWG0cq8P539</v>
+        <v>vFkbMQiABfj</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAC - Underlying conditions</v>
+        <v>COVAC - Vaccine uptake by age group</v>
       </c>
       <c r="B10" s="4" t="str">
         <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-02-23T10:50:30.260</v>
+        <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <v>vFkbMQiABfj</v>
+        <v>BWlYGFBDbO2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
+        <v>COVAC - Vaccine uptake by sex</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>TEST TEST</v>
+        <v/>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-02-23T10:47:14.717</v>
+        <v/>
       </c>
       <c r="D11" s="5" t="str">
-        <v>vmNUVdhuxN7</v>
+        <v>KV7fffdXnlY</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
+        <v>COVAC - Vaccine uptake, last month</v>
       </c>
       <c r="B12" s="4" t="str">
         <v/>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2021-02-23T10:45:47.442</v>
+        <v/>
       </c>
       <c r="D12" s="4" t="str">
-        <v>wHd33PaphEC</v>
+        <v>MzSAvoJ0vLr</v>
       </c>
     </row>
   </sheetData>
@@ -3736,30 +3639,30 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAC-Number of doses given, last month</v>
+        <v>COVAC-Dropout rates</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>cOH1OjReS14</v>
+        <v>Db3MWC56CBp</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAC-Dropout rates</v>
+        <v>COVAC-Number of doses given, last month</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Db3MWC56CBp</v>
+        <v>cOH1OjReS14</v>
       </c>
     </row>
   </sheetData>
@@ -3767,51 +3670,6 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Description</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="D1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>COVAC - Summary of doses</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>2021-02-23</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <v>cgMKXl648C2</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3840,37 +3698,37 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAC - Occupation - HCWs</v>
+        <v>COVAC - Area of origin</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>QTONjOuZmh4</v>
+        <v>ZFd7uKfZpli</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAC - Area of origin</v>
+        <v>COVAC - Occupation - HCWs</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>ZFd7uKfZpli</v>
+        <v>QTONjOuZmh4</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3895,53 +3753,53 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Completed clients</v>
+        <v>All clients</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-19</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>BL5aSffv0wj</v>
+        <v>goSkjeySiRY</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Clients with an overdue vaccine dose</v>
+        <v>Clients with a scheduled visit</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>CGr9zm3rBD4</v>
+        <v>frBrgF1IKeA</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Clients with a scheduled visit</v>
+        <v>Clients with an overdue vaccine dose</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-18</v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>frBrgF1IKeA</v>
+        <v>CGr9zm3rBD4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>All clients</v>
+        <v>Completed clients</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-18</v>
+        <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>goSkjeySiRY</v>
+        <v>BL5aSffv0wj</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3966,24 +3824,84 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Overdue vaccine dose</v>
+        <v>Notification of appointment</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>dzW10q0QMvN</v>
+        <v>I8XmjYX1rBC</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Notification of appointment</v>
+        <v>Overdue vaccine dose</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>I8XmjYX1rBC</v>
+        <v>dzW10q0QMvN</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Last updated</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <v>UID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="str">
+        <v>COVAC - Covid-19 Immunization Data Analysis</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C2" s="4" t="str">
+        <v>VLIaHu6ou8E</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="str">
+        <v>COVAC - Covid-19 Immunization Data Entry</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C3" s="5" t="str">
+        <v>q3Nh5xhJEy2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
+        <v>COVAC - Covid-19 Immunization Metadata Admin</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C4" s="4" t="str">
+        <v>AEAQ9LktNze</v>
       </c>
     </row>
   </sheetData>
@@ -4014,7 +3932,7 @@
         <v>Person</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>gqLw62UZlrD</v>
+        <v>hKZ9AJpnVcG</v>
       </c>
     </row>
     <row r="3">
@@ -4022,7 +3940,7 @@
         <v>Person</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>hKZ9AJpnVcG</v>
+        <v>gqLw62UZlrD</v>
       </c>
     </row>
     <row r="4">
@@ -4030,7 +3948,7 @@
         <v>Person</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>loHxNJH4IvV</v>
+        <v>qb8PkSObwqh</v>
       </c>
     </row>
     <row r="5">
@@ -4038,7 +3956,7 @@
         <v>Person</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>qb8PkSObwqh</v>
+        <v>loHxNJH4IvV</v>
       </c>
     </row>
   </sheetData>
@@ -4046,99 +3964,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="46.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>COVAC - Covid-19 Immunization Metadata Admin</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v>2021-02-23</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>AEAQ9LktNze</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="str">
-        <v>AEFI access</v>
-      </c>
-      <c r="B3" s="5" t="str">
-        <v>2021-02-22</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <v>J3mFUNTreYY</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="str">
-        <v>AEFI admin</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <v>2021-02-22</v>
-      </c>
-      <c r="C4" s="4" t="str">
-        <v>kPBGgIFMNFv</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="str">
-        <v>COVAC - Covid-19 Immunization Data Entry</v>
-      </c>
-      <c r="B5" s="5" t="str">
-        <v>2021-02-23</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <v>q3Nh5xhJEy2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="str">
-        <v>AEFI data capture</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <v>2021-02-22</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <v>RWyhKm0cuQ5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="str">
-        <v>COVAC - Covid-19 Immunization Data Analysis</v>
-      </c>
-      <c r="B7" s="5" t="str">
-        <v>2021-02-23</v>
-      </c>
-      <c r="C7" s="5" t="str">
-        <v>VLIaHu6ou8E</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4166,7 +3991,7 @@
         <v>who</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-22</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>vUeLeQMSwhN</v>
@@ -4209,189 +4034,189 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Family name</v>
+        <v>Address (current)</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Family name of the patient</v>
+        <v xml:space="preserve">Current home address of the patient/case </v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E2" s="4" t="str">
-        <v>aW66s2QSosT</v>
+        <v>VCtm2pySeEV</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Mobile phone number</v>
+        <v>Area Urban Rural</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v/>
+        <v>area_urban_rural</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v/>
+        <v>Whether client lives in an urban or rural setting</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
-        <v>ciCR6BBvIT4</v>
+        <v>YCqoNJZKvAG</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Sex</v>
+        <v>COVID - Occupation</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>patinfo_sex</v>
+        <v>occupation</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Sex of Person</v>
+        <v>Client occupation from the pre-defined list</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>CklPZdOd6H1</v>
+        <v>LY2bDXpNvS7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>National ID</v>
+        <v>Date of birth (age)</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v/>
+        <v>Date of birth plus calculated age</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>Ewi7FUfcHAD</v>
+        <v>mAWcalQYYyk</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Unique System Identifier (EPI)</v>
+        <v>Date of birth is estimated</v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <v>System-generated unique ID following pattern: CURRENT_DATE(yyyy-MM-dd) followed by a sequential number (#####)</v>
+        <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>KSr2yTdu1AI</v>
+        <v>Z1rLc1rVHK8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVID - Occupation</v>
+        <v>Family name</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>occupation</v>
+        <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>Client occupation from the pre-defined list</v>
+        <v>Family name of the patient</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
-        <v>LY2bDXpNvS7</v>
+        <v>aW66s2QSosT</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>Date of birth (age)</v>
+        <v>Given name</v>
       </c>
       <c r="B8" s="4" t="str">
         <v/>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Date of birth plus calculated age</v>
+        <v>The name of the patient or initials</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <v>mAWcalQYYyk</v>
+        <v>TfdH5KvFmMy</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>Given name</v>
+        <v>Mobile phone number</v>
       </c>
       <c r="B9" s="5" t="str">
         <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>The name of the patient or initials</v>
+        <v/>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
-        <v>TfdH5KvFmMy</v>
+        <v>ciCR6BBvIT4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>Address (current)</v>
+        <v>National ID</v>
       </c>
       <c r="B10" s="4" t="str">
         <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v xml:space="preserve">Current home address of the patient/case </v>
+        <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E10" s="4" t="str">
-        <v>VCtm2pySeEV</v>
+        <v>Ewi7FUfcHAD</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>Area Urban Rural</v>
+        <v>COVAC - Sex</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>area_urban_rural</v>
+        <v>covac_patinfo_sex</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Whether client lives in an urban or rural setting</v>
+        <v>Sex of Person</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E11" s="5" t="str">
-        <v>YCqoNJZKvAG</v>
+        <v>CklPZdOd6H1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>Date of birth is estimated</v>
+        <v>Unique System Identifier (EPI)</v>
       </c>
       <c r="B12" s="4" t="str">
         <v/>
       </c>
       <c r="C12" s="4" t="str">
-        <v/>
+        <v>System-generated unique ID following pattern: CURRENT_DATE(yyyy-MM-dd) followed by a sequential number (#####)</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
-        <v>Z1rLc1rVHK8</v>
+        <v>KSr2yTdu1AI</v>
       </c>
     </row>
   </sheetData>
@@ -4433,7 +4258,7 @@
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-23</v>
+        <v>2021-03-02</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4452,7 +4277,7 @@
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4478,7 +4303,7 @@
         <v>a1jCssI2LkW</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-23T08:37:58.971</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4648,10 +4473,10 @@
         <v xml:space="preserve">Vaccination </v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Underlying Conditions</v>
+        <v>Pre-immunization Questions</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>COVAC - Cardiovascular Disease</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="15">
@@ -4659,10 +4484,10 @@
         <v xml:space="preserve">Vaccination </v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Pre-immunization Questions</v>
+        <v>Underlying Conditions</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>COVAC - Allergic reaction after first dose</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="16">
@@ -4776,9 +4601,9 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="104.7109375" customWidth="1"/>
+    <col min="2" max="2" width="106.7109375" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="85.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
@@ -4813,25 +4638,25 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>A2Vtdh2mndr</v>
+        <v>V7SgYaK5lyF</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>Vaccine Uptake BioNtech</v>
+        <v>COV-C Dropout: Denominator (30 days since enrollment)</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v xml:space="preserve">Vaccine Uptake (BioNTech/Pfizer) </v>
+        <v>Dropout_rate_30_days_D</v>
       </c>
       <c r="D2" s="4" t="str">
         <v/>
       </c>
       <c r="E2" s="4" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Crosses 30 days since enrollment date this period</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G2" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4839,25 +4664,25 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>a6kCEcImBlW</v>
+        <v>toRV4TP9yQK</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (60+)</v>
+        <v>COV-C Dropout: Denominator astrazeneca (10 days since enrollment)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Received last dose (60+)</v>
+        <v>Dropout_rate_10_days_D</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>COV-c (60+)</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Crosses 30 days since enrollment date this period</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G3" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H3" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4865,25 +4690,25 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>aIIHyDy8AMW</v>
+        <v>ZS6qo9BSrcI</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Number of people receiving a first dose (Male 60+)</v>
+        <v>COV-C Dropout: Denominator biontechpfizer (21 days since enrollment)</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>First dose - Number of people (Male 60+)</v>
+        <v>Dropout_rate_21_days_D</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>COV-1 (Male 60+)</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Crosses 21 days since enrollment date this period</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G4" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H4" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4891,25 +4716,25 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>ApGCVA6qhKT</v>
+        <v>Gyj2tvi2yKK</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>ZZZVaccine Uptake (AstraZeneca)</v>
+        <v>COV-C Dropout: Denominator gamaleya (21 days since enrollment)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>ZZZVaccine Uptake (AstraZeneca)</v>
+        <v>Dropout_rate_21_days_gamaleya</v>
       </c>
       <c r="D5" s="5" t="str">
         <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>Number of doses given of AstraZeneca</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H5" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4917,25 +4742,25 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>AXweWKC4B3L</v>
+        <v>rqwQndYRiXO</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a first dose </v>
+        <v>COV-C Dropout: Denominator moderna (28 days since enrollment)</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>First dose - Number of people</v>
+        <v>Dropout_rate_28_days_D</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>COV-1</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H6" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4943,25 +4768,25 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>BEw3zmRnGo4</v>
+        <v>Vw3m2BgMNRD</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v xml:space="preserve">ZZZNumber of people (Female) receiving a second, third or booster dose </v>
+        <v>COV-C Dropout: Denominator sinopharm (28 days since enrollment)</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>ZZZ2nd, 3rd, booster dose - Number of females</v>
+        <v>Dropout_rate_28_days_sinopharm</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>ZZCOV-2 (Female)</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F7" s="5" t="str">
         <v>ENROLLMENT</v>
       </c>
       <c r="G7" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H7" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4969,25 +4794,25 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>BtB8fMhK2gH</v>
+        <v>cq2a28RsAFT</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (0-59)</v>
+        <v>COV-C Dropout: Numerator (30 days since enrollment, no final dose)</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Received last dose (0-59)</v>
+        <v>Dropout_rate_30_days_n</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>COV-c (0-59)</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Crosses 30 days since enrollment date this period</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H8" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4995,25 +4820,25 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>CI0pKfEiWom</v>
+        <v>dIAw5mn6Wqp</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>Number of people receiving a second, third or booster dose (60+)</v>
+        <v>COV-C Dropout: Numerator astrazeneca (12 days since enrollment, no final dose)</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2nd, 3rd, booster dose - Number of people (60+)</v>
+        <v>Dropout_rate_12_days_n</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>COV-2 (60+)</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Crosses 10 days since enrollment date this period</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G9" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H9" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5021,25 +4846,25 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>cq2a28RsAFT</v>
+        <v>Fj0B6zTlckL</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COV-C Dropout: Numerator (30 days since enrollment, no final dose)</v>
+        <v>COV-C Dropout: Numerator biontechpfizer (21 days since enrollment, no final dose)</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Dropout_rate_30_days_n</v>
+        <v>Dropout_rate_21_days_n</v>
       </c>
       <c r="D10" s="4" t="str">
         <v/>
       </c>
       <c r="E10" s="4" t="str">
-        <v>Crosses 30 days since enrollment date this period</v>
+        <v>Crosses 21 days since enrollment date this period</v>
       </c>
       <c r="F10" s="4" t="str">
         <v>ENROLLMENT</v>
       </c>
       <c r="G10" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H10" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5047,25 +4872,25 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>dIAw5mn6Wqp</v>
+        <v>QiRbyLpu9Um</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COV-C Dropout: Numerator astrazeneca (12 days since enrollment, no final dose)</v>
+        <v>COV-C Dropout: Numerator gamaleya (21 days since enrollment, no final dose)</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Dropout_rate_12_days_n</v>
+        <v>Dropout_rate_21_days_n_gamaleya</v>
       </c>
       <c r="D11" s="5" t="str">
         <v/>
       </c>
       <c r="E11" s="5" t="str">
-        <v>Crosses 10 days since enrollment date this period</v>
+        <v>Crosses 21 days since enrollment date this period</v>
       </c>
       <c r="F11" s="5" t="str">
         <v>ENROLLMENT</v>
       </c>
       <c r="G11" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H11" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5073,13 +4898,13 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>dm0FUJgNzZE</v>
+        <v>xE7kgNbrb5v</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COV-C Dropout: Numerator sinopharm (28 days since enrollment, no final dose)</v>
+        <v>COV-C Dropout: Numerator moderna (28 days since enrollment, no final dose)</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>Dropout_rate_28_days_n_sinopharm</v>
+        <v>Dropout_rate_28_days_n</v>
       </c>
       <c r="D12" s="4" t="str">
         <v/>
@@ -5091,7 +4916,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G12" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H12" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5099,25 +4924,25 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>DNWp4zqrALv</v>
+        <v>dm0FUJgNzZE</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product</v>
+        <v>COV-C Dropout: Numerator sinopharm (28 days since enrollment, no final dose)</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>Received last dose</v>
+        <v>Dropout_rate_28_days_n_sinopharm</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>COV-c</v>
+        <v/>
       </c>
       <c r="E13" s="5" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G13" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H13" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5125,25 +4950,25 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>Fj0B6zTlckL</v>
+        <v>kNzRGpiCvg4</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COV-C Dropout: Numerator biontechpfizer (21 days since enrollment, no final dose)</v>
+        <v xml:space="preserve">Doses given </v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>Dropout_rate_21_days_n</v>
+        <v xml:space="preserve">1st, 2nd, 3rd, booster dose - Number of doses - </v>
       </c>
       <c r="D14" s="4" t="str">
-        <v/>
+        <v>COV-n</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>Crosses 21 days since enrollment date this period</v>
+        <v>Number of doses (first, second, third, or booster dose) of a vaccine product</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H14" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5151,25 +4976,25 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>FZNIlzPRMmL</v>
+        <v>AXweWKC4B3L</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 0-59)</v>
+        <v xml:space="preserve">Number of people receiving a first dose </v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>Received last dose (Male 0-59)</v>
+        <v>First dose - Number of people</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>COV-c (Male 0-59)</v>
+        <v>COV-1</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F15" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G15" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H15" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5177,25 +5002,25 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>Gyj2tvi2yKK</v>
+        <v>hqm8znlAzkT</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COV-C Dropout: Denominator gamaleya (21 days since enrollment)</v>
+        <v>Number of people receiving a first dose  (Male 0-59)</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>Dropout_rate_21_days_gamaleya</v>
+        <v>First dose - Number of people (Male 0-59)</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v/>
+        <v>COV-1 (Male 0-59)</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>Crosses 28 days since enrollment date this period</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H16" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5203,25 +5028,25 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>h9G7i6mQKef</v>
+        <v>SqD0kovH0CS</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Number of people receiving a second, third or booster dose (Female 60+)</v>
+        <v>Number of people receiving a first dose (0-59)</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>2nd, 3rd, booster dose - (Female 60+)</v>
+        <v>First dose - Number of people (0-59)</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>COV-2 (Female 60+)</v>
+        <v>COV-1 (0-59)</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F17" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G17" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H17" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5229,16 +5054,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>HCe7qiP0GoC</v>
+        <v>MUXThnNRCk6</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Number of people receiving a first dose (Male)</v>
+        <v>Number of people receiving a first dose (60+)</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>First dose - Number of people (Male)</v>
+        <v>First dose - Number of people (60+)</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>COV-1 Male</v>
+        <v>COV-1 (60+)</v>
       </c>
       <c r="E18" s="4" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5247,7 +5072,7 @@
         <v>EVENT</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H18" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5255,16 +5080,16 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>hqm8znlAzkT</v>
+        <v>RJ6pdxga9Od</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Number of people receiving a first dose  (Male 0-59)</v>
+        <v>Number of people receiving a first dose (Female 0-59)</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>First dose - Number of people (Male 0-59)</v>
+        <v>First dose - Number of people (Female 0-59)</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>COV-1 (Male 0-59)</v>
+        <v>COV-1 (Female 0-59)</v>
       </c>
       <c r="E19" s="5" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5273,7 +5098,7 @@
         <v>EVENT</v>
       </c>
       <c r="G19" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H19" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5281,25 +5106,25 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>IXW8ahBF3Pl</v>
+        <v>x4L0LuEBHhW</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v xml:space="preserve">ZZZNumber of people (Male) receiving a second, third or booster dose </v>
+        <v>Number of people receiving a first dose (Female 60+)</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>ZZZ2nd, 3rd, booster dose - Number of males</v>
+        <v>First dose - Number of people (Female 60+)</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>ZZZCOV-2 (Male)</v>
+        <v>COV-1 (Female 60+)</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G20" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H20" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5325,7 +5150,7 @@
         <v>EVENT</v>
       </c>
       <c r="G21" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H21" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5333,25 +5158,25 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>kNzRGpiCvg4</v>
+        <v>aIIHyDy8AMW</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v xml:space="preserve">Doses given </v>
+        <v>Number of people receiving a first dose (Male 60+)</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v xml:space="preserve">1st, 2nd, 3rd, booster dose - Number of doses - </v>
+        <v>First dose - Number of people (Male 60+)</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>COV-n</v>
+        <v>COV-1 (Male 60+)</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>Number of doses (first, second, third, or booster dose) of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F22" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H22" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5359,25 +5184,25 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>M3jBOeFxHO0</v>
+        <v>HCe7qiP0GoC</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Vaccine Uptake AstraZeneca</v>
+        <v>Number of people receiving a first dose (Male)</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (AstraZeneca) </v>
+        <v>First dose - Number of people (Male)</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v/>
+        <v>COV-1 Male</v>
       </c>
       <c r="E23" s="5" t="str">
-        <v>Number of doses given of AstraZeneca</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F23" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G23" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H23" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5385,25 +5210,25 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>MGjwUUNsE60</v>
+        <v>zr25iLoCE4g</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Male 0-59)</v>
+        <v xml:space="preserve">Number of people receiving a second, third or booster dose </v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>2nd, 3rd or booster dose -  (Male 0-59)</v>
+        <v>2nd, 3rd, booster dose - Number of people</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>COV-2 (Male 0-59)</v>
+        <v>COV-2</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>Number of males who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F24" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G24" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H24" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5411,25 +5236,25 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>MUXThnNRCk6</v>
+        <v>UzPqw49tyym</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>Number of people receiving a first dose (60+)</v>
+        <v xml:space="preserve">Number of people receiving a second, third or booster dose  (Male) </v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>First dose - Number of people (60+)</v>
+        <v xml:space="preserve">2nd, 3rd, booster dose - Number of males </v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>COV-1 (60+)</v>
+        <v>COV-2 (Male)</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F25" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G25" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H25" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5437,25 +5262,25 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>MzXxrDWcNjW</v>
+        <v>zgt8n5PIAAf</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Vaccine Uptake Sinopharm</v>
+        <v>Number of people receiving a second, third or booster dose (0-59)</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v xml:space="preserve">Vaccine Uptake (Sinopharm ) </v>
+        <v>2nd, 3rd or booster dose - Number of people (0-59)</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v/>
+        <v>COV-2 (0-59)</v>
       </c>
       <c r="E26" s="4" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F26" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G26" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H26" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5463,25 +5288,25 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>P2OSNv6tWuj</v>
+        <v>CI0pKfEiWom</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>ZZZNumber of people receiving a first dose</v>
+        <v>Number of people receiving a second, third or booster dose (60+)</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>ZZZFirst dose - Number of people</v>
+        <v>2nd, 3rd, booster dose - Number of people (60+)</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>ZZZCOV-1</v>
+        <v>COV-2 (60+)</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F27" s="5" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G27" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H27" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5489,25 +5314,25 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>pbiKvW0Xv5Y</v>
+        <v>xY4T9hHXNji</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Male)</v>
+        <v>Number of people receiving a second, third or booster dose (Female 0-59)</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>Received last dose (Male)</v>
+        <v>2nd, 3rd or booster dose -  (Female 0-59)</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>COV-c Male</v>
+        <v>COV-2 (Female 0-59)</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F28" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G28" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H28" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5515,25 +5340,25 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>qh0kIjHZbP8</v>
+        <v>h9G7i6mQKef</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>Number of people receiving a second, third or booster dose (Male 60+)</v>
+        <v>Number of people receiving a second, third or booster dose (Female 60+)</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>2nd, 3rd, booster dose - (Male 60+)</v>
+        <v>2nd, 3rd, booster dose - (Female 60+)</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>COV-2 (Male 60+)</v>
+        <v>COV-2 (Female 60+)</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F29" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G29" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H29" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5541,25 +5366,25 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>QiRbyLpu9Um</v>
+        <v>wkaRLVNi6Fm</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>COV-C Dropout: Numerator gamaleya (21 days since enrollment, no final dose)</v>
+        <v xml:space="preserve">Number of people receiving a second, third or booster dose (Female) </v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>Dropout_rate_21_days_n_gamaleya</v>
+        <v xml:space="preserve">2nd, 3rd, booster dose - Number of females </v>
       </c>
       <c r="D30" s="4" t="str">
-        <v/>
+        <v>COV-2 (Female)</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>Crosses 21 days since enrollment date this period</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F30" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G30" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H30" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5567,25 +5392,25 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>RJ6pdxga9Od</v>
+        <v>MGjwUUNsE60</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>Number of people receiving a first dose (Female 0-59)</v>
+        <v>Number of people receiving a second, third or booster dose (Male 0-59)</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>First dose - Number of people (Female 0-59)</v>
+        <v>2nd, 3rd or booster dose -  (Male 0-59)</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>COV-1 (Female 0-59)</v>
+        <v>COV-2 (Male 0-59)</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of males who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F31" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G31" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H31" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5593,25 +5418,25 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>rqwQndYRiXO</v>
+        <v>qh0kIjHZbP8</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>COV-C Dropout: Denominator moderna (28 days since enrollment)</v>
+        <v>Number of people receiving a second, third or booster dose (Male 60+)</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>Dropout_rate_28_days_D</v>
+        <v>2nd, 3rd, booster dose - (Male 60+)</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v/>
+        <v>COV-2 (Male 60+)</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>Crosses 28 days since enrollment date this period</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F32" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G32" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H32" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5619,25 +5444,25 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>rtoIINJSfAf</v>
+        <v>DNWp4zqrALv</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>ZZZVaccine Uptake (BioNTech/Pfizer)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>ZZZVaccine Uptake (BioNTech/Pfizer)</v>
+        <v>Received last dose</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v/>
+        <v>COV-c</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F33" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G33" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H33" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5645,25 +5470,25 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>SqD0kovH0CS</v>
+        <v>BtB8fMhK2gH</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>Number of people receiving a first dose (0-59)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (0-59)</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>First dose - Number of people (0-59)</v>
+        <v>Received last dose (0-59)</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>COV-1 (0-59)</v>
+        <v>COV-c (0-59)</v>
       </c>
       <c r="E34" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F34" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G34" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H34" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5671,25 +5496,25 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>sYIBsws6qUG</v>
+        <v>a6kCEcImBlW</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v xml:space="preserve">zzzNumber of people receiving a second, third or booster dose </v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (60+)</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v xml:space="preserve">zzz2nd, 3rd, booster dose - Number of people </v>
+        <v>Received last dose (60+)</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v xml:space="preserve">zzzCOV-2 </v>
+        <v>COV-c (60+)</v>
       </c>
       <c r="E35" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F35" s="5" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G35" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H35" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5697,25 +5522,25 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>T4Fcv5Khfe8</v>
+        <v>Zp39TSOR8eW</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>ZZZVaccine Uptake (Moderna)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 0-59)</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>ZZZVaccine Uptake (Moderna)</v>
+        <v>Received last dose (Female 0-59)</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v/>
+        <v>COV-c (Female 0-59)</v>
       </c>
       <c r="E36" s="4" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F36" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G36" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H36" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5723,25 +5548,25 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>toRV4TP9yQK</v>
+        <v>XFUvVgqPukT</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>COV-C Dropout: Denominator astrazeneca (10 days since enrollment)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 60+)</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Dropout_rate_10_days_D</v>
+        <v>Received last dose (Female 60+)</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v/>
+        <v>COV-c (Female 60+)</v>
       </c>
       <c r="E37" s="5" t="str">
-        <v>Crosses 30 days since enrollment date this period</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F37" s="5" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G37" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H37" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5767,7 +5592,7 @@
         <v>EVENT</v>
       </c>
       <c r="G38" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H38" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5775,25 +5600,25 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>UzbfnPqo0LV</v>
+        <v>FZNIlzPRMmL</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>ZZZNumber of doses given</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 0-59)</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v xml:space="preserve">ZZZ1st, 2nd, 3rd, booster dose - Number of people </v>
+        <v>Received last dose (Male 0-59)</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>ZZZCOV-n</v>
+        <v>COV-c (Male 0-59)</v>
       </c>
       <c r="E39" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F39" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G39" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H39" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5801,25 +5626,25 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>UzPqw49tyym</v>
+        <v>zovL7DKBRuK</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a second, third or booster dose  (Male) </v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 60+)</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v xml:space="preserve">2nd, 3rd, booster dose - Number of males </v>
+        <v>Received last dose (Male 60+)</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>COV-2 (Male)</v>
+        <v>COV-c (Male 60+)</v>
       </c>
       <c r="E40" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F40" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G40" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H40" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5827,25 +5652,25 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>V7SgYaK5lyF</v>
+        <v>pbiKvW0Xv5Y</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>COV-C Dropout: Denominator (30 days since enrollment)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Male)</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>Dropout_rate_30_days_D</v>
+        <v>Received last dose (Male)</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v/>
+        <v>COV-c Male</v>
       </c>
       <c r="E41" s="5" t="str">
-        <v>Crosses 30 days since enrollment date this period</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F41" s="5" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G41" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H41" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5853,25 +5678,25 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>Vw3m2BgMNRD</v>
+        <v>Zn0UuSRYyJw</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>COV-C Dropout: Denominator sinopharm (28 days since enrollment)</v>
+        <v>Underlying conditions - People with</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>Dropout_rate_28_days_sinopharm</v>
+        <v>Underlying conditions - People with</v>
       </c>
       <c r="D42" s="4" t="str">
         <v/>
       </c>
       <c r="E42" s="4" t="str">
-        <v>Crosses 28 days since enrollment date this period</v>
+        <v>COunt of people who have one or more underlying conditions</v>
       </c>
       <c r="F42" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G42" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H42" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5879,25 +5704,25 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>wkaRLVNi6Fm</v>
+        <v>M3jBOeFxHO0</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v xml:space="preserve">Number of people receiving a second, third or booster dose (Female) </v>
+        <v>Vaccine Uptake AstraZeneca</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v xml:space="preserve">2nd, 3rd, booster dose - Number of females </v>
+        <v xml:space="preserve">Vaccine Uptake (AstraZeneca) </v>
       </c>
       <c r="D43" s="5" t="str">
-        <v>COV-2 (Female)</v>
+        <v/>
       </c>
       <c r="E43" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of doses given of AstraZeneca</v>
       </c>
       <c r="F43" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G43" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H43" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5905,25 +5730,25 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>x4L0LuEBHhW</v>
+        <v>A2Vtdh2mndr</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>Number of people receiving a first dose (Female 60+)</v>
+        <v>Vaccine Uptake BioNtech</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>First dose - Number of people (Female 60+)</v>
+        <v xml:space="preserve">Vaccine Uptake (BioNTech/Pfizer) </v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>COV-1 (Female 60+)</v>
+        <v/>
       </c>
       <c r="E44" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F44" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H44" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5931,25 +5756,25 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>xE7kgNbrb5v</v>
+        <v>ZQUxbCYqEOn</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>COV-C Dropout: Numerator moderna (28 days since enrollment, no final dose)</v>
+        <v>Vaccine Uptake Gamaleya</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>Dropout_rate_28_days_n</v>
+        <v xml:space="preserve">Vaccine Uptake (Gamaleya) </v>
       </c>
       <c r="D45" s="5" t="str">
         <v/>
       </c>
       <c r="E45" s="5" t="str">
-        <v>Crosses 28 days since enrollment date this period</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F45" s="5" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G45" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H45" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5957,25 +5782,25 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>XFUvVgqPukT</v>
+        <v>z7eWopCMD1k</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 60+)</v>
+        <v>Vaccine Uptake Moderna</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Received last dose (Female 60+)</v>
+        <v xml:space="preserve">Vaccine Uptake (Moderna) </v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>COV-c (Female 60+)</v>
+        <v/>
       </c>
       <c r="E46" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F46" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H46" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5983,25 +5808,25 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>xY4T9hHXNji</v>
+        <v>MzXxrDWcNjW</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>Number of people receiving a second, third or booster dose (Female 0-59)</v>
+        <v>Vaccine Uptake Sinopharm</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>2nd, 3rd or booster dose -  (Female 0-59)</v>
+        <v xml:space="preserve">Vaccine Uptake (Sinopharm ) </v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>COV-2 (Female 0-59)</v>
+        <v/>
       </c>
       <c r="E47" s="5" t="str">
-        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F47" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G47" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H47" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6009,25 +5834,25 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>z7eWopCMD1k</v>
+        <v>UzbfnPqo0LV</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>Vaccine Uptake Moderna</v>
+        <v>ZZZNumber of doses given</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v xml:space="preserve">Vaccine Uptake (Moderna) </v>
+        <v xml:space="preserve">ZZZ1st, 2nd, 3rd, booster dose - Number of people </v>
       </c>
       <c r="D48" s="4" t="str">
-        <v/>
+        <v>ZZZCOV-n</v>
       </c>
       <c r="E48" s="4" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F48" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H48" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6035,25 +5860,25 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>zgt8n5PIAAf</v>
+        <v>BEw3zmRnGo4</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>Number of people receiving a second, third or booster dose (0-59)</v>
+        <v xml:space="preserve">ZZZNumber of people (Female) receiving a second, third or booster dose </v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>2nd, 3rd or booster dose - Number of people (0-59)</v>
+        <v>ZZZ2nd, 3rd, booster dose - Number of females</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>COV-2 (0-59)</v>
+        <v>ZZCOV-2 (Female)</v>
       </c>
       <c r="E49" s="5" t="str">
         <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F49" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G49" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H49" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6061,25 +5886,25 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>Zn0UuSRYyJw</v>
+        <v>IXW8ahBF3Pl</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>Underlying conditions - People with</v>
+        <v xml:space="preserve">ZZZNumber of people (Male) receiving a second, third or booster dose </v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>Underlying conditions - People with</v>
+        <v>ZZZ2nd, 3rd, booster dose - Number of males</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v/>
+        <v>ZZZCOV-2 (Male)</v>
       </c>
       <c r="E50" s="4" t="str">
-        <v>COunt of people who have one or more underlying conditions</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F50" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G50" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H50" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6087,25 +5912,25 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>zovL7DKBRuK</v>
+        <v>P2OSNv6tWuj</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 60+)</v>
+        <v>ZZZNumber of people receiving a first dose</v>
       </c>
       <c r="C51" s="5" t="str">
-        <v>Received last dose (Male 60+)</v>
+        <v>ZZZFirst dose - Number of people</v>
       </c>
       <c r="D51" s="5" t="str">
-        <v>COV-c (Male 60+)</v>
+        <v>ZZZCOV-1</v>
       </c>
       <c r="E51" s="5" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F51" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G51" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H51" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6113,25 +5938,25 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>Zp39TSOR8eW</v>
+        <v>sYIBsws6qUG</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 0-59)</v>
+        <v xml:space="preserve">zzzNumber of people receiving a second, third or booster dose </v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>Received last dose (Female 0-59)</v>
+        <v xml:space="preserve">zzz2nd, 3rd, booster dose - Number of people </v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>COV-c (Female 0-59)</v>
+        <v xml:space="preserve">zzzCOV-2 </v>
       </c>
       <c r="E52" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F52" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G52" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H52" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6139,25 +5964,25 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>ZQUxbCYqEOn</v>
+        <v>ApGCVA6qhKT</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>Vaccine Uptake Gamaleya</v>
+        <v>ZZZVaccine Uptake (AstraZeneca)</v>
       </c>
       <c r="C53" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (Gamaleya) </v>
+        <v>ZZZVaccine Uptake (AstraZeneca)</v>
       </c>
       <c r="D53" s="5" t="str">
         <v/>
       </c>
       <c r="E53" s="5" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Number of doses given of AstraZeneca</v>
       </c>
       <c r="F53" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G53" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H53" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6165,25 +5990,25 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>zr25iLoCE4g</v>
+        <v>rtoIINJSfAf</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a second, third or booster dose </v>
+        <v>ZZZVaccine Uptake (BioNTech/Pfizer)</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>2nd, 3rd, booster dose - Number of people</v>
+        <v>ZZZVaccine Uptake (BioNTech/Pfizer)</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>COV-2</v>
+        <v/>
       </c>
       <c r="E54" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F54" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G54" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H54" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6191,25 +6016,25 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>ZS6qo9BSrcI</v>
+        <v>T4Fcv5Khfe8</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>COV-C Dropout: Denominator biontechpfizer (21 days since enrollment)</v>
+        <v>ZZZVaccine Uptake (Moderna)</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>Dropout_rate_21_days_D</v>
+        <v>ZZZVaccine Uptake (Moderna)</v>
       </c>
       <c r="D55" s="5" t="str">
         <v/>
       </c>
       <c r="E55" s="5" t="str">
-        <v>Crosses 21 days since enrollment date this period</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F55" s="5" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G55" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="H55" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6221,7 +6046,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -6252,16 +6077,16 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>A6Oy09dbQwn</v>
+        <v>QWOOvnYfKbN</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>if there was an allergic reaction after the first dose, show warning "conduct AEFI Investigation"</v>
+        <v>Assign a suggested date for next dose astrazeneca</v>
       </c>
       <c r="C2" s="4" t="str">
         <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6269,16 +6094,16 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>AmgPexdbztQ</v>
+        <v>ZT3tLrXXadf</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>If patient has had underlying diseases, transfer that value to following stage</v>
+        <v>Assign a suggested date for next dose biontechpfizer</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Rule transfers date of remission and if person has previously had covid</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6286,16 +6111,16 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>biYqhZM5HXe</v>
+        <v>rIOcajqykjp</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Show warning if the client is a health worker</v>
+        <v>Assign a suggested date for next dose gamaleya</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>If the client is a health worker, show a warning in the top bar</v>
+        <v>Assigns a next suggested dose date 21 days after this dose (guideline says 21-28 days)</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6303,16 +6128,16 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>ct6P0r3GQbY</v>
+        <v>Rhh99IrHe3P</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>AEFIs previously present show in indicator box</v>
+        <v>Assign a suggested date for next dose moderna</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v/>
+        <v>Assigns a next suggested dose date 28 days after this dose, based on CDC recommendations</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E5" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6320,16 +6145,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>e0WJRMhSrZy</v>
+        <v>VJTg5eGf3Je</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>If Age is under 18, then warn that AstraZeneca is recommended for ages 18 and up</v>
+        <v>Assign a suggested date for next dose sinopharm</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v/>
+        <v>Assigns a next suggested dose date 21 days after this dose</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6337,16 +6162,16 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>fJLXDY8WJIb</v>
+        <v>X7tSyOIdusk</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Assign name/Hide options to AstraZeneca/ astrazeneca</v>
+        <v>Assign dose number to astrazeneca</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>If Astra Zeneca (astrazeneca) is selected, assign value AZD1222</v>
+        <v>If astrazeneca is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6354,16 +6179,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>gmBh14b7tYb</v>
+        <v>O2NnmPrpL7s</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
+        <v>Assign dose number to biontechpfizer</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v/>
+        <v>If biontechpfizer is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6371,16 +6196,16 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>GtxjhHBQdLQ</v>
+        <v>VTIzJo0OQ7I</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>If patient has had covid, assign value to data element of current event</v>
+        <v>Assign dose number to gamaleya</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>Rule transfers date of remission and if person has previously had covid</v>
+        <v>If moderna is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6388,16 +6213,16 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>HDGNEGd5wnd</v>
+        <v>pN5K5h6wSo4</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Hide first dose option if previous was first dose</v>
+        <v>Assign dose number to moderna</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v/>
+        <v>If moderna is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E10" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6405,16 +6230,16 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>HdOtRsvVzgY</v>
+        <v>Wcnh9W2Pfz5</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Hide Trimester if nor pregnant</v>
+        <v>Assign dose number to sinopharm</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v/>
+        <v>If sinopharm is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E11" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6422,16 +6247,16 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>hdPflHqZKO3</v>
+        <v>oCzO3wOH9Wa</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Show warning: If first dose, then hide "last dose" DE</v>
+        <v>Assign name to BiONtech/Pfizer/biontechpfizer</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v/>
+        <v>If BioNTech/Pfizer is selected, assign value Comirnaty,Tozinameran to vaccine name</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6439,16 +6264,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>I0FZ4YQgxfD</v>
+        <v>Jvy8jLRKux9</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Hide underlying conditions if none</v>
+        <v>Assign name to Gamaleya/ gamaleya</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v/>
+        <v>If Gamaleya/gamaleya is selected, assign value to vaccine name "Sputnik V"</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E13" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6456,16 +6281,16 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>i0YmXeSnrqn</v>
+        <v>jJGIDJ4HYvE</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>if client has a history of Chronic lung disease, add value to current event</v>
+        <v>Assign name to Moderna/ moderna</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v/>
+        <v>If moderna is selected, assign value to vaccine name "mRNA-1273"</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E14" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6473,16 +6298,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>i5tOyWRc3S1</v>
+        <v>zgex5murOHT</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>if client has a history of immunodeficiency assign value to current event</v>
+        <v>Assign name to Sinopharm/ sinopharm</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v/>
+        <v>If Sinopharm/gamaleya is selected, assign value to vaccine name "Sputnik V"</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E15" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6490,16 +6315,16 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>j16AULHWXur</v>
+        <v>fJLXDY8WJIb</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
+        <v>Assign name/Hide options to AstraZeneca/ astrazeneca</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v/>
+        <v>If Astra Zeneca (astrazeneca) is selected, assign value AZD1222</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E16" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6507,16 +6332,16 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>jGPxY0apAr2</v>
+        <v>oPUB5us9T8e</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>AEFIs present show warning</v>
+        <v xml:space="preserve">Calculate age </v>
       </c>
       <c r="C17" s="5" t="str">
         <v/>
       </c>
       <c r="D17" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E17" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6524,16 +6349,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>jJGIDJ4HYvE</v>
+        <v>zLLHG561wsq</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Assign name to Moderna/ moderna</v>
+        <v>Hide anaphylaxis DE if first dose</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>If moderna is selected, assign value to vaccine name "mRNA-1273"</v>
+        <v>Hides a DE where one is asked about allergic reactions to previopus dose</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E18" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6541,16 +6366,16 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>jNtY9t6b120</v>
+        <v>HDGNEGd5wnd</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>if client has a history of cardiovascular disease assign value to current event</v>
+        <v>Hide first dose option if previous was first dose</v>
       </c>
       <c r="C19" s="5" t="str">
         <v/>
       </c>
       <c r="D19" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E19" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6558,16 +6383,16 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>Jvy8jLRKux9</v>
+        <v>srC0NIzM3Ou</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Assign name to Gamaleya/ gamaleya</v>
+        <v>Hide pregnancy if not a woman</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>If Gamaleya/gamaleya is selected, assign value to vaccine name "Sputnik V"</v>
+        <v/>
       </c>
       <c r="D20" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E20" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6575,16 +6400,16 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>K9Vjkz1xOw1</v>
+        <v>HdOtRsvVzgY</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>if client has a history of malignancy assign value to current event</v>
+        <v>Hide Trimester if nor pregnant</v>
       </c>
       <c r="C21" s="5" t="str">
         <v/>
       </c>
       <c r="D21" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E21" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6592,16 +6417,16 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>KGBdMuY2ASs</v>
+        <v>I0FZ4YQgxfD</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>if client has a history of Diabetes assign value to current event</v>
+        <v>Hide underlying conditions if none</v>
       </c>
       <c r="C22" s="4" t="str">
         <v/>
       </c>
       <c r="D22" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E22" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6609,16 +6434,16 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>l8opvp32VAd</v>
+        <v>TRR2ODBsnkN</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>if client has a history of Renal disease assign value to current event</v>
+        <v>If Age is under 16, then warn that BioNTech/Pfizer is recommended for ages 16 and up</v>
       </c>
       <c r="C23" s="5" t="str">
         <v/>
       </c>
       <c r="D23" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E23" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6626,16 +6451,16 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>LO6XtDyCbya</v>
+        <v>e0WJRMhSrZy</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Show warning if person has had covid within 90 days of vaccination date</v>
+        <v>If Age is under 18, then warn that AstraZeneca is recommended for ages 18 and up</v>
       </c>
       <c r="C24" s="4" t="str">
         <v/>
       </c>
       <c r="D24" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E24" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6643,16 +6468,16 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>nU9WWRKt7PL</v>
+        <v>xydE4Vcj6xU</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>Show vaccine type from previous vaccination event</v>
+        <v>If Age is under 18, then warn that Gamaleya is recommended for ages 18 and up</v>
       </c>
       <c r="C25" s="5" t="str">
         <v/>
       </c>
       <c r="D25" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E25" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6660,16 +6485,16 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>O2NnmPrpL7s</v>
+        <v>ppbeGorruVj</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Assign dose number to biontechpfizer</v>
+        <v>If Age is under 18, then warn that Moderna is recommended for ages 18 and up</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>If biontechpfizer is selected, assign 2 as max doses and hide options for 3 doses</v>
+        <v/>
       </c>
       <c r="D26" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E26" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6677,16 +6502,16 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>oCzO3wOH9Wa</v>
+        <v>xeInMQrA5Mo</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>Assign name to BiONtech/Pfizer/biontechpfizer</v>
+        <v>If Age is under 18, then warn that Sinopharm is recommended for ages 18 and up</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>If BioNTech/Pfizer is selected, assign value Comirnaty,Tozinameran to vaccine name</v>
+        <v/>
       </c>
       <c r="D27" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E27" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6694,16 +6519,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>OdSVYvgu6G2</v>
+        <v>jNtY9t6b120</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>if client has a history of neurological deficiency assign value to current event</v>
+        <v>if client has a history of cardiovascular disease assign value to current event</v>
       </c>
       <c r="C28" s="4" t="str">
         <v/>
       </c>
       <c r="D28" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E28" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6711,16 +6536,16 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>oPUB5us9T8e</v>
+        <v>j16AULHWXur</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v xml:space="preserve">Calculate age </v>
+        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
       </c>
       <c r="C29" s="5" t="str">
         <v/>
       </c>
       <c r="D29" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E29" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6728,16 +6553,16 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>ParDbFN1amU</v>
+        <v>gmBh14b7tYb</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>If client has a history of OTHER disease show it on indicator panel</v>
+        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
       </c>
       <c r="C30" s="4" t="str">
         <v/>
       </c>
       <c r="D30" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E30" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6745,16 +6570,16 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>PJjKiFrvfuN</v>
+        <v>i0YmXeSnrqn</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>If this is the second dose, mark it as "last dose" for all vaccine products</v>
+        <v>if client has a history of Chronic lung disease, add value to current event</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>It selects the "last dose" option, it assumes that all products have two doses as the complete schedule.</v>
+        <v/>
       </c>
       <c r="D31" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E31" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6762,16 +6587,16 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>pN5K5h6wSo4</v>
+        <v>KGBdMuY2ASs</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>Assign dose number to moderna</v>
+        <v>if client has a history of Diabetes assign value to current event</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>If moderna is selected, assign 2 as max doses and hide options for 3 doses</v>
+        <v/>
       </c>
       <c r="D32" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E32" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6779,16 +6604,16 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>ppbeGorruVj</v>
+        <v>r9NQ2R4eFIO</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>If Age is under 18, then warn that Moderna is recommended for ages 18 and up</v>
+        <v>If client has a history of Diabetes show it on indicator panel</v>
       </c>
       <c r="C33" s="5" t="str">
         <v/>
       </c>
       <c r="D33" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E33" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6796,16 +6621,16 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>QEq5oRr4UEw</v>
+        <v>i5tOyWRc3S1</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>if client has a history of Other assign value to current event</v>
+        <v>if client has a history of immunodeficiency assign value to current event</v>
       </c>
       <c r="C34" s="4" t="str">
         <v/>
       </c>
       <c r="D34" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E34" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6813,16 +6638,16 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>qrIXRSq77JN</v>
+        <v>ucrvgwsRCim</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>If client has a history of Renal Disease show it on indicator panel</v>
+        <v>If client has a history of immunodeficiency show it on indicator panel</v>
       </c>
       <c r="C35" s="5" t="str">
         <v/>
       </c>
       <c r="D35" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E35" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6830,16 +6655,16 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>QWOOvnYfKbN</v>
+        <v>K9Vjkz1xOw1</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>Assign a suggested date for next dose astrazeneca</v>
+        <v>if client has a history of malignancy assign value to current event</v>
       </c>
       <c r="C36" s="4" t="str">
         <v/>
       </c>
       <c r="D36" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E36" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6847,16 +6672,16 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>r9NQ2R4eFIO</v>
+        <v>SDfSLD0WFOL</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>If client has a history of Diabetes show it on indicator panel</v>
+        <v>if client has a history of malignancy show it on indicator panel</v>
       </c>
       <c r="C37" s="5" t="str">
         <v/>
       </c>
       <c r="D37" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E37" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6864,16 +6689,16 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>Rhh99IrHe3P</v>
+        <v>OdSVYvgu6G2</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Assign a suggested date for next dose moderna</v>
+        <v>if client has a history of neurological deficiency assign value to current event</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>Assigns a next suggested dose date 28 days after this dose, based on CDC recommendations</v>
+        <v/>
       </c>
       <c r="D38" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E38" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6881,16 +6706,16 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>rIOcajqykjp</v>
+        <v>vqQMyfw3i3u</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>Assign a suggested date for next dose gamaleya</v>
+        <v>If client has a history of Neurological disease show it on indicator panel</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>Assigns a next suggested dose date 21 days after this dose (guideline says 21-28 days)</v>
+        <v/>
       </c>
       <c r="D39" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E39" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6898,16 +6723,16 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>SDfSLD0WFOL</v>
+        <v>QEq5oRr4UEw</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>if client has a history of malignancy show it on indicator panel</v>
+        <v>if client has a history of Other assign value to current event</v>
       </c>
       <c r="C40" s="4" t="str">
         <v/>
       </c>
       <c r="D40" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E40" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6915,16 +6740,16 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>SkBUqyO9zG0</v>
+        <v>ParDbFN1amU</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>Last dose - complete programme</v>
+        <v>If client has a history of OTHER disease show it on indicator panel</v>
       </c>
       <c r="C41" s="5" t="str">
         <v/>
       </c>
       <c r="D41" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E41" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6932,16 +6757,16 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>srC0NIzM3Ou</v>
+        <v>l8opvp32VAd</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Hide pregnancy if not a woman</v>
+        <v>if client has a history of Renal disease assign value to current event</v>
       </c>
       <c r="C42" s="4" t="str">
         <v/>
       </c>
       <c r="D42" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E42" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6949,16 +6774,16 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>TRR2ODBsnkN</v>
+        <v>qrIXRSq77JN</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>If Age is under 16, then warn that BioNTech/Pfizer is recommended for ages 16 and up</v>
+        <v>If client has a history of Renal Disease show it on indicator panel</v>
       </c>
       <c r="C43" s="5" t="str">
         <v/>
       </c>
       <c r="D43" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E43" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6966,16 +6791,16 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>ucrvgwsRCim</v>
+        <v>GtxjhHBQdLQ</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>If client has a history of immunodeficiency show it on indicator panel</v>
+        <v>If patient has had covid, assign value to data element of current event</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v/>
+        <v>Rule transfers date of remission and if person has previously had covid</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E44" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6983,16 +6808,16 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>vd1vZsjDft4</v>
+        <v>AmgPexdbztQ</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
+        <v>If patient has had underlying diseases, transfer that value to following stage</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v/>
+        <v>Rule transfers date of remission and if person has previously had covid</v>
       </c>
       <c r="D45" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E45" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -7000,16 +6825,16 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>VJTg5eGf3Je</v>
+        <v>XTLv9YqOtNX</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Assign a suggested date for next dose sinopharm</v>
+        <v>If previous vaccine is differente than current vaccine, show warning.</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Assigns a next suggested dose date 21 days after this dose</v>
+        <v/>
       </c>
       <c r="D46" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E46" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -7017,16 +6842,16 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>vqQMyfw3i3u</v>
+        <v>vd1vZsjDft4</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>If client has a history of Neurological disease show it on indicator panel</v>
+        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
       </c>
       <c r="C47" s="5" t="str">
         <v/>
       </c>
       <c r="D47" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E47" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -7034,16 +6859,16 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>VTIzJo0OQ7I</v>
+        <v>A6Oy09dbQwn</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>Assign dose number to gamaleya</v>
+        <v>if there was an allergic reaction after the first dose, show warning "conduct AEFI Investigation"</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>If moderna is selected, assign 2 as max doses and hide options for 3 doses</v>
+        <v/>
       </c>
       <c r="D48" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E48" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -7051,16 +6876,16 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>W0YQaz1qRJb</v>
+        <v>PJjKiFrvfuN</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>Send notification if overdue</v>
+        <v>If this is the second dose, mark it as "last dose" for all vaccine products</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v/>
+        <v>It selects the "last dose" option, it assumes that all products have two doses as the complete schedule.</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E49" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -7068,16 +6893,16 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>Wcnh9W2Pfz5</v>
+        <v>SkBUqyO9zG0</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>Assign dose number to sinopharm</v>
+        <v>Last dose - complete programme</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>If sinopharm is selected, assign 2 as max doses and hide options for 3 doses</v>
+        <v/>
       </c>
       <c r="D50" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E50" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -7085,16 +6910,16 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>X7tSyOIdusk</v>
+        <v>W0YQaz1qRJb</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>Assign dose number to astrazeneca</v>
+        <v>Send notification if overdue</v>
       </c>
       <c r="C51" s="5" t="str">
-        <v>If astrazeneca is selected, assign 2 as max doses and hide options for 3 doses</v>
+        <v/>
       </c>
       <c r="D51" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E51" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -7102,16 +6927,16 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>xeInMQrA5Mo</v>
+        <v>nU9WWRKt7PL</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>If Age is under 18, then warn that Sinopharm is recommended for ages 18 and up</v>
+        <v>Show vaccine type from previous vaccination event</v>
       </c>
       <c r="C52" s="4" t="str">
         <v/>
       </c>
       <c r="D52" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E52" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -7119,16 +6944,16 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>XTLv9YqOtNX</v>
+        <v>LO6XtDyCbya</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>If previous vaccine is differente than current vaccine, show warning.</v>
+        <v>Show warning if person has had covid within 90 days of vaccination date</v>
       </c>
       <c r="C53" s="5" t="str">
         <v/>
       </c>
       <c r="D53" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E53" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -7136,16 +6961,16 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>xydE4Vcj6xU</v>
+        <v>biYqhZM5HXe</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>If Age is under 18, then warn that Gamaleya is recommended for ages 18 and up</v>
+        <v>Show warning if the client is a health worker</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v/>
+        <v>If the client is a health worker, show a warning in the top bar</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E54" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -7153,52 +6978,18 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>zgex5murOHT</v>
+        <v>hdPflHqZKO3</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>Assign name to Sinopharm/ sinopharm</v>
+        <v>Show warning: If first dose, then hide "last dose" DE</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>If Sinopharm/gamaleya is selected, assign value to vaccine name "Sputnik V"</v>
+        <v/>
       </c>
       <c r="D55" s="5" t="str">
-        <v>2021-02-23</v>
+        <v/>
       </c>
       <c r="E55" s="5" t="str">
-        <v>yDuAzyqYABS</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="4" t="str">
-        <v>zLLHG561wsq</v>
-      </c>
-      <c r="B56" s="4" t="str">
-        <v>Hide anaphylaxis DE if first dose</v>
-      </c>
-      <c r="C56" s="4" t="str">
-        <v>Hides a DE where one is asked about allergic reactions to previopus dose</v>
-      </c>
-      <c r="D56" s="4" t="str">
-        <v>2021-02-23</v>
-      </c>
-      <c r="E56" s="4" t="str">
-        <v>yDuAzyqYABS</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="str">
-        <v>ZT3tLrXXadf</v>
-      </c>
-      <c r="B57" s="5" t="str">
-        <v>Assign a suggested date for next dose biontechpfizer</v>
-      </c>
-      <c r="C57" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D57" s="5" t="str">
-        <v>2021-02-23</v>
-      </c>
-      <c r="E57" s="5" t="str">
         <v>yDuAzyqYABS</v>
       </c>
     </row>

--- a/metadata/COVAX/COVAX_TRACKER_V1_DHIS2.34/reference.xlsx
+++ b/metadata/COVAX/COVAX_TRACKER_V1_DHIS2.34/reference.xlsx
@@ -480,7 +480,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V1.1.0</v>
+        <v>V1.1.1</v>
       </c>
     </row>
     <row r="5">
@@ -496,7 +496,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>20210303T014351</v>
+        <v>20210310T014404</v>
       </c>
     </row>
     <row r="7">
@@ -504,7 +504,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC_TRACKER_V1.1.0_DHIS2.34.3-80c86cc_20210303T014351</v>
+        <v>COVAC_TRACKER_V1.1.1_DHIS2.34.3-80c86cc_20210310T014404</v>
       </c>
     </row>
   </sheetData>
@@ -780,7 +780,7 @@
         <v>COVAC - AEFIs present</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>AEFIs_present</v>
+        <v>COVAC_AEFIs_present</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>Are there any adverse events present after receiving the immunization?</v>
@@ -1449,7 +1449,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAC - AEFIs present</v>
+        <v>COVAC - Malignancy</v>
       </c>
     </row>
     <row r="18">
@@ -1457,7 +1457,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAC - Malignancy</v>
+        <v>COVAC - Dose Number</v>
       </c>
     </row>
     <row r="19">
@@ -1465,7 +1465,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAC - Dose Number</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="20">
@@ -1473,7 +1473,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAC - Cardiovascular Disease</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
     </row>
     <row r="21">
@@ -1481,7 +1481,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAC - Chronic Lung Disease</v>
+        <v>COVAC - AEFIs present</v>
       </c>
     </row>
     <row r="22">
@@ -1758,7 +1758,7 @@
         <v>kgDmgTYZICP</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>1st Trimester (1-12 weeks); 2nd Trimester (13-28 weeks); 3rd Trimester (20-40 weeks)</v>
+        <v>1st Trimester (1-12 weeks); 2nd Trimester (13-28 weeks); 3rd Trimester (29-40 weeks)</v>
       </c>
     </row>
     <row r="6">
@@ -1956,7 +1956,7 @@
         <v>Q3obJT1MXov</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>3rd Trimester (20-40 weeks)</v>
+        <v>3rd Trimester (29-40 weeks)</v>
       </c>
       <c r="C7" s="5" t="str">
         <v>3trimester</v>
@@ -3454,21 +3454,21 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAC - At least one underlying condition</v>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v/>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="C2" s="4" t="str">
         <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>gNsB9zivLTy</v>
+        <v>TWG0cq8P539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAC - Complete vaccination uptake</v>
+        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
       </c>
       <c r="B3" s="5" t="str">
         <v/>
@@ -3477,26 +3477,26 @@
         <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>aUjo2Myd25f</v>
+        <v>wHd33PaphEC</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
+        <v>COVAC - At least one underlying condition</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>TEST TEST</v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
         <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>vmNUVdhuxN7</v>
+        <v>gNsB9zivLTy</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAC - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC - Underlying conditions</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
@@ -3505,7 +3505,7 @@
         <v/>
       </c>
       <c r="D5" s="5" t="str">
-        <v>Hbs3xGj7XoN</v>
+        <v>vFkbMQiABfj</v>
       </c>
     </row>
     <row r="6">
@@ -3524,7 +3524,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
+        <v>COVAC - Complete vaccination uptake</v>
       </c>
       <c r="B7" s="5" t="str">
         <v/>
@@ -3533,26 +3533,26 @@
         <v/>
       </c>
       <c r="D7" s="5" t="str">
-        <v>wHd33PaphEC</v>
+        <v>aUjo2Myd25f</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAC - People with completed vaccination schedule</v>
+        <v>COVAC - Vaccine uptake by sex</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAC - People with completed vaccination schedule</v>
+        <v/>
       </c>
       <c r="C8" s="4" t="str">
         <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <v>TWG0cq8P539</v>
+        <v>KV7fffdXnlY</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAC - Underlying conditions</v>
+        <v>COVAC - Vaccine uptake by age group</v>
       </c>
       <c r="B9" s="5" t="str">
         <v/>
@@ -3561,12 +3561,12 @@
         <v/>
       </c>
       <c r="D9" s="5" t="str">
-        <v>vFkbMQiABfj</v>
+        <v>BWlYGFBDbO2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAC - Vaccine uptake by age group</v>
+        <v>COVAC - Vaccine uptake, last month</v>
       </c>
       <c r="B10" s="4" t="str">
         <v/>
@@ -3575,12 +3575,12 @@
         <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <v>BWlYGFBDbO2</v>
+        <v>MzSAvoJ0vLr</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAC - Vaccine uptake by sex</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="B11" s="5" t="str">
         <v/>
@@ -3589,21 +3589,21 @@
         <v/>
       </c>
       <c r="D11" s="5" t="str">
-        <v>KV7fffdXnlY</v>
+        <v>Hbs3xGj7XoN</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>COVAC - Vaccine uptake, last month</v>
+        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v/>
+        <v>TEST TEST</v>
       </c>
       <c r="C12" s="4" t="str">
         <v/>
       </c>
       <c r="D12" s="4" t="str">
-        <v>MzSAvoJ0vLr</v>
+        <v>vmNUVdhuxN7</v>
       </c>
     </row>
   </sheetData>
@@ -4190,7 +4190,7 @@
         <v>COVAC - Sex</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>covac_patinfo_sex</v>
+        <v>patinfo_sex</v>
       </c>
       <c r="C11" s="5" t="str">
         <v>Sex of Person</v>
@@ -4258,7 +4258,7 @@
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-03-02</v>
+        <v>2021-03-08</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6046,7 +6046,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -6400,13 +6400,13 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>HdOtRsvVzgY</v>
+        <v>R1bzqObecyQ</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Hide Trimester if nor pregnant</v>
+        <v>Hide Suggested date for next dose if vaccine product has no more doses</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v/>
+        <v>All vaccine types with two doses, after they receive one does, the "next dose date" will be hidden.</v>
       </c>
       <c r="D21" s="5" t="str">
         <v/>
@@ -6417,10 +6417,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>I0FZ4YQgxfD</v>
+        <v>HdOtRsvVzgY</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>Hide underlying conditions if none</v>
+        <v>Hide Trimester if nor pregnant</v>
       </c>
       <c r="C22" s="4" t="str">
         <v/>
@@ -6434,10 +6434,10 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>TRR2ODBsnkN</v>
+        <v>I0FZ4YQgxfD</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>If Age is under 16, then warn that BioNTech/Pfizer is recommended for ages 16 and up</v>
+        <v>Hide underlying conditions if none</v>
       </c>
       <c r="C23" s="5" t="str">
         <v/>
@@ -6451,10 +6451,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>e0WJRMhSrZy</v>
+        <v>TRR2ODBsnkN</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>If Age is under 18, then warn that AstraZeneca is recommended for ages 18 and up</v>
+        <v>If Age is under 16, then warn that BioNTech/Pfizer is recommended for ages 16 and up</v>
       </c>
       <c r="C24" s="4" t="str">
         <v/>
@@ -6468,10 +6468,10 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>xydE4Vcj6xU</v>
+        <v>e0WJRMhSrZy</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>If Age is under 18, then warn that Gamaleya is recommended for ages 18 and up</v>
+        <v>If Age is under 18, then warn that AstraZeneca is recommended for ages 18 and up</v>
       </c>
       <c r="C25" s="5" t="str">
         <v/>
@@ -6485,10 +6485,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>ppbeGorruVj</v>
+        <v>xydE4Vcj6xU</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>If Age is under 18, then warn that Moderna is recommended for ages 18 and up</v>
+        <v>If Age is under 18, then warn that Gamaleya is recommended for ages 18 and up</v>
       </c>
       <c r="C26" s="4" t="str">
         <v/>
@@ -6502,10 +6502,10 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>xeInMQrA5Mo</v>
+        <v>ppbeGorruVj</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>If Age is under 18, then warn that Sinopharm is recommended for ages 18 and up</v>
+        <v>If Age is under 18, then warn that Moderna is recommended for ages 18 and up</v>
       </c>
       <c r="C27" s="5" t="str">
         <v/>
@@ -6519,10 +6519,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>jNtY9t6b120</v>
+        <v>xeInMQrA5Mo</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>if client has a history of cardiovascular disease assign value to current event</v>
+        <v>If Age is under 18, then warn that Sinopharm is recommended for ages 18 and up</v>
       </c>
       <c r="C28" s="4" t="str">
         <v/>
@@ -6536,10 +6536,10 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>j16AULHWXur</v>
+        <v>jNtY9t6b120</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
+        <v>if client has a history of cardiovascular disease assign value to current event</v>
       </c>
       <c r="C29" s="5" t="str">
         <v/>
@@ -6553,10 +6553,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>gmBh14b7tYb</v>
+        <v>j16AULHWXur</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
+        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
       </c>
       <c r="C30" s="4" t="str">
         <v/>
@@ -6570,10 +6570,10 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>i0YmXeSnrqn</v>
+        <v>gmBh14b7tYb</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>if client has a history of Chronic lung disease, add value to current event</v>
+        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
       </c>
       <c r="C31" s="5" t="str">
         <v/>
@@ -6587,10 +6587,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>KGBdMuY2ASs</v>
+        <v>i0YmXeSnrqn</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>if client has a history of Diabetes assign value to current event</v>
+        <v>if client has a history of Chronic lung disease, add value to current event</v>
       </c>
       <c r="C32" s="4" t="str">
         <v/>
@@ -6604,10 +6604,10 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>r9NQ2R4eFIO</v>
+        <v>KGBdMuY2ASs</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>If client has a history of Diabetes show it on indicator panel</v>
+        <v>if client has a history of Diabetes assign value to current event</v>
       </c>
       <c r="C33" s="5" t="str">
         <v/>
@@ -6621,10 +6621,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>i5tOyWRc3S1</v>
+        <v>r9NQ2R4eFIO</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>if client has a history of immunodeficiency assign value to current event</v>
+        <v>If client has a history of Diabetes show it on indicator panel</v>
       </c>
       <c r="C34" s="4" t="str">
         <v/>
@@ -6638,10 +6638,10 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>ucrvgwsRCim</v>
+        <v>i5tOyWRc3S1</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>If client has a history of immunodeficiency show it on indicator panel</v>
+        <v>if client has a history of immunodeficiency assign value to current event</v>
       </c>
       <c r="C35" s="5" t="str">
         <v/>
@@ -6655,10 +6655,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>K9Vjkz1xOw1</v>
+        <v>ucrvgwsRCim</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>if client has a history of malignancy assign value to current event</v>
+        <v>If client has a history of immunodeficiency show it on indicator panel</v>
       </c>
       <c r="C36" s="4" t="str">
         <v/>
@@ -6672,10 +6672,10 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>SDfSLD0WFOL</v>
+        <v>K9Vjkz1xOw1</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>if client has a history of malignancy show it on indicator panel</v>
+        <v>if client has a history of malignancy assign value to current event</v>
       </c>
       <c r="C37" s="5" t="str">
         <v/>
@@ -6689,10 +6689,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>OdSVYvgu6G2</v>
+        <v>SDfSLD0WFOL</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>if client has a history of neurological deficiency assign value to current event</v>
+        <v>if client has a history of malignancy show it on indicator panel</v>
       </c>
       <c r="C38" s="4" t="str">
         <v/>
@@ -6706,10 +6706,10 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>vqQMyfw3i3u</v>
+        <v>OdSVYvgu6G2</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>If client has a history of Neurological disease show it on indicator panel</v>
+        <v>if client has a history of neurological deficiency assign value to current event</v>
       </c>
       <c r="C39" s="5" t="str">
         <v/>
@@ -6723,10 +6723,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>QEq5oRr4UEw</v>
+        <v>vqQMyfw3i3u</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>if client has a history of Other assign value to current event</v>
+        <v>If client has a history of Neurological disease show it on indicator panel</v>
       </c>
       <c r="C40" s="4" t="str">
         <v/>
@@ -6740,10 +6740,10 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>ParDbFN1amU</v>
+        <v>QEq5oRr4UEw</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>If client has a history of OTHER disease show it on indicator panel</v>
+        <v>if client has a history of Other assign value to current event</v>
       </c>
       <c r="C41" s="5" t="str">
         <v/>
@@ -6757,10 +6757,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>l8opvp32VAd</v>
+        <v>ParDbFN1amU</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>if client has a history of Renal disease assign value to current event</v>
+        <v>If client has a history of OTHER disease show it on indicator panel</v>
       </c>
       <c r="C42" s="4" t="str">
         <v/>
@@ -6774,10 +6774,10 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>qrIXRSq77JN</v>
+        <v>l8opvp32VAd</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>If client has a history of Renal Disease show it on indicator panel</v>
+        <v>if client has a history of Renal disease assign value to current event</v>
       </c>
       <c r="C43" s="5" t="str">
         <v/>
@@ -6791,13 +6791,13 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>GtxjhHBQdLQ</v>
+        <v>qrIXRSq77JN</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>If patient has had covid, assign value to data element of current event</v>
+        <v>If client has a history of Renal Disease show it on indicator panel</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>Rule transfers date of remission and if person has previously had covid</v>
+        <v/>
       </c>
       <c r="D44" s="4" t="str">
         <v/>
@@ -6808,10 +6808,10 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>AmgPexdbztQ</v>
+        <v>GtxjhHBQdLQ</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>If patient has had underlying diseases, transfer that value to following stage</v>
+        <v>If patient has had covid, assign value to data element of current event</v>
       </c>
       <c r="C45" s="5" t="str">
         <v>Rule transfers date of remission and if person has previously had covid</v>
@@ -6825,10 +6825,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>XTLv9YqOtNX</v>
+        <v>AmgPexdbztQ</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>If previous vaccine is differente than current vaccine, show warning.</v>
+        <v>If patient has had underlying diseases, transfer that value to following stage</v>
       </c>
       <c r="C46" s="4" t="str">
         <v/>
@@ -6842,10 +6842,10 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>vd1vZsjDft4</v>
+        <v>XTLv9YqOtNX</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
+        <v>If previous vaccine is differente than current vaccine, show warning.</v>
       </c>
       <c r="C47" s="5" t="str">
         <v/>
@@ -6859,10 +6859,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>A6Oy09dbQwn</v>
+        <v>vd1vZsjDft4</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>if there was an allergic reaction after the first dose, show warning "conduct AEFI Investigation"</v>
+        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
       </c>
       <c r="C48" s="4" t="str">
         <v/>
@@ -6876,13 +6876,13 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>PJjKiFrvfuN</v>
+        <v>A6Oy09dbQwn</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>If this is the second dose, mark it as "last dose" for all vaccine products</v>
+        <v>if there was an allergic reaction after the first dose, show warning "conduct AEFI Investigation"</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>It selects the "last dose" option, it assumes that all products have two doses as the complete schedule.</v>
+        <v/>
       </c>
       <c r="D49" s="5" t="str">
         <v/>
@@ -6893,13 +6893,13 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>SkBUqyO9zG0</v>
+        <v>PJjKiFrvfuN</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>Last dose - complete programme</v>
+        <v>If this is the second dose, mark it as "last dose" for all vaccine products</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v/>
+        <v>It selects the "last dose" option, it assumes that all products have two doses as the complete schedule.</v>
       </c>
       <c r="D50" s="4" t="str">
         <v/>
@@ -6910,10 +6910,10 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>W0YQaz1qRJb</v>
+        <v>SkBUqyO9zG0</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>Send notification if overdue</v>
+        <v>Last dose - complete programme</v>
       </c>
       <c r="C51" s="5" t="str">
         <v/>
@@ -6927,10 +6927,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>nU9WWRKt7PL</v>
+        <v>W0YQaz1qRJb</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>Show vaccine type from previous vaccination event</v>
+        <v>Send notification if overdue</v>
       </c>
       <c r="C52" s="4" t="str">
         <v/>
@@ -6944,10 +6944,10 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>LO6XtDyCbya</v>
+        <v>nU9WWRKt7PL</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>Show warning if person has had covid within 90 days of vaccination date</v>
+        <v>Show vaccine type from previous vaccination event</v>
       </c>
       <c r="C53" s="5" t="str">
         <v/>
@@ -6961,13 +6961,13 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>biYqhZM5HXe</v>
+        <v>LO6XtDyCbya</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>Show warning if the client is a health worker</v>
+        <v>Show warning if person has had covid within 90 days of vaccination date</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>If the client is a health worker, show a warning in the top bar</v>
+        <v/>
       </c>
       <c r="D54" s="4" t="str">
         <v/>
@@ -6978,18 +6978,35 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
+        <v>biYqhZM5HXe</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <v>Show warning if the client is a health worker</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <v>If the client is a health worker, show a warning in the top bar</v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="str">
         <v>hdPflHqZKO3</v>
       </c>
-      <c r="B55" s="5" t="str">
+      <c r="B56" s="4" t="str">
         <v>Show warning: If first dose, then hide "last dose" DE</v>
       </c>
-      <c r="C55" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D55" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E55" s="5" t="str">
+      <c r="C56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="4" t="str">
         <v>yDuAzyqYABS</v>
       </c>
     </row>

--- a/metadata/COVAX/COVAX_TRACKER_V1_DHIS2.34/reference.xlsx
+++ b/metadata/COVAX/COVAX_TRACKER_V1_DHIS2.34/reference.xlsx
@@ -448,7 +448,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -480,7 +480,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V1.1.1</v>
+        <v>COVAC</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +488,7 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>DHIS2.34.3-80c86cc</v>
+        <v>TRACKER</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>20210310T014404</v>
+        <v>V1.1.2</v>
       </c>
     </row>
     <row r="7">
@@ -504,7 +504,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC_TRACKER_V1.1.1_DHIS2.34.3-80c86cc_20210310T014404</v>
+        <v>COVAC_TRACKER_COVAC_TRACKER_V1.1.2_DHIS2.34.3-80c86cc_20210318T014413</v>
       </c>
     </row>
   </sheetData>
@@ -581,10 +581,10 @@
         <v>s2slttllN6D</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Given name</v>
+        <v>sB1IHYu2xQT</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>TfdH5KvFmMy</v>
+        <v>sB1IHYu2xQT</v>
       </c>
       <c r="D4" s="4" t="str">
         <v/>
@@ -598,10 +598,10 @@
         <v>CbvQnJ9vOOd</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>Family name</v>
+        <v>ENRjVGxVL6l</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>aW66s2QSosT</v>
+        <v>ENRjVGxVL6l</v>
       </c>
       <c r="D5" s="5" t="str">
         <v/>
@@ -615,10 +615,10 @@
         <v>kbwzu78u3JT</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAC - Sex</v>
+        <v>oindugucx72</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>CklPZdOd6H1</v>
+        <v>oindugucx72</v>
       </c>
       <c r="D6" s="4" t="str">
         <v/>
@@ -646,13 +646,13 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>zTWSj3Lg5KP</v>
+        <v>dSiYRbN6NKt</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Date of birth (age)</v>
+        <v>NI0QRzJvQ0k</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>mAWcalQYYyk</v>
+        <v>NI0QRzJvQ0k</v>
       </c>
       <c r="D8" s="4" t="str">
         <v/>
@@ -669,7 +669,7 @@
         <v>Mobile phone number</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>ciCR6BBvIT4</v>
+        <v>fctSQp5nAYl</v>
       </c>
       <c r="D9" s="5" t="str">
         <v/>
@@ -683,10 +683,10 @@
         <v>fWwyEWSOqKq</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Address (current)</v>
+        <v>Xhdn49gUd52</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>VCtm2pySeEV</v>
+        <v>Xhdn49gUd52</v>
       </c>
       <c r="D10" s="4" t="str">
         <v/>
@@ -1197,7 +1197,7 @@
         <v>totalDoses</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v xml:space="preserve">Total doses required for this vaccine product </v>
+        <v>Total doses required for this vaccine product</v>
       </c>
       <c r="E20" s="4" t="str">
         <v>default</v>
@@ -1257,10 +1257,10 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
       <c r="C23" s="5" t="str">
         <v>COVAC_vaccine_manufacturer</v>
@@ -1329,7 +1329,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAC - Neurological/Neuromuscular</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="3">
@@ -1337,7 +1337,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAC - Immunodeficiency</v>
+        <v>COVAC - Underlying condition</v>
       </c>
     </row>
     <row r="4">
@@ -1345,7 +1345,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAC - Renal Disease</v>
+        <v>COVAC- Batch Number</v>
       </c>
     </row>
     <row r="5">
@@ -1353,7 +1353,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAC - Multiple products used - Explain</v>
+        <v>COVAC - Pregnancy</v>
       </c>
     </row>
     <row r="6">
@@ -1361,7 +1361,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAC - Vaccine Name</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
     </row>
     <row r="7">
@@ -1369,7 +1369,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC - Underlying condition</v>
+        <v>COVAC - Total doses</v>
       </c>
     </row>
     <row r="8">
@@ -1377,7 +1377,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAC - Last Dose</v>
+        <v>COVAC - Dose Number</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1385,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAC- Batch Number</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="10">
@@ -1393,7 +1393,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAC - Allergic reaction after first dose</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
     </row>
     <row r="11">
@@ -1401,7 +1401,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAC - Underlying condition Other</v>
+        <v>COVAC - AEFIs present</v>
       </c>
     </row>
     <row r="12">
@@ -1409,7 +1409,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAC - Pregnancy</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
     </row>
     <row r="13">
@@ -1417,7 +1417,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAC - Dose Expiry Date</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
     </row>
     <row r="14">
@@ -1425,7 +1425,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAC - Diabetes</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
     </row>
     <row r="15">
@@ -1433,7 +1433,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAC - Total doses</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
     </row>
     <row r="16">
@@ -1441,7 +1441,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAC - Pregnancy gestation</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="17">
@@ -1449,7 +1449,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAC - Malignancy</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
     </row>
     <row r="18">
@@ -1457,7 +1457,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAC - Dose Number</v>
+        <v>COVAC - Last Dose</v>
       </c>
     </row>
     <row r="19">
@@ -1465,7 +1465,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAC - Cardiovascular Disease</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="20">
@@ -1473,7 +1473,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAC - Chronic Lung Disease</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
     </row>
     <row r="21">
@@ -1481,7 +1481,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAC - AEFIs present</v>
+        <v>COVAC - Diabetes</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAC Suggested date for next dose</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
     </row>
     <row r="23">
@@ -1497,7 +1497,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>COVAC Previously infected with COVID</v>
+        <v>COVAC - Malignancy</v>
       </c>
     </row>
     <row r="24">
@@ -1505,7 +1505,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
     </row>
   </sheetData>
@@ -1805,13 +1805,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAC - Sex</v>
+        <v>Sex</v>
       </c>
       <c r="B9" s="5" t="str">
         <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>WDUwjiW2rGH</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>Female; Male</v>
@@ -1819,13 +1819,13 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAC - Yes/No/Unknown</v>
+        <v>Yes/No/Unknown</v>
       </c>
       <c r="B10" s="4" t="str">
         <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>L6eMZDJkCwX</v>
       </c>
       <c r="D10" s="4" t="str">
         <v>Yes; No; Unknown</v>
@@ -2089,19 +2089,19 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>AZK4rjJCss5</v>
+        <v>FKKrOBBFgs1</v>
       </c>
       <c r="B15" s="5" t="str">
         <v>Female</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>FEMALE</v>
+        <v>Female</v>
       </c>
       <c r="D15" s="5" t="str">
         <v/>
       </c>
       <c r="E15" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>WDUwjiW2rGH</v>
       </c>
     </row>
     <row r="16">
@@ -2191,19 +2191,19 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>UrUdMteQzlT</v>
+        <v>Ii4IxCLWEFn</v>
       </c>
       <c r="B21" s="5" t="str">
         <v>Male</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>MALE</v>
+        <v>Male</v>
       </c>
       <c r="D21" s="5" t="str">
         <v/>
       </c>
       <c r="E21" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>WDUwjiW2rGH</v>
       </c>
     </row>
     <row r="22">
@@ -2242,19 +2242,19 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>PLlPgcfbL1D</v>
+        <v>R98tI2c6rF5</v>
       </c>
       <c r="B24" s="4" t="str">
         <v>No</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>NO</v>
+        <v>No</v>
       </c>
       <c r="D24" s="4" t="str">
         <v/>
       </c>
       <c r="E24" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>L6eMZDJkCwX</v>
       </c>
     </row>
     <row r="25">
@@ -2514,19 +2514,19 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>TKD1XJ4ZhMO</v>
+        <v>pqxvAQU1z9W</v>
       </c>
       <c r="B40" s="4" t="str">
         <v>Unknown</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>UNKNOWN</v>
+        <v>Unknown</v>
       </c>
       <c r="D40" s="4" t="str">
         <v/>
       </c>
       <c r="E40" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>L6eMZDJkCwX</v>
       </c>
     </row>
     <row r="41">
@@ -2548,19 +2548,19 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>CvivP1rh4ii</v>
+        <v>x9yVKkv9koc</v>
       </c>
       <c r="B42" s="4" t="str">
         <v>Yes</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>YES</v>
+        <v>Yes</v>
       </c>
       <c r="D42" s="4" t="str">
         <v/>
       </c>
       <c r="E42" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>L6eMZDJkCwX</v>
       </c>
     </row>
   </sheetData>
@@ -3910,7 +3910,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3949,14 +3949,6 @@
       </c>
       <c r="B4" s="4" t="str">
         <v>qb8PkSObwqh</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="str">
-        <v>Person</v>
-      </c>
-      <c r="B5" s="5" t="str">
-        <v>loHxNJH4IvV</v>
       </c>
     </row>
   </sheetData>
@@ -4003,14 +3995,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="112.7109375" customWidth="1"/>
+    <col min="3" max="3" width="174.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
@@ -4034,75 +4026,75 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Address (current)</v>
+        <v>Area Urban Rural</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v/>
+        <v>area_urban_rural</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v xml:space="preserve">Current home address of the patient/case </v>
+        <v>Whether client lives in an urban or rural setting</v>
       </c>
       <c r="D2" s="4" t="str">
         <v/>
       </c>
       <c r="E2" s="4" t="str">
-        <v>VCtm2pySeEV</v>
+        <v>YCqoNJZKvAG</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Area Urban Rural</v>
+        <v>COVID - Occupation</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>area_urban_rural</v>
+        <v>occupation</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Whether client lives in an urban or rural setting</v>
+        <v>Client occupation from the pre-defined list</v>
       </c>
       <c r="D3" s="5" t="str">
         <v/>
       </c>
       <c r="E3" s="5" t="str">
-        <v>YCqoNJZKvAG</v>
+        <v>LY2bDXpNvS7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVID - Occupation</v>
+        <v>Date of birth is estimated</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>occupation</v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Client occupation from the pre-defined list</v>
+        <v/>
       </c>
       <c r="D4" s="4" t="str">
         <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>LY2bDXpNvS7</v>
+        <v>Z1rLc1rVHK8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Date of birth (age)</v>
+        <v>Mobile phone number</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Date of birth plus calculated age</v>
+        <v/>
       </c>
       <c r="D5" s="5" t="str">
         <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>mAWcalQYYyk</v>
+        <v>fctSQp5nAYl</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Date of birth is estimated</v>
+        <v>National ID</v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
@@ -4114,108 +4106,23 @@
         <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Z1rLc1rVHK8</v>
+        <v>Ewi7FUfcHAD</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Family name</v>
+        <v>Unique System Identifier (EPI)</v>
       </c>
       <c r="B7" s="5" t="str">
         <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>Family name of the patient</v>
+        <v>System-generated unique ID following pattern: EPI prefix + value randomly generated (#####) - Customize the length depending on the target population of your implementation</v>
       </c>
       <c r="D7" s="5" t="str">
         <v/>
       </c>
       <c r="E7" s="5" t="str">
-        <v>aW66s2QSosT</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="str">
-        <v>Given name</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C8" s="4" t="str">
-        <v>The name of the patient or initials</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E8" s="4" t="str">
-        <v>TfdH5KvFmMy</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="str">
-        <v>Mobile phone number</v>
-      </c>
-      <c r="B9" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C9" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D9" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E9" s="5" t="str">
-        <v>ciCR6BBvIT4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="str">
-        <v>National ID</v>
-      </c>
-      <c r="B10" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C10" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D10" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E10" s="4" t="str">
-        <v>Ewi7FUfcHAD</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="str">
-        <v>COVAC - Sex</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <v>patinfo_sex</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <v>Sex of Person</v>
-      </c>
-      <c r="D11" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E11" s="5" t="str">
-        <v>CklPZdOd6H1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="str">
-        <v>Unique System Identifier (EPI)</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C12" s="4" t="str">
-        <v>System-generated unique ID following pattern: CURRENT_DATE(yyyy-MM-dd) followed by a sequential number (#####)</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E12" s="4" t="str">
         <v>KSr2yTdu1AI</v>
       </c>
     </row>
@@ -4258,7 +4165,7 @@
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-03-08</v>
+        <v>2021-03-16</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4297,7 +4204,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B2" s="4" t="str">
         <v>a1jCssI2LkW</v>
@@ -4338,7 +4245,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B2" s="4" t="str">
         <v>Vaccination information</v>
@@ -4349,7 +4256,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B3" s="5" t="str">
         <v>Vaccination information</v>
@@ -4360,7 +4267,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B4" s="4" t="str">
         <v>Vaccination information</v>
@@ -4371,7 +4278,7 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B5" s="5" t="str">
         <v>Vaccination information</v>
@@ -4382,7 +4289,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B6" s="4" t="str">
         <v>Vaccination information</v>
@@ -4393,7 +4300,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B7" s="5" t="str">
         <v>Vaccination information</v>
@@ -4404,7 +4311,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B8" s="4" t="str">
         <v>Underlying Conditions</v>
@@ -4415,7 +4322,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B9" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4426,7 +4333,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B10" s="4" t="str">
         <v>Pre-immunization Questions</v>
@@ -4437,7 +4344,7 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B11" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4448,7 +4355,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B12" s="4" t="str">
         <v>Underlying Conditions</v>
@@ -4459,7 +4366,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B13" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4470,7 +4377,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B14" s="4" t="str">
         <v>Pre-immunization Questions</v>
@@ -4481,7 +4388,7 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B15" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4492,7 +4399,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B16" s="4" t="str">
         <v>Underlying Conditions</v>
@@ -4503,7 +4410,7 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B17" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4514,7 +4421,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B18" s="4" t="str">
         <v>Underlying Conditions</v>
@@ -4525,7 +4432,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B19" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4536,18 +4443,18 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B20" s="4" t="str">
         <v>Vaccination information</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B21" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4558,7 +4465,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B22" s="4" t="str">
         <v>Vaccination information</v>
@@ -4569,7 +4476,7 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B23" s="5" t="str">
         <v>Vaccination information</v>
@@ -4580,7 +4487,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B24" s="4" t="str">
         <v>Vaccination information</v>
@@ -4953,7 +4860,7 @@
         <v>kNzRGpiCvg4</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v xml:space="preserve">Doses given </v>
+        <v>Doses given</v>
       </c>
       <c r="C14" s="4" t="str">
         <v xml:space="preserve">1st, 2nd, 3rd, booster dose - Number of doses - </v>
@@ -4979,7 +4886,7 @@
         <v>AXweWKC4B3L</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v xml:space="preserve">Number of people receiving a first dose </v>
+        <v>Number of people receiving a first dose</v>
       </c>
       <c r="C15" s="5" t="str">
         <v>First dose - Number of people</v>
@@ -5213,7 +5120,7 @@
         <v>zr25iLoCE4g</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a second, third or booster dose </v>
+        <v>Number of people receiving a second, third or booster dose</v>
       </c>
       <c r="C24" s="4" t="str">
         <v>2nd, 3rd, booster dose - Number of people</v>
@@ -5242,7 +5149,7 @@
         <v xml:space="preserve">Number of people receiving a second, third or booster dose  (Male) </v>
       </c>
       <c r="C25" s="5" t="str">
-        <v xml:space="preserve">2nd, 3rd, booster dose - Number of males </v>
+        <v>2nd, 3rd, booster dose - Number of males</v>
       </c>
       <c r="D25" s="5" t="str">
         <v>COV-2 (Male)</v>
@@ -5372,7 +5279,7 @@
         <v xml:space="preserve">Number of people receiving a second, third or booster dose (Female) </v>
       </c>
       <c r="C30" s="4" t="str">
-        <v xml:space="preserve">2nd, 3rd, booster dose - Number of females </v>
+        <v>2nd, 3rd, booster dose - Number of females</v>
       </c>
       <c r="D30" s="4" t="str">
         <v>COV-2 (Female)</v>
@@ -5840,7 +5747,7 @@
         <v>ZZZNumber of doses given</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v xml:space="preserve">ZZZ1st, 2nd, 3rd, booster dose - Number of people </v>
+        <v>ZZZ1st, 2nd, 3rd, booster dose - Number of people</v>
       </c>
       <c r="D48" s="4" t="str">
         <v>ZZZCOV-n</v>
@@ -5863,7 +5770,7 @@
         <v>BEw3zmRnGo4</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v xml:space="preserve">ZZZNumber of people (Female) receiving a second, third or booster dose </v>
+        <v>ZZZNumber of people (Female) receiving a second, third or booster dose</v>
       </c>
       <c r="C49" s="5" t="str">
         <v>ZZZ2nd, 3rd, booster dose - Number of females</v>
@@ -5889,7 +5796,7 @@
         <v>IXW8ahBF3Pl</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v xml:space="preserve">ZZZNumber of people (Male) receiving a second, third or booster dose </v>
+        <v>ZZZNumber of people (Male) receiving a second, third or booster dose</v>
       </c>
       <c r="C50" s="4" t="str">
         <v>ZZZ2nd, 3rd, booster dose - Number of males</v>
@@ -5941,10 +5848,10 @@
         <v>sYIBsws6qUG</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v xml:space="preserve">zzzNumber of people receiving a second, third or booster dose </v>
+        <v>zzzNumber of people receiving a second, third or booster dose</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v xml:space="preserve">zzz2nd, 3rd, booster dose - Number of people </v>
+        <v>zzz2nd, 3rd, booster dose - Number of people</v>
       </c>
       <c r="D52" s="4" t="str">
         <v xml:space="preserve">zzzCOV-2 </v>
@@ -6335,7 +6242,7 @@
         <v>oPUB5us9T8e</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v xml:space="preserve">Calculate age </v>
+        <v>Calculate age</v>
       </c>
       <c r="C17" s="5" t="str">
         <v/>
